--- a/static/saved_dataframes/tabelle_entita_e_relazionali/Things.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/Things.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Evento NBC - settore B</t>
+          <t>Centro operativo regionale</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Vigili del fuoco</t>
+          <t>SOREU dei laghi</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
+          <t>Vigili del fuoco</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sezione del militare e della protezione della popolazione</t>
+          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
+          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,11 @@
       <c r="B39" t="n">
         <v>1000038</v>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>sezione del militare e della protezione della popolazione</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -881,7 +885,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOREU dei laghi</t>
+          <t>Centrale nazionale d'allarme</t>
         </is>
       </c>
     </row>
@@ -894,7 +898,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Centrale nazionale d'allarme</t>
+          <t>Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -907,7 +911,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Stato maggiore federale Protezione della popolazione</t>
+          <t>Protezione civile</t>
         </is>
       </c>
     </row>
@@ -920,7 +924,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Protezione civile</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
         </is>
       </c>
     </row>
@@ -929,7 +933,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1000044</v>
+        <v>1000043</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -942,7 +946,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1000045</v>
+        <v>1000044</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -955,7 +959,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1000046</v>
+        <v>1000045</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -968,7 +972,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1000047</v>
+        <v>1000046</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -981,7 +985,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1000048</v>
+        <v>1000047</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -994,11 +998,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1000050</v>
+        <v>1000049</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Organizzazione partner</t>
+          <t>Struttura operativa</t>
         </is>
       </c>
     </row>
@@ -1007,11 +1011,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1000051</v>
+        <v>1000050</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Struttura operativa</t>
+          <t>Organizzazione partner</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1024,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1000052</v>
+        <v>1000051</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1033,11 +1037,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1000053</v>
+        <v>1000052</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stato di necessità</t>
+          <t>Emergenza / Stato di emergenza / Evento emergenziale / Evento</t>
         </is>
       </c>
     </row>
@@ -1046,11 +1050,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1000054</v>
+        <v>1000053</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Emergenza / Stato di emergenza / Evento emergenziale / Evento</t>
+          <t>Stato di necessità</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1063,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1000055</v>
+        <v>1000054</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1072,7 +1076,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1000056</v>
+        <v>1000055</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1085,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1000057</v>
+        <v>1000056</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1098,7 +1102,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1000058</v>
+        <v>1000057</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1111,7 +1115,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1000059</v>
+        <v>1000058</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1124,7 +1128,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1000060</v>
+        <v>1000059</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1137,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1000061</v>
+        <v>1000060</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1150,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1000062</v>
+        <v>1000061</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1163,7 +1167,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1000063</v>
+        <v>1000062</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1176,7 +1180,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1000064</v>
+        <v>1000063</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1189,7 +1193,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1000065</v>
+        <v>1000064</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1202,7 +1206,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1000066</v>
+        <v>1000065</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1215,7 +1219,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1000068</v>
+        <v>1000066</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1228,7 +1232,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1000069</v>
+        <v>1000068</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1241,11 +1245,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1000070</v>
+        <v>1000069</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
+          <t>Legge sulla protezione della popolazione del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1258,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1000072</v>
+        <v>1000071</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1267,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1000074</v>
+        <v>1000073</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1280,7 +1284,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1000075</v>
+        <v>1000074</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1293,24 +1297,20 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1000076</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Legge sulla protezione della popolazione del 26 febbraio 2007</t>
-        </is>
-      </c>
+        <v>2000001</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1000077</v>
+        <v>3000001</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Centro operativo regionale</t>
+          <t>rappresenta la struttura di coordinamento di cui il sindaco, in qualità di autorità di protezione civile, si può avvalere per garantire una pronta e coordinata risposta,in caso di eventi critici, per il soccorso e l’assistenza alla popolazione, la difesa dell’ambiente e dei beni. Il c.o.c., in relazione alle esigenze riscontrate dall’ amministrazione, è organizzato in uffici, funzioni di supporto, ai quali il sindaco affida compiti specifici. Per ogni funzione di supporto attivata è individuato, nel piano comunale di protezione civile, un referente specifico, che ne coordinerà le attività avvalendosi del personale dell’amministrazione, del volontario o di altri enti/strutture. Il centro operativo comunale va quindi inteso come una struttura altamente flessibile che coadiuva il sindaco, quale autorità di protezione civile, in tutte le attività necessarie alla gestione di eventi critici o emergenziali.</t>
         </is>
       </c>
     </row>
@@ -1319,20 +1319,24 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2000001</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>3000002</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Polo logistico dove vengono stoccati e mantenuti in efficienza risorse da distribuire in caso di emergenza per il soccorso e l’assistenza alla popolazione (tende, impiantistica, effetti letterecci, generatori, etc.) e per l’operatività dei soccorritori (veicoli, idrovore, potabilizzatori,etc.). Consiste in un deposito di materiale vario da utilizzarsi in caso di calamità. Ve ne sono 14 in tutta italia e fanno capo alle seguenti prefetture: alessandria, ancona, bologna, cagliari, caserta, catania, catanzaro, firenze, palermo, potenza, reggio calabria, roma, temi e trieste.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3000001</v>
+        <v>3000003</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>rappresenta la struttura di coordinamento di cui il sindaco, in qualità di autorità di protezione civile, si può avvalere per garantire una pronta e coordinata risposta,in caso di eventi critici, per il soccorso e l’assistenza alla popolazione, la difesa dell’ambiente e dei beni. Il c.o.c., in relazione alle esigenze riscontrate dall’ amministrazione, è organizzato in uffici, funzioni di supporto, ai quali il sindaco affida compiti specifici. Per ogni funzione di supporto attivata è individuato, nel piano comunale di protezione civile, un referente specifico, che ne coordinerà le attività avvalendosi del personale dell’amministrazione, del volontario o di altri enti/strutture. Il centro operativo comunale va quindi inteso come una struttura altamente flessibile che coadiuva il sindaco, quale autorità di protezione civile, in tutte le attività necessarie alla gestione di eventi critici o emergenziali.</t>
+          <t>Centro operativo che viene attivato in alcune situazioni particolari. È competente per specifici settori di intervento in un’area territoriale ristretta.</t>
         </is>
       </c>
     </row>
@@ -1341,11 +1345,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3000002</v>
+        <v>3000004</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Polo logistico dove vengono stoccati e mantenuti in efficienza risorse da distribuire in caso di emergenza per il soccorso e l’assistenza alla popolazione (tende, impiantistica, effetti letterecci, generatori, etc.) e per l’operatività dei soccorritori (veicoli, idrovore, potabilizzatori,etc.). Consiste in un deposito di materiale vario da utilizzarsi in caso di calamità. Ve ne sono 14 in tutta italia e fanno capo alle seguenti prefetture: alessandria, ancona, bologna, cagliari, caserta, catania, catanzaro, firenze, palermo, potenza, reggio calabria, roma, temi e trieste.</t>
+          <t>Centro operativo che coordina gli interventi di emergenza in un ambito territoriale che generalmente comprende più comuni limitrofi o si riferisce al territorio di competenza della comunità montana. In molte realtà territoriali il coi non si attiva solo in situazione di emergenza ma è operativo anche in ordinario e funge da punto di riferimento e di raccordo sul territorio per le attività di protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1354,11 +1358,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3000003</v>
+        <v>3000005</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Centro operativo che viene attivato in alcune situazioni particolari. È competente per specifici settori di intervento in un’area territoriale ristretta.</t>
+          <t>La probabilità che un fenomeno di una determinata intensità si verifichi in un certo periodo di tempo, in una data area.</t>
         </is>
       </c>
     </row>
@@ -1367,11 +1371,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3000004</v>
+        <v>3000006</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Centro operativo che coordina gli interventi di emergenza in un ambito territoriale che generalmente comprende più comuni limitrofi o si riferisce al territorio di competenza della comunità montana. In molte realtà territoriali il coi non si attiva solo in situazione di emergenza ma è operativo anche in ordinario e funge da punto di riferimento e di raccordo sul territorio per le attività di protezione civile.</t>
+          <t>Ai fini di protezione civile, il rischio è rappresentato dalla possibilità che un fenomeno naturale o indotto dalle attività dell’uomo possa causare effetti dannosi sulla popolazione, gli insediamenti abitativi e produttivi e le infrastrutture, all’interno di una particolare area, in un determinato periodo di tempo. Il rischio è traducibile nella formula r = probabilità x vulnerabilità x esposizione.</t>
         </is>
       </c>
     </row>
@@ -1380,11 +1384,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3000005</v>
+        <v>3000007</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>La probabilità che un fenomeno di una determinata intensità si verifichi in un certo periodo di tempo, in una data area.</t>
+          <t>centro attivo 24 ore su 24 che rappresenta la componente operativa del meccanismo comunitario di protezione civile ed è collocato all’interno dell’unità di protezione civile nella direzione generale per gli aiuti umanitari e la protezione civile. Fornisce ai paesi l’accesso ad una piattaforma comunitaria di protezione civile, in cui vengono raccolte le richieste dei paesi dell’unione europea o extra europei colpiti da calamità e le offerte d’aiuto da parte dei paesi membri.</t>
         </is>
       </c>
     </row>
@@ -1393,11 +1397,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3000006</v>
+        <v>3000008</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ai fini di protezione civile, il rischio è rappresentato dalla possibilità che un fenomeno naturale o indotto dalle attività dell’uomo possa causare effetti dannosi sulla popolazione, gli insediamenti abitativi e produttivi e le infrastrutture, all’interno di una particolare area, in un determinato periodo di tempo. Il rischio è traducibile nella formula r = probabilità x vulnerabilità x esposizione.</t>
+          <t>Struttura con cui il dipartimento della protezione civile coordina l'attività di spegnimento degli incendi boschivi con la flotta aerea dello stato sul territorio nazionale. Nel coau confluiscono le richieste di intervento inoltrate dalle sale operative regionali. Il coau è un servizio operativo dell'ufficio iv - gestione delle emergenze</t>
         </is>
       </c>
     </row>
@@ -1406,11 +1410,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3000007</v>
+        <v>3000009</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>centro attivo 24 ore su 24 che rappresenta la componente operativa del meccanismo comunitario di protezione civile ed è collocato all’interno dell’unità di protezione civile nella direzione generale per gli aiuti umanitari e la protezione civile. Fornisce ai paesi l’accesso ad una piattaforma comunitaria di protezione civile, in cui vengono raccolte le richieste dei paesi dell’unione europea o extra europei colpiti da calamità e le offerte d’aiuto da parte dei paesi membri.</t>
+          <t>Centro di protezione civile attivato sul territorio colpito dall’emergenza per garantire la gestione coordinata degli interventi. Il centro deve essere collocato in area sicura rispetto alle diverse tipologie di rischio, in una struttura idonea dal punto di vista strutturale, funzionale e logistico. È strutturato in funzioni di supporto, secondo il metodo augustus, dove sono rappresentate tutte le amministrazioni, gli enti e i soggetti che concorrono alla gestione dell’emergenza. La catena classica di coordinamento, in un modello puramente teorico, prevede, dal livello locale a quallo nazionale l’attivazione dei seguenti centri gerarchicamente sovraordinati: coc - centro operativo comunale, com - centro operativo misto, ccs, - centro coordinamento soccorsi, dicomac - direzione comando e controllo.</t>
         </is>
       </c>
     </row>
@@ -1419,11 +1423,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3000008</v>
+        <v>3000010</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Struttura con cui il dipartimento della protezione civile coordina l'attività di spegnimento degli incendi boschivi con la flotta aerea dello stato sul territorio nazionale. Nel coau confluiscono le richieste di intervento inoltrate dalle sale operative regionali. Il coau è un servizio operativo dell'ufficio iv - gestione delle emergenze</t>
+          <t>Dispositivo strutturale di trattamento sanitario delle vittime che viene attivato in caso di catastrofi in un territorio particolarmente esteso. È localizzato lungo il percorso della noria di evacuazione per permettere di stabilizzare il trattamento dei feriti ed ottimizzare, su più ampia scala, l'utilizzazione delle risorse di trasporto sanitario e quelle di cura definitiva. Ad uno stesso cme possono afferire più pma. È sinonimo di ospedale da campo.</t>
         </is>
       </c>
     </row>
@@ -1432,11 +1436,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3000009</v>
+        <v>3000011</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Centro di protezione civile attivato sul territorio colpito dall’emergenza per garantire la gestione coordinata degli interventi. Il centro deve essere collocato in area sicura rispetto alle diverse tipologie di rischio, in una struttura idonea dal punto di vista strutturale, funzionale e logistico. È strutturato in funzioni di supporto, secondo il metodo augustus, dove sono rappresentate tutte le amministrazioni, gli enti e i soggetti che concorrono alla gestione dell’emergenza. La catena classica di coordinamento, in un modello puramente teorico, prevede, dal livello locale a quallo nazionale l’attivazione dei seguenti centri gerarchicamente sovraordinati: coc - centro operativo comunale, com - centro operativo misto, ccs, - centro coordinamento soccorsi, dicomac - direzione comando e controllo.</t>
+          <t>E’ costituito a livello centrale presso il ministro per il coordinamento della p.c., per la direzione ed il coordinamento in emergenza degli interventi di p.c.</t>
         </is>
       </c>
     </row>
@@ -1445,11 +1449,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3000010</v>
+        <v>3000012</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dispositivo strutturale di trattamento sanitario delle vittime che viene attivato in caso di catastrofi in un territorio particolarmente esteso. È localizzato lungo il percorso della noria di evacuazione per permettere di stabilizzare il trattamento dei feriti ed ottimizzare, su più ampia scala, l'utilizzazione delle risorse di trasporto sanitario e quelle di cura definitiva. Ad uno stesso cme possono afferire più pma. È sinonimo di ospedale da campo.</t>
+          <t>E’ una struttura di supporto ad ogni attività di p.c.; trovasi in castelnuovo di porto (roma) e dipende dal servizio emergenze del dipartimento di p.c. Fa parte del servizio emergenze del dipartimento centro situazioni della p.c. E funziona ininterrottamente per qualsiasi evenienza o segnale d’emergenza; provvede agli interventi più importanti ed immediati.</t>
         </is>
       </c>
     </row>
@@ -1458,11 +1462,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3000011</v>
+        <v>3000013</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>E’ costituito a livello centrale presso il ministro per il coordinamento della p.c., per la direzione ed il coordinamento in emergenza degli interventi di p.c.</t>
+          <t>Struttura operativa che coordina i servizi di emergenza a livello provinciale. Le strutture adibite a sede COM devono avere una suddivisione interna che preveda almeno: una sala per le riunioni, una sala per le funzioni di supporto, una sala per il volontariato, una sala per le telecomunicazioni. Il c.o.m. È una struttura operativa decentrata il cui responsabile dipende dal c.c.s. (centro coordinamento soccorsi); vi partecipano i rappresentanti dei comuni e delle strutture operative. Può essere istituito presso i comuni a cura del prefetto competente per territorio. I compiti del c.o.m. sono quelli di favorire il coordinamento dei servizi di emergenza organizzati a livello provinciale con gli interventi dei sindaci appartenenti al c.o.m. Stesso. L’ubicazione del c.o.m. Deve essere baricentrica rispetto ai comuni coordinati e localizzata in locali non vulnerabili.</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1475,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3000012</v>
+        <v>3000014</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E’ una struttura di supporto ad ogni attività di p.c.; trovasi in castelnuovo di porto (roma) e dipende dal servizio emergenze del dipartimento di p.c. Fa parte del servizio emergenze del dipartimento centro situazioni della p.c. E funziona ininterrottamente per qualsiasi evenienza o segnale d’emergenza; provvede agli interventi più importanti ed immediati.</t>
+          <t>Centro nazionale che raccoglie e valuta informazioni e notizie relative a qualsiasi evento che possa determinare l'attivazione di strutture operative di protezione civile. In situazioni di emergenza si attiva come sala operativa a livello nazionale.</t>
         </is>
       </c>
     </row>
@@ -1484,11 +1488,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3000013</v>
+        <v>3000015</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Struttura operativa che coordina i servizi di emergenza a livello provinciale. Le strutture adibite a sede COM devono avere una suddivisione interna che preveda almeno: una sala per le riunioni, una sala per le funzioni di supporto, una sala per il volontariato, una sala per le telecomunicazioni. Il c.o.m. È una struttura operativa decentrata il cui responsabile dipende dal c.c.s. (centro coordinamento soccorsi); vi partecipano i rappresentanti dei comuni e delle strutture operative. Può essere istituito presso i comuni a cura del prefetto competente per territorio. I compiti del c.o.m. sono quelli di favorire il coordinamento dei servizi di emergenza organizzati a livello provinciale con gli interventi dei sindaci appartenenti al c.o.m. Stesso. L’ubicazione del c.o.m. Deve essere baricentrica rispetto ai comuni coordinati e localizzata in locali non vulnerabili.</t>
+          <t>Rappresenta il massimo organo di coordinamento delle attività di protezione civile a livello provinciale. È composto dai responsabili di tutte le strutture operative presenti sul territorio provinciale. I compiti del ccs consistono nell'individuazione delle strategie e delle operatività di intervento necessarie al superamento dell'emergenza attraverso il coordinamento dei com.</t>
         </is>
       </c>
     </row>
@@ -1497,11 +1501,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3000014</v>
+        <v>3000016</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Centro nazionale che raccoglie e valuta informazioni e notizie relative a qualsiasi evento che possa determinare l'attivazione di strutture operative di protezione civile. In situazioni di emergenza si attiva come sala operativa a livello nazionale.</t>
+          <t>E’ costituito presso lo stato maggiore dell’esercito per la pianificazione ed il coordinamento specifico degli interventi delle forze armate in concorso.</t>
         </is>
       </c>
     </row>
@@ -1510,11 +1514,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3000015</v>
+        <v>3000017</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rappresenta il massimo organo di coordinamento delle attività di protezione civile a livello provinciale. È composto dai responsabili di tutte le strutture operative presenti sul territorio provinciale. I compiti del ccs consistono nell'individuazione delle strategie e delle operatività di intervento necessarie al superamento dell'emergenza attraverso il coordinamento dei com.</t>
+          <t>E’ una struttura costituita localmente (stazione del corpo forestale dello stato) nell’ambito del sistema integrato di lotta agli incendi boschivi; controlla un’area più o meno estesa del territorio comunale od intercomunale. Ad esso sono collegate diverse stazioni fisse di rilevamento ed é predisposto a ricevere comunicazioni (aib) da aerei, finalizzate all’avvistamento. Valuta sulla base delle informazioni, l’esigenza di intervento aereo e la segnala al centro operativo provinciale (c.o.p.)</t>
         </is>
       </c>
     </row>
@@ -1523,11 +1527,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3000016</v>
+        <v>3000018</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>E’ costituito presso lo stato maggiore dell’esercito per la pianificazione ed il coordinamento specifico degli interventi delle forze armate in concorso.</t>
+          <t>E’ una struttura costituita a livello provinciale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento dell’attività di tutti i col di competenza, al controllo ed alla gestione dell’intervento e delle risorse a livello provinciale, al collegamento operativo con il cor.</t>
         </is>
       </c>
     </row>
@@ -1536,11 +1540,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3000017</v>
+        <v>3000019</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E’ una struttura costituita localmente (stazione del corpo forestale dello stato) nell’ambito del sistema integrato di lotta agli incendi boschivi; controlla un’area più o meno estesa del territorio comunale od intercomunale. Ad esso sono collegate diverse stazioni fisse di rilevamento ed é predisposto a ricevere comunicazioni (aib) da aerei, finalizzate all’avvistamento. Valuta sulla base delle informazioni, l’esigenza di intervento aereo e la segnala al centro operativo provinciale (c.o.p.)</t>
+          <t>Sono attivita' di prevenzione non strutturale di protezione civile quelle concernenti: a) l'allertamento del Servizio nazionale, articolato in attivita' di preannuncio in termini probabilistici, ove possibile e sulla base delle conoscenze disponibili, di monitoraggio e di sorveglianza in tempo reale degli eventi e della conseguente evoluzione degli scenari di rischio; b) la pianificazione di protezione civile, come disciplinata dall'articolo 18; c) la formazione e l'acquisizione di ulteriori competenze professionali degli operatori del Servizio nazionale; d) l'applicazione e l'aggiornamento della normativa tecnica di interesse; e) la diffusione della conoscenza e della cultura della protezione civile, anche con il coinvolgimento delle istituzioni scolastiche, allo scopo di promuovere la resilienza delle comunita' e l'adozione di comportamenti consapevoli e misure di autoprotezione da parte dei cittadini; f) l'informazione alla popolazione sugli scenari di rischio e le relative norme di comportamento nonche' sulla pianificazione di protezione civile; g) la promozione e l'organizzazione di esercitazioni ed altre attivita' addestrative e formative, anche con il coinvolgimento delle comunita', sul territorio nazionale al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; h) le attivita' di cui al presente comma svolte all'estero, in via bilaterale, o nel quadro della partecipazione dell'Italia all'Unione europea e ad organizzazioni internazionali, al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; i) le attivita' volte ad assicurare il raccordo tra la pianificazione di protezione civile e la pianificazione territoriale e le procedure amministrative di gestione del territorio per gli aspetti di competenza delle diverse componenti.</t>
         </is>
       </c>
     </row>
@@ -1549,11 +1553,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3000018</v>
+        <v>3000020</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E’ una struttura costituita a livello provinciale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento dell’attività di tutti i col di competenza, al controllo ed alla gestione dell’intervento e delle risorse a livello provinciale, al collegamento operativo con il cor.</t>
+          <t>Sono attivita' di prevenzione strutturale di protezione civile quelle concernenti: a) la partecipazione all'elaborazione delle linee di indirizzo nazionali e regionali per la definizione delle politiche di prevenzione strutturale dei rischi naturali o derivanti dalle attivita' dell'uomo e per la loro attuazione; b) la partecipazione alla programmazione degli interventi finalizzati alla mitigazione dei rischi naturali o derivanti dall'attivita' dell'uomo e alla relativa attuazione; c) l'esecuzione di interventi strutturali di mitigazione del rischio in occasione di eventi calamitosi, in coerenza con gli strumenti di programmazione e pianificazione esistenti; d) le azioni integrate di prevenzione strutturale e non strutturale per finalita' di protezione civile di cui all'articolo 22.</t>
         </is>
       </c>
     </row>
@@ -1562,11 +1566,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3000019</v>
+        <v>3000021</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sono attivita' di prevenzione non strutturale di protezione civile quelle concernenti: a) l'allertamento del Servizio nazionale, articolato in attivita' di preannuncio in termini probabilistici, ove possibile e sulla base delle conoscenze disponibili, di monitoraggio e di sorveglianza in tempo reale degli eventi e della conseguente evoluzione degli scenari di rischio; b) la pianificazione di protezione civile, come disciplinata dall'articolo 18; c) la formazione e l'acquisizione di ulteriori competenze professionali degli operatori del Servizio nazionale; d) l'applicazione e l'aggiornamento della normativa tecnica di interesse; e) la diffusione della conoscenza e della cultura della protezione civile, anche con il coinvolgimento delle istituzioni scolastiche, allo scopo di promuovere la resilienza delle comunita' e l'adozione di comportamenti consapevoli e misure di autoprotezione da parte dei cittadini; f) l'informazione alla popolazione sugli scenari di rischio e le relative norme di comportamento nonche' sulla pianificazione di protezione civile; g) la promozione e l'organizzazione di esercitazioni ed altre attivita' addestrative e formative, anche con il coinvolgimento delle comunita', sul territorio nazionale al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; h) le attivita' di cui al presente comma svolte all'estero, in via bilaterale, o nel quadro della partecipazione dell'Italia all'Unione europea e ad organizzazioni internazionali, al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; i) le attivita' volte ad assicurare il raccordo tra la pianificazione di protezione civile e la pianificazione territoriale e le procedure amministrative di gestione del territorio per gli aspetti di competenza delle diverse componenti.</t>
+          <t>Sono attivita' di protezione civile quelle volte alla previsione, prevenzione e mitigazione dei rischi, alla gestione delle emergenze e al loro superamento.</t>
         </is>
       </c>
     </row>
@@ -1575,11 +1579,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3000020</v>
+        <v>3000022</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sono attivita' di prevenzione strutturale di protezione civile quelle concernenti: a) la partecipazione all'elaborazione delle linee di indirizzo nazionali e regionali per la definizione delle politiche di prevenzione strutturale dei rischi naturali o derivanti dalle attivita' dell'uomo e per la loro attuazione; b) la partecipazione alla programmazione degli interventi finalizzati alla mitigazione dei rischi naturali o derivanti dall'attivita' dell'uomo e alla relativa attuazione; c) l'esecuzione di interventi strutturali di mitigazione del rischio in occasione di eventi calamitosi, in coerenza con gli strumenti di programmazione e pianificazione esistenti; d) le azioni integrate di prevenzione strutturale e non strutturale per finalita' di protezione civile di cui all'articolo 22.</t>
+          <t>In coerenza con le tipologie dei rischi di cui all'articolo 16, la Commissione nazionale per la previsione e la prevenzione dei grandi rischi e' organo di consulenza tecnico-scientifica del Dipartimento della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1588,11 +1592,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3000021</v>
+        <v>3000023</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sono attivita' di protezione civile quelle volte alla previsione, prevenzione e mitigazione dei rischi, alla gestione delle emergenze e al loro superamento.</t>
+          <t>L'Elenco nazionale del volontariato di protezione civile costituisce lo strumento operativo mediante il quale viene assicurata la partecipazione del volontariato organizzato alle attivita' di cui all'articolo 2, garantendone l'indirizzo unitario, nel rispetto delle peculiarita' dei territori, grazie a specifiche modalita' di registrazione. L'Elenco nazionale del volontariato di protezione civile e' costituito dall'insieme: a) degli elenchi territoriali del volontariato di protezione civile, istituiti presso le Regioni e le Province autonome di Trento e di Bolzano; b) dell'elenco centrale del volontariato di protezione civile, istituito presso il Dipartimento della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1601,11 +1605,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3000022</v>
+        <v>3000024</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>In coerenza con le tipologie dei rischi di cui all'articolo 16, la Commissione nazionale per la previsione e la prevenzione dei grandi rischi e' organo di consulenza tecnico-scientifica del Dipartimento della protezione civile.</t>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che possono essere fronteggiati mediante interventi attuabili, dai singoli enti e amministrazioni competenti in via ordinaria;</t>
         </is>
       </c>
     </row>
@@ -1614,11 +1618,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3000023</v>
+        <v>3000025</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>L'Elenco nazionale del volontariato di protezione civile costituisce lo strumento operativo mediante il quale viene assicurata la partecipazione del volontariato organizzato alle attivita' di cui all'articolo 2, garantendone l'indirizzo unitario, nel rispetto delle peculiarita' dei territori, grazie a specifiche modalita' di registrazione. L'Elenco nazionale del volontariato di protezione civile e' costituito dall'insieme: a) degli elenchi territoriali del volontariato di protezione civile, istituiti presso le Regioni e le Province autonome di Trento e di Bolzano; b) dell'elenco centrale del volontariato di protezione civile, istituito presso il Dipartimento della protezione civile.</t>
+          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1631,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3000024</v>
+        <v>3000026</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che possono essere fronteggiati mediante interventi attuabili, dai singoli enti e amministrazioni competenti in via ordinaria;</t>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
         </is>
       </c>
     </row>
@@ -1640,11 +1644,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3000025</v>
+        <v>3000027</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
+          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
         </is>
       </c>
     </row>
@@ -1653,11 +1657,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3000026</v>
+        <v>3000028</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
+          <t>La pianificazione di protezione civile ai diversi livelli territoriali e' l'attivita' di prevenzione non strutturale, basata sulle attivita' di previsione e, in particolare, di identificazione degli scenari di cui all'articolo 2, comma 2, finalizzata: a) alla definizione delle strategie operative e del modello di intervento contenente l'organizzazione delle strutture per lo svolgimento, in forma coordinata, delle attivita' di protezione civile e della risposta operativa per la gestione degli eventi calamitosi previsti o in atto, garantendo l'effettivita' delle funzioni da svolgere con particolare riguardo alle persone in condizioni di fragilita' sociale e con disabilita', in relazione agli ambiti ottimali di cui all'articolo 11, comma 3, definiti su base provinciale e comunale, quest'ultimo anche in forma aggregata; b) ad assicurare il necessario raccordo informativo con le strutture preposte all'allertamento del Servizio nazionale; c) alla definizione dei flussi di comunicazione tra le componenti e strutture operative del Servizio nazionale interessate; d) alla definizione dei meccanismi e delle procedure per la revisione e l'aggiornamento della pianificazione, per l'organizzazione di esercitazioni e per la relativa informazione alla popolazione, da assicurare anche in corso di evento;</t>
         </is>
       </c>
     </row>
@@ -1666,11 +1670,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3000027</v>
+        <v>3000029</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
+          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
         </is>
       </c>
     </row>
@@ -1679,11 +1683,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3000028</v>
+        <v>3000030</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>La pianificazione di protezione civile ai diversi livelli territoriali e' l'attivita' di prevenzione non strutturale, basata sulle attivita' di previsione e, in particolare, di identificazione degli scenari di cui all'articolo 2, comma 2, finalizzata: a) alla definizione delle strategie operative e del modello di intervento contenente l'organizzazione delle strutture per lo svolgimento, in forma coordinata, delle attivita' di protezione civile e della risposta operativa per la gestione degli eventi calamitosi previsti o in atto, garantendo l'effettivita' delle funzioni da svolgere con particolare riguardo alle persone in condizioni di fragilita' sociale e con disabilita', in relazione agli ambiti ottimali di cui all'articolo 11, comma 3, definiti su base provinciale e comunale, quest'ultimo anche in forma aggregata; b) ad assicurare il necessario raccordo informativo con le strutture preposte all'allertamento del Servizio nazionale; c) alla definizione dei flussi di comunicazione tra le componenti e strutture operative del Servizio nazionale interessate; d) alla definizione dei meccanismi e delle procedure per la revisione e l'aggiornamento della pianificazione, per l'organizzazione di esercitazioni e per la relativa informazione alla popolazione, da assicurare anche in corso di evento;</t>
+          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
         </is>
       </c>
     </row>
@@ -1692,11 +1696,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3000029</v>
+        <v>3000031</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
+          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
         </is>
       </c>
     </row>
@@ -1705,11 +1709,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3000030</v>
+        <v>3000032</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
+          <t>Termine che indica il denaro del fondo emergenza nazionale.</t>
         </is>
       </c>
     </row>
@@ -1718,11 +1722,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3000031</v>
+        <v>3000033</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
+          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
         </is>
       </c>
     </row>
@@ -1731,11 +1735,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3000032</v>
+        <v>3000034</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Termine che indica il denaro del fondo emergenza nazionale.</t>
+          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
         </is>
       </c>
     </row>
@@ -1744,11 +1748,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3000033</v>
+        <v>3000035</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
+          <t>Struttura operativa della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1757,11 +1761,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3000034</v>
+        <v>3000036</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Struttura operativa della protezione civile.</t>
+          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1774,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3000035</v>
+        <v>3000037</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1783,7 +1787,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3000036</v>
+        <v>3000038</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1801,11 +1805,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3000037</v>
+        <v>3000039</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
+          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
         </is>
       </c>
     </row>
@@ -1814,48 +1818,9 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3000038</v>
+        <v>3000040</v>
       </c>
       <c r="C112" t="inlineStr">
-        <is>
-          <t>Componente della protezione civile, costituiscono corpo civico</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3000039</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3000040</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3000041</v>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>Nel caso in cui si delinea o si è verificato un evento di portata nazionale rilevante per la protezione della popolazione, lo SMFP assume i compiti seguenti (art. 4, cpv. 2 OSMFP):
 - assicura lo scambio di informazioni e il coordinamento con altri stati maggiori e organi della Confederazione e dei Cantoni, con i gestori di infrastrutture critiche e con i competenti organi all'estero;
@@ -1867,40 +1832,40 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3000041</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>3000042</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>3000043</v>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3000044</v>
-      </c>
-      <c r="C118" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Il comando della protezione civile è l’organo che dirige la protezione civile, ed è generalmente costituito dal comandante della protezione civile e dai suoi sostituti. I suoi compiti fondamentali sono i seguenti:
 - condurre gli interventi
@@ -1911,27 +1876,27 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3000044</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>3000045</v>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3000046</v>
-      </c>
-      <c r="C120" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Per evento NBC s'intende l'emissione illecita di sostanze nucleari (atomiche e radiologiche, N), biologiche (B) o chimiche (C). L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico). Si distinguono i seguenti settori:
 - settore N: emissione di radiazioni ionizzanti e radioattività;
@@ -1940,16 +1905,55 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3000046</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3000047</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3000048</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+        </is>
+      </c>
+    </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3000047</v>
+        <v>3000049</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
         </is>
       </c>
     </row>
@@ -1958,11 +1962,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3000048</v>
+        <v>3000050</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
         </is>
       </c>
     </row>
@@ -1971,11 +1975,12 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3000049</v>
+        <v>3000051</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
+ organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
         </is>
       </c>
     </row>
@@ -1984,11 +1989,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3000050</v>
+        <v>3000052</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
         </is>
       </c>
     </row>
@@ -1997,11 +2002,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3000051</v>
+        <v>3000053</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
+          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2015,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3000052</v>
+        <v>3000054</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
- organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
+          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
@@ -2024,11 +2028,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3000053</v>
+        <v>3000055</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
+          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -2037,11 +2041,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3000054</v>
+        <v>3000056</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
+          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
         </is>
       </c>
     </row>
@@ -2050,11 +2054,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3000055</v>
+        <v>3000057</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
+          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
         </is>
       </c>
     </row>
@@ -2063,11 +2067,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3000056</v>
+        <v>3000058</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
+          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
         </is>
       </c>
     </row>
@@ -2076,11 +2080,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3000057</v>
+        <v>3000059</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
+          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
         </is>
       </c>
     </row>
@@ -2089,48 +2093,9 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3000058</v>
+        <v>3000060</v>
       </c>
       <c r="C132" t="inlineStr">
-        <is>
-          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>3000059</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>3000060</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>3000061</v>
-      </c>
-      <c r="C135" t="inlineStr">
         <is>
           <t>milite impiegato soprattutto per assistere le organizzazioni
 partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
@@ -2139,16 +2104,55 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3000061</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3000062</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3000063</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+        </is>
+      </c>
+    </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3000062</v>
+        <v>3000064</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -2157,11 +2161,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3000063</v>
+        <v>3000065</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
         </is>
       </c>
     </row>
@@ -2170,11 +2174,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3000064</v>
+        <v>3000066</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
+Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
+Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
         </is>
       </c>
     </row>
@@ -2183,11 +2189,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3000065</v>
+        <v>3000068</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
+          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
         </is>
       </c>
     </row>
@@ -2196,11 +2202,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3000066</v>
+        <v>3000069</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -2209,26 +2215,20 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3000068</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
-Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
-Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
-        </is>
-      </c>
+        <v>3000070</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3000069</v>
+        <v>3000071</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
+          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
         </is>
       </c>
     </row>
@@ -2237,20 +2237,26 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3000070</v>
-      </c>
-      <c r="C143" t="inlineStr"/>
+        <v>3000072</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
+I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3000071</v>
+        <v>3000073</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
+          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
+transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
         </is>
       </c>
     </row>
@@ -2259,11 +2265,12 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3000072</v>
+        <v>3000074</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
+          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
+Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
         </is>
       </c>
     </row>
@@ -2272,12 +2279,12 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3000073</v>
+        <v>3000075</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
-I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
+          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
+Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2293,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3000074</v>
+        <v>3000076</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
-transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
         </is>
       </c>
     </row>
@@ -2300,26 +2306,20 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3000075</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
-Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
-        </is>
-      </c>
+        <v>4000001</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3000076</v>
+        <v>4000002</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
-Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
+          <t>Competenza della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -2328,11 +2328,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3000077</v>
+        <v>4000019</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
+          <t>Competenza di protezione civile</t>
         </is>
       </c>
     </row>
@@ -2341,20 +2341,24 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C151" t="inlineStr"/>
+        <v>4000025</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rischio CBRNNe</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4000002</v>
+        <v>4000033</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Competenza della Protezione Civile</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
     </row>
@@ -2363,11 +2367,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4000019</v>
+        <v>4000046</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Competenza di protezione civile</t>
+          <t>Normativa</t>
         </is>
       </c>
     </row>
@@ -2376,11 +2380,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4000026</v>
+        <v>4000047</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Rischio CBRNNe</t>
+          <t>Competenza di soccorso tecnico urgente; Competenza della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -2389,24 +2393,20 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4000033</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Geologia e sismologia</t>
-        </is>
-      </c>
+        <v>5000001</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4000047</v>
+        <v>5000002</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normativa</t>
+          <t>Robin Fell , Jordi Corominas , Christophe Bonnard , Leonardo Cascini , Eric Leroi , William Z. Savage, Per Conto Del Jtc-1 Joint Technical Committee On Landslides And Engineered Slopes</t>
         </is>
       </c>
     </row>
@@ -2415,11 +2415,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4000048</v>
+        <v>5000032</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Competenza di soccorso tecnico urgente; Competenza della Protezione Civile</t>
+          <t>Tommaso Sansone</t>
         </is>
       </c>
     </row>
@@ -2428,20 +2428,24 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5000001</v>
-      </c>
-      <c r="C158" t="inlineStr"/>
+        <v>5000050</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>confederazione elvetica</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5000002</v>
+        <v>5000072</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Robin Fell , Jordi Corominas , Christophe Bonnard , Leonardo Cascini , Eric Leroi , William Z. Savage, Per Conto Del Jtc-1 Joint Technical Committee On Landslides And Engineered Slopes</t>
+          <t>Tommaso sansone</t>
         </is>
       </c>
     </row>
@@ -2450,24 +2454,20 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5000032</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Tommaso Sansone</t>
-        </is>
-      </c>
+        <v>6000001</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5000050</v>
+        <v>6000002</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>confederazione elvetica</t>
+          <t>Art 1, comma 1</t>
         </is>
       </c>
     </row>
@@ -2476,11 +2476,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5000073</v>
+        <v>6000006</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tommaso sansone</t>
+          <t>Lettera R</t>
         </is>
       </c>
     </row>
@@ -2489,20 +2489,24 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6000001</v>
-      </c>
-      <c r="C163" t="inlineStr"/>
+        <v>6000009</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>lettera C</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6000002</v>
+        <v>6000019</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Art 1, comma 1</t>
+          <t>Art 2, comma 4</t>
         </is>
       </c>
     </row>
@@ -2511,11 +2515,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>6000006</v>
+        <v>6000020</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Lettera R</t>
+          <t>Art 2, comma 5</t>
         </is>
       </c>
     </row>
@@ -2524,11 +2528,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6000009</v>
+        <v>6000021</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>lettera C</t>
+          <t>Art 2, comma 1</t>
         </is>
       </c>
     </row>
@@ -2537,11 +2541,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6000019</v>
+        <v>6000022</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Art 2, comma 4</t>
+          <t>Art 20, Comma 1</t>
         </is>
       </c>
     </row>
@@ -2550,11 +2554,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>6000020</v>
+        <v>6000023</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Art 2, comma 5</t>
+          <t>Art 34, comma 1 e 3</t>
         </is>
       </c>
     </row>
@@ -2563,11 +2567,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6000021</v>
+        <v>6000024</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Art 2, comma 1</t>
+          <t>Art 7, Comma 1, lettera a</t>
         </is>
       </c>
     </row>
@@ -2576,11 +2580,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6000022</v>
+        <v>6000026</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Art 20, Comma 1</t>
+          <t>Art 7, Comma 1, lettera b</t>
         </is>
       </c>
     </row>
@@ -2589,11 +2593,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6000023</v>
+        <v>6000027</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Art 34, comma 1 e 3</t>
+          <t>Art 7, Comma 1, lettera c</t>
         </is>
       </c>
     </row>
@@ -2602,11 +2606,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6000024</v>
+        <v>6000028</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Art 7, Comma 1, lettera a</t>
+          <t>Art 18, comma 1</t>
         </is>
       </c>
     </row>
@@ -2615,11 +2619,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6000025</v>
+        <v>6000029</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Art 7, Comma 1, lettera b</t>
+          <t>Art 2, comma 3</t>
         </is>
       </c>
     </row>
@@ -2628,11 +2632,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6000027</v>
+        <v>6000030</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Art 7, Comma 1, lettera c</t>
+          <t>Art 2, comma 2</t>
         </is>
       </c>
     </row>
@@ -2641,11 +2645,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6000028</v>
+        <v>6000031</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Art 18, comma 1</t>
+          <t>Art 6, comma 1</t>
         </is>
       </c>
     </row>
@@ -2654,11 +2658,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6000029</v>
+        <v>6000041</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Art 2, comma 3</t>
+          <t>Art. 1</t>
         </is>
       </c>
     </row>
@@ -2667,11 +2671,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6000030</v>
+        <v>6000044</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Art 2, comma 2</t>
+          <t>Impianti di protezione per la protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -2680,11 +2684,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6000031</v>
+        <v>6000045</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Art 6, comma 1</t>
+          <t>Definizione di „evento NBC“: emissione di sostanze pericolose</t>
         </is>
       </c>
     </row>
@@ -2693,11 +2697,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6000042</v>
+        <v>6000046</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Art. 1</t>
+          <t>primo paragrafo</t>
         </is>
       </c>
     </row>
@@ -2706,11 +2710,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6000045</v>
+        <v>6000047</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Impianti di protezione per la protezione della popolazione</t>
+          <t>Art. 3</t>
         </is>
       </c>
     </row>
@@ -2719,11 +2723,11 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6000046</v>
+        <v>6000048</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Definizione di „evento NBC“: emissione di sostanze pericolose</t>
+          <t>Art. 10</t>
         </is>
       </c>
     </row>
@@ -2732,11 +2736,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6000047</v>
+        <v>6000049</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>primo paragrafo</t>
+          <t>Art. 13</t>
         </is>
       </c>
     </row>
@@ -2745,11 +2749,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6000048</v>
+        <v>6000051</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Art. 3</t>
+          <t>Art. 4</t>
         </is>
       </c>
     </row>
@@ -2758,11 +2762,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6000049</v>
+        <v>6000052</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Art. 10</t>
+          <t>Art 7, Comma 1</t>
         </is>
       </c>
     </row>
@@ -2771,11 +2775,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6000051</v>
+        <v>6000053</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Art. 13</t>
+          <t>Art. 20</t>
         </is>
       </c>
     </row>
@@ -2784,11 +2788,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6000052</v>
+        <v>6000054</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Art. 4</t>
+          <t>Art. 50</t>
         </is>
       </c>
     </row>
@@ -2797,11 +2801,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6000053</v>
+        <v>6000055</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Art. 20</t>
+          <t>Art. 45 e Art. 50</t>
         </is>
       </c>
     </row>
@@ -2810,11 +2814,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6000054</v>
+        <v>6000056</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Art 7, Comma 1</t>
+          <t>Art. 45</t>
         </is>
       </c>
     </row>
@@ -2823,11 +2827,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6000055</v>
+        <v>6000057</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Art. 50</t>
+          <t>pag 10</t>
         </is>
       </c>
     </row>
@@ -2836,11 +2840,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6000056</v>
+        <v>6000058</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Art. 45 e Art. 50</t>
+          <t>pag 9</t>
         </is>
       </c>
     </row>
@@ -2849,11 +2853,11 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6000057</v>
+        <v>6000059</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Art. 45</t>
+          <t>Art. 6</t>
         </is>
       </c>
     </row>
@@ -2862,11 +2866,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6000058</v>
+        <v>6000064</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>pag 10</t>
+          <t>Art. 11</t>
         </is>
       </c>
     </row>
@@ -2875,11 +2879,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6000059</v>
+        <v>6000065</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>pag 9</t>
+          <t>Art. 12</t>
         </is>
       </c>
     </row>
@@ -2888,11 +2892,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6000060</v>
+        <v>6000066</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Art. 6</t>
+          <t>Presentazione</t>
         </is>
       </c>
     </row>
@@ -2901,11 +2905,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6000065</v>
+        <v>6000069</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Art. 11</t>
+          <t>Normativa nazionale: Legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002</t>
         </is>
       </c>
     </row>
@@ -2914,11 +2918,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6000066</v>
+        <v>6000071</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Art. 12</t>
+          <t>Home &gt; Servizio Nazionale &gt; Strutture operative &gt; Volontariato</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2931,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6000068</v>
+        <v>6000073</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Presentazione</t>
+          <t>Art. 7</t>
         </is>
       </c>
     </row>
@@ -2940,11 +2944,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6000071</v>
+        <v>6000075</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normativa nazionale: Legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002</t>
+          <t>Normativa cantonale: Legge sulla protezione della popolazione (LProtPop) del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -2953,24 +2957,20 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6000072</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Home &gt; Servizio Nazionale &gt; Strutture operative &gt; Volontariato</t>
-        </is>
-      </c>
+        <v>7000001</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6000074</v>
+        <v>7000002</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Art. 7</t>
+          <t>http://www.protezionecivile.gov.it/glossario?p_p_id=DpcGlossario_WAR_DpcGlossario100SNAPSHOT&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_letter=C&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_action=listByLetter</t>
         </is>
       </c>
     </row>
@@ -2979,11 +2979,11 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6000076</v>
+        <v>7000009</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Normativa cantonale: Legge sulla protezione della popolazione (LProtPop) del 26 febbraio 2007</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=1&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -2992,20 +2992,24 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>7000001</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
+        <v>7000019</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=2&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>7000002</v>
+        <v>7000022</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/glossario?p_p_id=DpcGlossario_WAR_DpcGlossario100SNAPSHOT&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_letter=C&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_action=listByLetter</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=20&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3014,11 +3018,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>7000009</v>
+        <v>7000023</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=1&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=34&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=8&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3031,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7000019</v>
+        <v>7000024</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=2&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=7&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=2&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3040,11 +3044,11 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7000022</v>
+        <v>7000028</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=20&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=18&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3053,11 +3057,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7000023</v>
+        <v>7000031</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=34&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=8&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=6&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3066,11 +3070,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7000024</v>
+        <v>7000048</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=7&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=2&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=10&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
         </is>
       </c>
     </row>
@@ -3079,11 +3083,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7000028</v>
+        <v>7000049</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=18&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=13&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
         </is>
       </c>
     </row>
@@ -3092,11 +3096,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>7000031</v>
+        <v>8000001</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=6&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Glossario Dei Termini Inerenti Il Mondo Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3105,11 +3109,11 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>7000049</v>
+        <v>8000002</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=10&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
+          <t>Piano Comunale Di Protezione Civile - Comune di Fondi</t>
         </is>
       </c>
     </row>
@@ -3118,11 +3122,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7000051</v>
+        <v>8000003</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=13&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
+          <t>Glossario – Dipartimento Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3131,11 +3135,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>8000001</v>
+        <v>8000005</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Glossario Dei Termini Inerenti Il Mondo Della Protezione Civile</t>
+          <t>Glossario – Conoscere Il Territorio – Città Di Gubbio</t>
         </is>
       </c>
     </row>
@@ -3144,11 +3148,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>8000002</v>
+        <v>8000006</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Protezione Civile - Comune di Fondi</t>
+          <t>Acronimi Utili In Protezione E Difesa Civile</t>
         </is>
       </c>
     </row>
@@ -3157,11 +3161,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>8000003</v>
+        <v>8000011</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Glossario – Dipartimento Della Protezione Civile</t>
+          <t>Piano Comunale Di Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3170,11 +3174,11 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>8000005</v>
+        <v>8000012</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Glossario – Conoscere Il Territorio – Città Di Gubbio</t>
+          <t>Glossario Di Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3183,11 +3187,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>8000006</v>
+        <v>8000013</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Acronimi Utili In Protezione E Difesa Civile</t>
+          <t>Piano Protezione Civile Comunale – Comune Di Ravenna</t>
         </is>
       </c>
     </row>
@@ -3196,11 +3200,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>8000011</v>
+        <v>8000014</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Protezione Civile</t>
+          <t>Glossario Di Protezione Civile – Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3209,11 +3213,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>8000012</v>
+        <v>8000015</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Glossario Di Protezione Civile</t>
+          <t>Benvenuti sul sito web della Centrale nazionale d'allarme CENAL</t>
         </is>
       </c>
     </row>
@@ -3222,11 +3226,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>8000013</v>
+        <v>8000016</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Piano Protezione Civile Comunale – Comune Di Ravenna</t>
+          <t>Piano Comunale Di Emergenza - Glossario</t>
         </is>
       </c>
     </row>
@@ -3235,11 +3239,11 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>8000014</v>
+        <v>8000017</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Glossario Di Protezione Civile – Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
+          <t>Piano Comunale Di Protezione Civile – Comune di Fondi</t>
         </is>
       </c>
     </row>
@@ -3248,11 +3252,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>8000015</v>
+        <v>8000019</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Benvenuti sul sito web della Centrale nazionale d'allarme CENAL</t>
+          <t>Decreto Legislativo 2 Gennaio 2018, N. 1, Codice Della Protezione Civile. (18G00011)</t>
         </is>
       </c>
     </row>
@@ -3261,11 +3265,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>8000016</v>
+        <v>8000025</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Emergenza - Glossario</t>
+          <t>La Protezione NBC</t>
         </is>
       </c>
     </row>
@@ -3274,24 +3278,20 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>8000017</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Piano Comunale Di Protezione Civile – Comune di Fondi</t>
-        </is>
-      </c>
+        <v>8000032</v>
+      </c>
+      <c r="C224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>8000019</v>
+        <v>8000033</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Decreto Legislativo 2 Gennaio 2018, N. 1, Codice Della Protezione Civile. (18G00011)</t>
+          <t>Linee Guida Per La Zonazione Della Suscettibilità, Della Pericolosità E Del Rischio Da Frana Ai Fini Della Pianificazione Territoriale</t>
         </is>
       </c>
     </row>
@@ -3300,11 +3300,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8000026</v>
+        <v>8000034</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>La Protezione NBC</t>
+          <t>SOREU dei Laghi</t>
         </is>
       </c>
     </row>
@@ -3313,20 +3313,24 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>8000032</v>
-      </c>
-      <c r="C227" t="inlineStr"/>
+        <v>8000037</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Le SOREU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>8000033</v>
+        <v>8000038</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Linee Guida Per La Zonazione Della Suscettibilità, Della Pericolosità E Del Rischio Da Frana Ai Fini Della Pianificazione Territoriale</t>
+          <t>Chi siamo</t>
         </is>
       </c>
     </row>
@@ -3335,11 +3339,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>8000035</v>
+        <v>8000040</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Le SOREU</t>
+          <t>Elemento d'intervento e di supporto dello Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -3348,11 +3352,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>8000036</v>
+        <v>8000041</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Chi siamo</t>
+          <t>Legge sulla protezione civile del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -3361,11 +3365,11 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>8000039</v>
+        <v>8000043</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SOREU dei Laghi</t>
+          <t>Il comando della protezione civile</t>
         </is>
       </c>
     </row>
@@ -3374,11 +3378,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>8000041</v>
+        <v>8000044</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Elemento d'intervento e di supporto dello Stato maggiore federale Protezione della popolazione</t>
+          <t>Costruzioni di protezione</t>
         </is>
       </c>
     </row>
@@ -3387,11 +3391,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8000042</v>
+        <v>8000046</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Legge sulla protezione civile del 26 febbraio 2007</t>
+          <t>Modelli e carte di suscettibilità da frana</t>
         </is>
       </c>
     </row>
@@ -3400,11 +3404,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>8000044</v>
+        <v>8000047</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Il comando della protezione civile</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile del 4 ottobre 2002</t>
         </is>
       </c>
     </row>
@@ -3413,11 +3417,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>8000045</v>
+        <v>8000053</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Costruzioni di protezione</t>
+          <t>Legge sulla protezione della popolazione (del 26 febbraio 2007)</t>
         </is>
       </c>
     </row>
@@ -3426,11 +3430,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>8000046</v>
+        <v>8000057</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Dipartimento</t>
+          <t>Il comando della protezione civile - Personale</t>
         </is>
       </c>
     </row>
@@ -3439,11 +3443,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>8000047</v>
+        <v>8000059</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Modelli e carte di suscettibilità da frana</t>
+          <t>Regolamento sulla protezione della popolazione (RProtPop) (del 18 ottobre 2017)</t>
         </is>
       </c>
     </row>
@@ -3452,11 +3456,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>8000048</v>
+        <v>8000063</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile del 4 ottobre 2002</t>
+          <t>Segnali di allarme in Svizzera</t>
         </is>
       </c>
     </row>
@@ -3465,11 +3469,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>8000053</v>
+        <v>8000066</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Legge sulla protezione della popolazione (del 26 febbraio 2007)</t>
+          <t>Servizio della protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -3478,11 +3482,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>8000058</v>
+        <v>8000068</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Il comando della protezione civile - Personale</t>
+          <t>Dipartimento</t>
         </is>
       </c>
     </row>
@@ -3491,11 +3495,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>8000060</v>
+        <v>8000069</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Regolamento sulla protezione della popolazione (RProtPop) (del 18 ottobre 2017)</t>
+          <t>-- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
         </is>
       </c>
     </row>
@@ -3504,11 +3508,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>8000064</v>
+        <v>8000075</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Segnali di allarme in Svizzera</t>
+          <t>-- -- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
         </is>
       </c>
     </row>
@@ -3517,11 +3521,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>8000068</v>
+        <v>9000001</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Servizio della protezione della popolazione</t>
+          <t>Associazione Dei Comuni Dell'Umbria Per La Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3530,11 +3534,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>8000071</v>
+        <v>9000002</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
+          <t>Gruppo Radio Emergenza Santena</t>
         </is>
       </c>
     </row>
@@ -3543,24 +3547,20 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>8000076</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>-- -- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
-        </is>
-      </c>
+        <v>9000003</v>
+      </c>
+      <c r="C245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>9000001</v>
+        <v>9000004</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Associazione Dei Comuni Dell'Umbria Per La Protezione Civile</t>
+          <t>Associazione Falchi Del Sud - Napoli</t>
         </is>
       </c>
     </row>
@@ -3569,11 +3569,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>9000002</v>
+        <v>9000005</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Gruppo Radio Emergenza Santena</t>
+          <t>Protezione Civile Città Di Gubbio</t>
         </is>
       </c>
     </row>
@@ -3582,20 +3582,24 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>9000003</v>
-      </c>
-      <c r="C248" t="inlineStr"/>
+        <v>9000013</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>GEB srl</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>9000004</v>
+        <v>9000015</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Associazione Falchi Del Sud - Napoli</t>
+          <t>Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3604,11 +3608,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>9000005</v>
+        <v>9000019</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Protezione Civile Città Di Gubbio</t>
+          <t>Presidenza Del Consiglio Dei Ministri</t>
         </is>
       </c>
     </row>
@@ -3617,11 +3621,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9000013</v>
+        <v>9000035</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>GEB srl</t>
+          <t>Alberto Bruno, Funzionario della protezione civile di regione lombardia</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3634,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>9000015</v>
+        <v>9000046</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
+          <t>IRPI</t>
         </is>
       </c>
     </row>
@@ -3643,11 +3647,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>9000019</v>
+        <v>9000050</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Presidenza Del Consiglio Dei Ministri</t>
+          <t>Confederazion elvetica</t>
         </is>
       </c>
     </row>
@@ -3656,11 +3660,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9000034</v>
+        <v>9000057</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Alberto Bruno, Funzionario della protezione civile di regione lombardia</t>
+          <t>Ufficio Federale della Protezione della Popolazione</t>
         </is>
       </c>
     </row>
@@ -3669,11 +3673,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9000047</v>
+        <v>9000066</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>IRPI</t>
+          <t>Repubblica e Cantone Ticino</t>
         </is>
       </c>
     </row>
@@ -3682,11 +3686,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>9000050</v>
+        <v>9000069</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Confederazion elvetica</t>
+          <t>Tommaso Sansone</t>
         </is>
       </c>
     </row>
@@ -3695,11 +3699,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9000058</v>
+        <v>9000072</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Ufficio Federale della Protezione della Popolazione</t>
+          <t>Tommaso sansone</t>
         </is>
       </c>
     </row>
@@ -3708,11 +3712,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>9000068</v>
+        <v>10000001</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Repubblica e Cantone Ticino</t>
+          <t>Sispro Umbria</t>
         </is>
       </c>
     </row>
@@ -3721,11 +3725,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>9000071</v>
+        <v>10000002</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Tommaso Sansone</t>
+          <t>Comune Di Fondi</t>
         </is>
       </c>
     </row>
@@ -3734,11 +3738,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>9000073</v>
+        <v>10000003</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Tommaso sansone</t>
+          <t>Dipartimento della protezione civile</t>
         </is>
       </c>
     </row>
@@ -3747,11 +3751,11 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>10000001</v>
+        <v>10000004</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Sispro Umbria</t>
+          <t>Associazione Falchi Del Sud - Napoli</t>
         </is>
       </c>
     </row>
@@ -3760,11 +3764,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>10000002</v>
+        <v>10000005</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Comune Di Fondi</t>
+          <t>Protezione Civile Città Di Gubbio</t>
         </is>
       </c>
     </row>
@@ -3773,11 +3777,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>10000003</v>
+        <v>10000006</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Dipartimento della protezione civile</t>
+          <t>Protezione Civile Città di Gubbio</t>
         </is>
       </c>
     </row>
@@ -3786,11 +3790,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>10000004</v>
+        <v>10000009</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Associazione Falchi Del Sud - Napoli</t>
+          <t>Dipartimento Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3799,11 +3803,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>10000005</v>
+        <v>10000013</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Protezione Civile Città Di Gubbio</t>
+          <t>Comune di Ravenna</t>
         </is>
       </c>
     </row>
@@ -3812,11 +3816,11 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>10000006</v>
+        <v>10000014</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Protezione Civile Città di Gubbio</t>
+          <t>Regione Sicilia</t>
         </is>
       </c>
     </row>
@@ -3825,11 +3829,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>10000009</v>
+        <v>10000016</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Dipartimento Della Protezione Civile</t>
+          <t>Comune di Modena</t>
         </is>
       </c>
     </row>
@@ -3838,11 +3842,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>10000013</v>
+        <v>10000019</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Comune di Ravenna</t>
+          <t>Gazzetta Ufficiale</t>
         </is>
       </c>
     </row>
@@ -3851,11 +3855,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>10000014</v>
+        <v>10000025</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Regione Sicilia</t>
+          <t>Confederazione Elvetica</t>
         </is>
       </c>
     </row>
@@ -3864,24 +3868,20 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>10000016</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Comune di Modena</t>
-        </is>
-      </c>
+        <v>10000032</v>
+      </c>
+      <c r="C270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>10000019</v>
+        <v>10000034</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Gazzetta Ufficiale</t>
+          <t>Areu Lombardia</t>
         </is>
       </c>
     </row>
@@ -3890,11 +3890,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>10000026</v>
+        <v>10000038</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Confederazione Elvetica</t>
+          <t>Repubblica e Canton Ticino</t>
         </is>
       </c>
     </row>
@@ -3903,20 +3903,24 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>10000032</v>
-      </c>
-      <c r="C273" t="inlineStr"/>
+        <v>10000041</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Repubblica e Cantone Ticino</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10000035</v>
+        <v>10000046</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Areu Lombardia</t>
+          <t>IRPI CNR</t>
         </is>
       </c>
     </row>
@@ -3925,11 +3929,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10000036</v>
+        <v>10000050</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Repubblica e Canton Ticino</t>
+          <t>Confederazione elvetica</t>
         </is>
       </c>
     </row>
@@ -3938,11 +3942,11 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>10000040</v>
+        <v>11000001</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Confederazione elvetica</t>
+          <t>http://sispro.umbria.it/glossario/</t>
         </is>
       </c>
     </row>
@@ -3951,11 +3955,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>10000042</v>
+        <v>11000002</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Repubblica e Cantone Ticino</t>
+          <t>http://comunedifondi.it/protezionecivile/3%20-%20All.%201%20Glossario%20Protezione%20Civile.pdf</t>
         </is>
       </c>
     </row>
@@ -3964,11 +3968,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>10000047</v>
+        <v>11000003</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>IRPI CNR</t>
+          <t>http://www.protezionecivile.gov.it/jcms/it/glossario.wp</t>
         </is>
       </c>
     </row>
@@ -3977,11 +3981,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>11000001</v>
+        <v>11000004</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>http://sispro.umbria.it/glossario/</t>
+          <t>http://protezionecivilecittadigubbio.com/Public/glossario.html</t>
         </is>
       </c>
     </row>
@@ -3990,11 +3994,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>11000002</v>
+        <v>11000006</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>http://comunedifondi.it/protezionecivile/3%20-%20All.%201%20Glossario%20Protezione%20Civile.pdf</t>
+          <t>https://protezionecivilecittadigubbio.com/?page_id=175</t>
         </is>
       </c>
     </row>
@@ -4003,11 +4007,11 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>11000003</v>
+        <v>11000011</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/jcms/it/glossario.wp</t>
+          <t>http://www.falchidelsud.org/glossario-di-protezione-civile/contenuti/glossario-di-protezione-civile</t>
         </is>
       </c>
     </row>
@@ -4016,11 +4020,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11000004</v>
+        <v>11000013</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>http://protezionecivilecittadigubbio.com/Public/glossario.html</t>
+          <t>http://www.comune.ra.it/content/download/73714/958121/file/D_Glossario.pdf</t>
         </is>
       </c>
     </row>
@@ -4029,11 +4033,11 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11000006</v>
+        <v>11000014</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://protezionecivilecittadigubbio.com/?page_id=175</t>
+          <t>http://www.regione.sicilia.it/presidenza/protezionecivile/comitatoregionale/glossario/pdf/Acronimi.pdf</t>
         </is>
       </c>
     </row>
@@ -4042,11 +4046,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11000011</v>
+        <v>11000016</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>http://www.falchidelsud.org/glossario-di-protezione-civile/contenuti/glossario-di-protezione-civile</t>
+          <t>https://www.comune.modena.it/ambiente/protezione-civile/piano-comunale-di-protezione-civile/scheda-19-glossario</t>
         </is>
       </c>
     </row>
@@ -4055,11 +4059,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11000013</v>
+        <v>11000019</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>http://www.comune.ra.it/content/download/73714/958121/file/D_Glossario.pdf</t>
+          <t>http://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
         </is>
       </c>
     </row>
@@ -4068,11 +4072,11 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11000014</v>
+        <v>11000025</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>http://www.regione.sicilia.it/presidenza/protezionecivile/comitatoregionale/glossario/pdf/Acronimi.pdf</t>
+          <t>https://www.babs.admin.ch/it/aufgabenbabs/abcschutz.html</t>
         </is>
       </c>
     </row>
@@ -4081,24 +4085,20 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>11000016</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/ambiente/protezione-civile/piano-comunale-di-protezione-civile/scheda-19-glossario</t>
-        </is>
-      </c>
+        <v>11000032</v>
+      </c>
+      <c r="C287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11000019</v>
+        <v>11000033</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>http://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+          <t>http://www.associazionegeotecnica.it/sites/default/files/linee_guida_jtc-1_italiano_agi.pdf</t>
         </is>
       </c>
     </row>
@@ -4107,11 +4107,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>11000026</v>
+        <v>11000034</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/aufgabenbabs/abcschutz.html</t>
+          <t>https://www.areu.lombardia.it/web/home/soreu-dei-laghi</t>
         </is>
       </c>
     </row>
@@ -4120,20 +4120,24 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>11000032</v>
-      </c>
-      <c r="C290" t="inlineStr"/>
+        <v>11000035</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>http://www.protezionecivile.gov.it/servizio-nazionale/strutture-operative/volontariato</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>11000033</v>
+        <v>11000037</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>http://www.associazionegeotecnica.it/sites/default/files/linee_guida_jtc-1_italiano_agi.pdf</t>
+          <t>https://www.areu.lombardia.it/web/home/soreu</t>
         </is>
       </c>
     </row>
@@ -4142,11 +4146,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>11000034</v>
+        <v>11000038</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/servizio-nazionale/strutture-operative/volontariato</t>
+          <t>https://www4.ti.ch/di/smpp/chi-siamo/presentazione/</t>
         </is>
       </c>
     </row>
@@ -4155,11 +4159,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>11000035</v>
+        <v>11000039</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.areu.lombardia.it/web/home/soreu</t>
+          <t>https://www.naz.ch/index_it.html</t>
         </is>
       </c>
     </row>
@@ -4168,11 +4172,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>11000036</v>
+        <v>11000040</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www4.ti.ch/di/smpp/chi-siamo/presentazione/</t>
+          <t>https://www.naz.ch/it/naz/eo.html</t>
         </is>
       </c>
     </row>
@@ -4181,11 +4185,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>11000039</v>
+        <v>11000041</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.areu.lombardia.it/web/home/soreu-dei-laghi</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/44</t>
         </is>
       </c>
     </row>
@@ -4194,11 +4198,11 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>11000040</v>
+        <v>11000043</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.naz.ch/index_it.html</t>
+          <t>https://www.babs.admin.ch/it/zs/org/kdo.html</t>
         </is>
       </c>
     </row>
@@ -4207,11 +4211,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>11000041</v>
+        <v>11000044</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.naz.ch/it/naz/eo.html</t>
+          <t>https://www.babs.admin.ch/it/aufgabenbabs/schutzbauten.html</t>
         </is>
       </c>
     </row>
@@ -4220,11 +4224,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>11000042</v>
+        <v>11000045</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/44</t>
+          <t>http://www.protezionecivile.gov.it/dipartimento</t>
         </is>
       </c>
     </row>
@@ -4233,11 +4237,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>11000044</v>
+        <v>11000046</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/zs/org/kdo.html</t>
+          <t>http://www.irpi.cnr.it/focus/suscettibilita-da-frana/</t>
         </is>
       </c>
     </row>
@@ -4246,11 +4250,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>11000045</v>
+        <v>11000047</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/aufgabenbabs/schutzbauten.html</t>
+          <t>https://www.admin.ch/opc/it/classified-compilation/20011872/201701010000/520.1.pdf</t>
         </is>
       </c>
     </row>
@@ -4259,11 +4263,11 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>11000047</v>
+        <v>11000048</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>http://www.irpi.cnr.it/focus/suscettibilita-da-frana/</t>
+          <t>https://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
         </is>
       </c>
     </row>
@@ -4272,11 +4276,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>11000048</v>
+        <v>11000053</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.admin.ch/opc/it/classified-compilation/20011872/201701010000/520.1.pdf</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/48</t>
         </is>
       </c>
     </row>
@@ -4285,11 +4289,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>11000049</v>
+        <v>11000057</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+          <t>https://www.babs.admin.ch/content/babs-internet/it/publikservice/downloads/unterlagen-ausbildung/_jcr_content/contentPar/accordion_1920886228/accordionItems/kommando_zivilschutz/accordionPar/downloadlist_copy/downloadItems/829_1459931125997.download/personal170191103it.pdf</t>
         </is>
       </c>
     </row>
@@ -4298,11 +4302,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>11000053</v>
+        <v>11000059</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/48</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/index/nuovafinestra/atto/49/volume/5%20SICUREZZA/numLegge/500.110</t>
         </is>
       </c>
     </row>
@@ -4311,11 +4315,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>11000058</v>
+        <v>11000063</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/content/babs-internet/it/publikservice/downloads/unterlagen-ausbildung/_jcr_content/contentPar/accordion_1920886228/accordionItems/kommando_zivilschutz/accordionPar/downloadlist_copy/downloadItems/829_1459931125997.download/personal170191103it.pdf</t>
+          <t>https://www.ch.ch/it/allarme-sirene/</t>
         </is>
       </c>
     </row>
@@ -4324,11 +4328,11 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>11000060</v>
+        <v>11000066</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/index/nuovafinestra/atto/49/volume/5%20SICUREZZA/numLegge/500.110</t>
+          <t>https://www4.ti.ch/di/smpp/chi-siamo/servizio-della-protezione-della-popolazione/</t>
         </is>
       </c>
     </row>
@@ -4337,11 +4341,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>11000064</v>
+        <v>11000073</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.ch.ch/it/allarme-sirene/</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/pdfatto/atto/48</t>
         </is>
       </c>
     </row>
@@ -4350,24 +4354,20 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>11000068</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>https://www4.ti.ch/di/smpp/chi-siamo/servizio-della-protezione-della-popolazione/</t>
-        </is>
-      </c>
+        <v>12000001</v>
+      </c>
+      <c r="C308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>11000069</v>
+        <v>12000002</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/dipartimento</t>
+          <t>Definizione italiana, oggetto svizzero</t>
         </is>
       </c>
     </row>
@@ -4376,11 +4376,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>11000074</v>
+        <v>12000041</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/pdfatto/atto/48</t>
+          <t>Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
         </is>
       </c>
     </row>
@@ -4389,20 +4389,24 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>12000001</v>
-      </c>
-      <c r="C311" t="inlineStr"/>
+        <v>12000047</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Per il lato italiano, definizione tratta dall'art 10 del codice di protezione civile del 2-1-2018, rielaborata da Tommaso Sansone.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>12000002</v>
+        <v>12000049</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Definizione italiana, oggetto svizzero</t>
+          <t>strutture operative in italia e organizzazioni partner in svizzera hanno la stessa connotazione all'interno di un sistema di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -4411,11 +4415,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>12000042</v>
+        <v>12000052</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
+          <t>Per il lato italiano, definizione rielaborata da Tommaso Sansone a partire dall'art 7 del decreto di protezione civile 2-1-2018</t>
         </is>
       </c>
     </row>
@@ -4424,11 +4428,12 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>12000048</v>
+        <v>12000066</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Per il lato italiano, definizione tratta dall'art 10 del codice di protezione civile del 2-1-2018, rielaborata da Tommaso Sansone.</t>
+          <t>Il significato italiano di protezione civile coincide a livello di strutture con io significato svizzero di protezione della popolazione.
+Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
         </is>
       </c>
     </row>
@@ -4437,11 +4442,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>12000050</v>
+        <v>12000069</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>strutture operative in italia e organizzazioni partner in svizzera hanno la stessa connotazione all'interno di un sistema di protezione della popolazione.</t>
+          <t>definizione lato italiano, oggetto lato svizzero</t>
         </is>
       </c>
     </row>
@@ -4450,11 +4455,11 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>12000053</v>
+        <v>12000075</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Per il lato italiano, definizione rielaborata da Tommaso Sansone a partire dall'art 7 del decreto di protezione civile 2-1-2018</t>
+          <t>definizione italiana, oggetto svizzero</t>
         </is>
       </c>
     </row>
@@ -4463,13 +4468,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>12000067</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Il significato italiano di protezione civile coincide a livello di strutture con io significato svizzero di protezione della popolazione.
-Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
-        </is>
+        <v>13000001</v>
+      </c>
+      <c r="C317" s="2" t="n">
+        <v>43838</v>
       </c>
     </row>
     <row r="318">
@@ -4477,12 +4479,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>12000070</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>definizione lato italiano, oggetto lato svizzero</t>
-        </is>
+        <v>13000002</v>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>42793</v>
       </c>
     </row>
     <row r="319">
@@ -4490,12 +4490,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>12000076</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>definizione italiana, oggetto svizzero</t>
-        </is>
+        <v>13000009</v>
+      </c>
+      <c r="C319" s="2" t="n">
+        <v>42795</v>
       </c>
     </row>
     <row r="320">
@@ -4503,10 +4501,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>13000001</v>
+        <v>13000019</v>
       </c>
       <c r="C320" s="2" t="n">
-        <v>43838</v>
+        <v>43297</v>
       </c>
     </row>
     <row r="321">
@@ -4514,10 +4512,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>13000002</v>
+        <v>13000032</v>
       </c>
       <c r="C321" s="2" t="n">
-        <v>42793</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="322">
@@ -4525,10 +4523,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>13000009</v>
+        <v>13000033</v>
       </c>
       <c r="C322" s="2" t="n">
-        <v>42795</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="323">
@@ -4536,10 +4534,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>13000019</v>
+        <v>13000034</v>
       </c>
       <c r="C323" s="2" t="n">
-        <v>43297</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="324">
@@ -4547,10 +4545,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>13000032</v>
+        <v>13000035</v>
       </c>
       <c r="C324" s="2" t="n">
-        <v>43412</v>
+        <v>43804</v>
       </c>
     </row>
     <row r="325">
@@ -4558,10 +4556,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>13000033</v>
+        <v>13000036</v>
       </c>
       <c r="C325" s="2" t="n">
-        <v>43119</v>
+        <v>43774</v>
       </c>
     </row>
     <row r="326">
@@ -4569,10 +4567,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>13000034</v>
+        <v>13000038</v>
       </c>
       <c r="C326" s="2" t="n">
-        <v>43804</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="327">
@@ -4580,10 +4578,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>13000035</v>
+        <v>13000039</v>
       </c>
       <c r="C327" s="2" t="n">
-        <v>43844</v>
+        <v>43656</v>
       </c>
     </row>
     <row r="328">
@@ -4591,10 +4589,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>13000036</v>
+        <v>13000040</v>
       </c>
       <c r="C328" s="2" t="n">
-        <v>43845</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="329">
@@ -4602,10 +4600,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>13000037</v>
+        <v>13000044</v>
       </c>
       <c r="C329" s="2" t="n">
-        <v>43774</v>
+        <v>43657</v>
       </c>
     </row>
     <row r="330">
@@ -4613,10 +4611,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>13000040</v>
+        <v>13000046</v>
       </c>
       <c r="C330" s="2" t="n">
-        <v>43656</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="331">
@@ -4624,10 +4622,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>13000045</v>
+        <v>13000047</v>
       </c>
       <c r="C331" s="2" t="n">
-        <v>43657</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="332">
@@ -4635,10 +4633,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>13000047</v>
+        <v>13000066</v>
       </c>
       <c r="C332" s="2" t="n">
-        <v>43731</v>
+        <v>43815</v>
       </c>
     </row>
     <row r="333">
@@ -4646,10 +4644,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>13000048</v>
+        <v>13000068</v>
       </c>
       <c r="C333" s="2" t="n">
-        <v>43766</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="334">
@@ -4657,10 +4655,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13000058</v>
+        <v>13000069</v>
       </c>
       <c r="C334" s="2" t="n">
-        <v>43767</v>
+        <v>43780</v>
       </c>
     </row>
     <row r="335">
@@ -4668,10 +4666,12 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>13000067</v>
-      </c>
-      <c r="C335" s="2" t="n">
-        <v>43815</v>
+        <v>14000001</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>IDF1000658</t>
+        </is>
       </c>
     </row>
     <row r="336">
@@ -4679,10 +4679,12 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>13000069</v>
-      </c>
-      <c r="C336" s="2" t="n">
-        <v>43817</v>
+        <v>14000002</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>IDF1002231</t>
+        </is>
       </c>
     </row>
     <row r="337">
@@ -4690,10 +4692,12 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>13000070</v>
-      </c>
-      <c r="C337" s="2" t="n">
-        <v>43780</v>
+        <v>14000003</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>IDF1002236</t>
+        </is>
       </c>
     </row>
     <row r="338">
@@ -4701,11 +4705,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>14000001</v>
+        <v>14000004</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>IDF1000658</t>
+          <t>IDF1002238</t>
         </is>
       </c>
     </row>
@@ -4714,11 +4718,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>14000002</v>
+        <v>14000005</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>IDF1002231</t>
+          <t>IDF1002273</t>
         </is>
       </c>
     </row>
@@ -4727,11 +4731,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>14000003</v>
+        <v>14000006</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>IDF1002236</t>
+          <t>IDF1002283</t>
         </is>
       </c>
     </row>
@@ -4740,11 +4744,11 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>14000004</v>
+        <v>14000007</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>IDF1002238</t>
+          <t>IDF1002712</t>
         </is>
       </c>
     </row>
@@ -4753,11 +4757,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>14000005</v>
+        <v>14000008</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>IDF1002273</t>
+          <t>IDF1002720</t>
         </is>
       </c>
     </row>
@@ -4766,11 +4770,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>14000006</v>
+        <v>14000009</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>IDF1002283</t>
+          <t>IDF1002766</t>
         </is>
       </c>
     </row>
@@ -4779,11 +4783,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14000007</v>
+        <v>14000010</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>IDF1002712</t>
+          <t>IDF1003030</t>
         </is>
       </c>
     </row>
@@ -4792,11 +4796,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14000008</v>
+        <v>14000011</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>IDF1002720</t>
+          <t>IDF1004659</t>
         </is>
       </c>
     </row>
@@ -4805,11 +4809,11 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14000009</v>
+        <v>14000012</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>IDF1002766</t>
+          <t>IDF1004667</t>
         </is>
       </c>
     </row>
@@ -4818,11 +4822,11 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>14000010</v>
+        <v>14000013</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>IDF1003030</t>
+          <t>IDF1005534</t>
         </is>
       </c>
     </row>
@@ -4831,11 +4835,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>14000011</v>
+        <v>14000014</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>IDF1004659</t>
+          <t>IDF1005727</t>
         </is>
       </c>
     </row>
@@ -4844,11 +4848,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>14000012</v>
+        <v>14000015</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>IDF1004667</t>
+          <t>IDF1006146</t>
         </is>
       </c>
     </row>
@@ -4857,11 +4861,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>14000013</v>
+        <v>14000016</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>IDF1005534</t>
+          <t>IDF1006757</t>
         </is>
       </c>
     </row>
@@ -4870,11 +4874,11 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>14000014</v>
+        <v>14000017</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>IDF1005727</t>
+          <t>IDF1006758</t>
         </is>
       </c>
     </row>
@@ -4883,11 +4887,11 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>14000015</v>
+        <v>14000018</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>IDF1006146</t>
+          <t>IDF1006760</t>
         </is>
       </c>
     </row>
@@ -4896,11 +4900,11 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>14000016</v>
+        <v>14000019</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>IDF1006757</t>
+          <t>IDF1008618</t>
         </is>
       </c>
     </row>
@@ -4909,11 +4913,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>14000017</v>
+        <v>14000020</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>IDF1006758</t>
+          <t>IDF1008619</t>
         </is>
       </c>
     </row>
@@ -4922,11 +4926,11 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>14000018</v>
+        <v>14000021</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>IDF1006760</t>
+          <t>IDF1008620</t>
         </is>
       </c>
     </row>
@@ -4935,11 +4939,11 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>14000019</v>
+        <v>14000022</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>IDF1008618</t>
+          <t>IDF1008621</t>
         </is>
       </c>
     </row>
@@ -4948,11 +4952,11 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>14000020</v>
+        <v>14000023</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>IDF1008619</t>
+          <t>IDF1008622</t>
         </is>
       </c>
     </row>
@@ -4961,11 +4965,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>14000021</v>
+        <v>14000024</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>IDF1008620</t>
+          <t>IDF1008623</t>
         </is>
       </c>
     </row>
@@ -4974,11 +4978,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>14000022</v>
+        <v>14000025</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>IDF1008621</t>
+          <t>IDF1008624</t>
         </is>
       </c>
     </row>
@@ -4987,11 +4991,11 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>14000023</v>
+        <v>14000027</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>IDF1008622</t>
+          <t>IDF1008625</t>
         </is>
       </c>
     </row>
@@ -5000,11 +5004,11 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>14000024</v>
+        <v>14000028</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>IDF1008623</t>
+          <t>IDF1008627</t>
         </is>
       </c>
     </row>
@@ -5013,11 +5017,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>14000025</v>
+        <v>14000029</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>IDF1008624</t>
+          <t>IDF1008628</t>
         </is>
       </c>
     </row>
@@ -5026,11 +5030,11 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>14000027</v>
+        <v>14000030</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>IDF1008625</t>
+          <t>IDF1008629</t>
         </is>
       </c>
     </row>
@@ -5039,11 +5043,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>14000028</v>
+        <v>14000031</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>IDF1008627</t>
+          <t>IDF1008647</t>
         </is>
       </c>
     </row>
@@ -5052,11 +5056,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>14000029</v>
+        <v>14000032</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>IDF1008628</t>
+          <t>IDF1008657</t>
         </is>
       </c>
     </row>
@@ -5065,11 +5069,11 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>14000030</v>
+        <v>14000033</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>IDF1008629</t>
+          <t>IDF1008675</t>
         </is>
       </c>
     </row>
@@ -5078,11 +5082,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>14000031</v>
+        <v>14000034</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>IDF1008647</t>
+          <t>ITCH00000</t>
         </is>
       </c>
     </row>
@@ -5091,11 +5095,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>14000032</v>
+        <v>14000039</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>IDF1008657</t>
+          <t>ITCH00001</t>
         </is>
       </c>
     </row>
@@ -5104,11 +5108,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>14000033</v>
+        <v>14000040</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>IDF1008675</t>
+          <t>ITCH00002</t>
         </is>
       </c>
     </row>
@@ -5117,11 +5121,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>14000034</v>
+        <v>14000041</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00003</t>
         </is>
       </c>
     </row>
@@ -5130,11 +5134,11 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>14000040</v>
+        <v>14000043</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>ITCH00001</t>
+          <t>ITCH00004</t>
         </is>
       </c>
     </row>
@@ -5143,11 +5147,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>14000041</v>
+        <v>14000044</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ITCH00002</t>
+          <t>ITCH00005</t>
         </is>
       </c>
     </row>
@@ -5156,11 +5160,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>14000042</v>
+        <v>14000045</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>ITCH00003</t>
+          <t>ITCH00006</t>
         </is>
       </c>
     </row>
@@ -5169,11 +5173,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>14000044</v>
+        <v>14000046</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>ITCH00004</t>
+          <t>ITCH00007</t>
         </is>
       </c>
     </row>
@@ -5182,11 +5186,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>14000045</v>
+        <v>14000047</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>ITCH00009</t>
         </is>
       </c>
     </row>
@@ -5195,11 +5199,11 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>14000046</v>
+        <v>14000049</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>ITCH00010</t>
         </is>
       </c>
     </row>
@@ -5208,11 +5212,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>14000047</v>
+        <v>14000051</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>ITCH00011</t>
         </is>
       </c>
     </row>
@@ -5221,11 +5225,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>14000048</v>
+        <v>14000052</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>ITCH00012</t>
         </is>
       </c>
     </row>
@@ -5234,11 +5238,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>14000050</v>
+        <v>14000054</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>ITCH00013</t>
         </is>
       </c>
     </row>
@@ -5247,11 +5251,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>14000052</v>
+        <v>14000055</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>ITCH00014</t>
         </is>
       </c>
     </row>
@@ -5260,11 +5264,11 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>14000053</v>
+        <v>14000056</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>ITCH00012</t>
+          <t>ITCH00015</t>
         </is>
       </c>
     </row>
@@ -5273,11 +5277,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>14000055</v>
+        <v>14000057</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>ITCH00016</t>
         </is>
       </c>
     </row>
@@ -5286,11 +5290,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>14000056</v>
+        <v>14000058</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>ITCH00017</t>
         </is>
       </c>
     </row>
@@ -5299,11 +5303,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>14000057</v>
+        <v>14000059</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>ITCH00018</t>
         </is>
       </c>
     </row>
@@ -5312,11 +5316,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>14000058</v>
+        <v>14000060</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>ITCH00019</t>
         </is>
       </c>
     </row>
@@ -5325,11 +5329,11 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>14000059</v>
+        <v>14000061</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>ITCH00020</t>
         </is>
       </c>
     </row>
@@ -5338,11 +5342,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>14000060</v>
+        <v>14000062</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>ITCH00021</t>
         </is>
       </c>
     </row>
@@ -5351,11 +5355,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>14000061</v>
+        <v>14000063</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>ITCH00022</t>
         </is>
       </c>
     </row>
@@ -5364,11 +5368,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>14000062</v>
+        <v>14000064</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>ITCH00023</t>
         </is>
       </c>
     </row>
@@ -5377,11 +5381,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>14000063</v>
+        <v>14000065</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>ITCH00024</t>
         </is>
       </c>
     </row>
@@ -5390,11 +5394,11 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>14000064</v>
+        <v>14000066</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>ITCH00025</t>
         </is>
       </c>
     </row>
@@ -5403,11 +5407,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>14000065</v>
+        <v>14000068</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>ITCH00026</t>
         </is>
       </c>
     </row>
@@ -5416,11 +5420,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>14000066</v>
+        <v>14000069</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>ITCH00027</t>
         </is>
       </c>
     </row>
@@ -5429,11 +5433,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>14000067</v>
+        <v>14000071</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>ITCH00025</t>
+          <t>ITCH00028</t>
         </is>
       </c>
     </row>
@@ -5442,11 +5446,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>14000069</v>
+        <v>14000073</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>ITCH00026</t>
+          <t>ITCH00029</t>
         </is>
       </c>
     </row>
@@ -5455,11 +5459,11 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>14000070</v>
+        <v>14000074</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>ITCH00027</t>
+          <t>ITCH00030</t>
         </is>
       </c>
     </row>
@@ -5468,11 +5472,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>14000072</v>
+        <v>14000075</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>ITCH00031</t>
         </is>
       </c>
     </row>
@@ -5481,11 +5485,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>14000074</v>
+        <v>14000076</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>ITCH00029</t>
+          <t>ITCH00040</t>
         </is>
       </c>
     </row>
@@ -5494,48 +5498,9 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>14000075</v>
+        <v>15000001</v>
       </c>
       <c r="C399" t="inlineStr">
-        <is>
-          <t>ITCH00030</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>14000076</v>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>ITCH00031</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>14000077</v>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>ITCH00040</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>15000001</v>
-      </c>
-      <c r="C402" t="inlineStr">
         <is>
           <t>show</t>
         </is>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/Things.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/Things.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C399"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,7 +820,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SOREU dei laghi</t>
+          <t>Centrale nazionale d'allarme</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vigili del fuoco</t>
+          <t>Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
+          <t>Protezione civile</t>
         </is>
       </c>
     </row>
@@ -855,11 +855,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1000037</v>
+        <v>1000038</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
+          <t>Comando della protezione civile</t>
         </is>
       </c>
     </row>
@@ -868,11 +868,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1000038</v>
+        <v>1000039</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sezione del militare e della protezione della popolazione</t>
+          <t>Impianto di protezione per la protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -881,11 +881,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1000039</v>
+        <v>1000040</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Centrale nazionale d'allarme</t>
+          <t>Evento NBC</t>
         </is>
       </c>
     </row>
@@ -894,11 +894,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1000040</v>
+        <v>1000041</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Stato maggiore federale Protezione della popolazione</t>
+          <t>Suscettibilità da Frana</t>
         </is>
       </c>
     </row>
@@ -907,11 +907,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1000041</v>
+        <v>1000042</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Protezione civile</t>
+          <t>Pompieri</t>
         </is>
       </c>
     </row>
@@ -920,11 +920,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1000042</v>
+        <v>1000043</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
+          <t>Vigili del fuoco</t>
         </is>
       </c>
     </row>
@@ -933,11 +933,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1000043</v>
+        <v>1000044</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Comando della protezione civile</t>
+          <t>Struttura operativa</t>
         </is>
       </c>
     </row>
@@ -946,11 +946,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1000044</v>
+        <v>1000045</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Impianto di protezione per la protezione della popolazione</t>
+          <t>Organizzazione partner</t>
         </is>
       </c>
     </row>
@@ -959,11 +959,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1000045</v>
+        <v>1000046</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Evento NBC</t>
+          <t>Organo di condotta</t>
         </is>
       </c>
     </row>
@@ -972,11 +972,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1000046</v>
+        <v>1000047</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Suscettibilità da Frana</t>
+          <t>Stato di necessità</t>
         </is>
       </c>
     </row>
@@ -985,11 +985,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1000047</v>
+        <v>1000048</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pompieri</t>
+          <t>Emergenza / Stato di emergenza / Evento emergenziale / Evento</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Struttura operativa</t>
+          <t>Impianto di protezione</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Organizzazione partner</t>
+          <t>Costruzione di protezione</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Organo di condotta</t>
+          <t>Rifugio</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Emergenza / Stato di emergenza / Evento emergenziale / Evento</t>
+          <t>Addetto all'assistenza</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Stato di necessità</t>
+          <t>Assistente di stato maggiore</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Impianto di protezione</t>
+          <t>Organizzazione degli Stati maggiori di condotta</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Costruzione di protezione</t>
+          <t>Pioniere</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rifugio</t>
+          <t>Stato maggiore cantonale di condotta</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Addetto all'assistenza</t>
+          <t>Sistema d’allarme acqua</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Assistente di stato maggiore</t>
+          <t>Allarme acqua</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Organizzazione degli Stati maggiori di condotta</t>
+          <t>Stato maggiore regionale di condotta</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pioniere</t>
+          <t>Stato maggiore enti di primo intervento</t>
         </is>
       </c>
     </row>
@@ -1154,11 +1154,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1000061</v>
+        <v>1000062</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Stato maggiore cantonale di condotta</t>
+          <t>Protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -1167,11 +1167,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1000062</v>
+        <v>1000063</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sistema d’allarme acqua</t>
+          <t>Dipartimento della protezione civile</t>
         </is>
       </c>
     </row>
@@ -1180,11 +1180,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1000063</v>
+        <v>1000064</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Allarme acqua</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile</t>
         </is>
       </c>
     </row>
@@ -1193,11 +1193,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1000064</v>
+        <v>1000066</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Stato maggiore regionale di condotta</t>
+          <t>Volontario di protezione civile</t>
         </is>
       </c>
     </row>
@@ -1206,11 +1206,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1000065</v>
+        <v>1000068</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Stato maggiore enti di primo intervento</t>
+          <t>Consiglio di stato</t>
         </is>
       </c>
     </row>
@@ -1219,11 +1219,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1000066</v>
+        <v>1000069</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Protezione della popolazione</t>
+          <t>Milite</t>
         </is>
       </c>
     </row>
@@ -1232,11 +1232,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1000068</v>
+        <v>1000070</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dipartimento della protezione civile</t>
+          <t>Legge sulla protezione della popolazione del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -1245,11 +1245,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1000069</v>
+        <v>1000071</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Legge sulla protezione della popolazione del 26 febbraio 2007</t>
+          <t>Nucleo Unitario di Valutazione e Risposta Emergenze transfrontaliere</t>
         </is>
       </c>
     </row>
@@ -1258,11 +1258,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1000071</v>
+        <v>1000073</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Volontario di protezione civile</t>
+          <t>Sala Operativa Regionale dell'Emergenza Urgenza</t>
         </is>
       </c>
     </row>
@@ -1271,11 +1271,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1000073</v>
+        <v>1000074</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Consiglio di stato</t>
+          <t>SOREU dei laghi</t>
         </is>
       </c>
     </row>
@@ -1284,11 +1284,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1000074</v>
+        <v>1000075</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Milite</t>
+          <t>sezione del militare e della protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
+          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
         </is>
       </c>
     </row>
@@ -1751,76 +1751,6 @@
         <v>3000035</v>
       </c>
       <c r="C107" t="inlineStr">
-        <is>
-          <t>Struttura operativa della protezione civile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>3000036</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>3000037</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>3000038</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
-Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
-Il Servizio degli affari militari e comando di circondario si occupa delle pratiche amministrative legate ai servizi d’istruzione dei militi domiciliati in Ticino come pure degli obblighi fuori servizio (tiro obbligatorio, obbligo di notifica), tiene il controllo dei dati di servizio e di quelli personali dei militi con la collaborazione degli uffici di controllo abitanti dei comuni. 
-Il Servizio della protezione civile, unitamente al Centro istruzione della protezione civile di Rivera, assicura l'applicazione delle norme federali e cantonali di protezione civile nelle regioni e nei comuni, cura le diverse pianificazioni (allarmi, approvvigionamenti,...) e l'istruzione dei militi astretti.
-Il Servizio costruzioni si occupa della pianificazione e gestione dei posti protetti, come pure della realizzazione delle costruzioni protette (rifugi, impianti regionali).
-Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3000039</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3000040</v>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>Nel caso in cui si delinea o si è verificato un evento di portata nazionale rilevante per la protezione della popolazione, lo SMFP assume i compiti seguenti (art. 4, cpv. 2 OSMFP):
 - assicura lo scambio di informazioni e il coordinamento con altri stati maggiori e organi della Confederazione e dei Cantoni, con i gestori di infrastrutture critiche e con i competenti organi all'estero;
@@ -1832,40 +1762,40 @@
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3000041</v>
-      </c>
-      <c r="C113" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3000036</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3000042</v>
-      </c>
-      <c r="C114" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3000037</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3000043</v>
-      </c>
-      <c r="C115" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3000038</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>Il comando della protezione civile è l’organo che dirige la protezione civile, ed è generalmente costituito dal comandante della protezione civile e dai suoi sostituti. I suoi compiti fondamentali sono i seguenti:
 - condurre gli interventi
@@ -1876,27 +1806,27 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3000044</v>
-      </c>
-      <c r="C116" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3000039</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3000045</v>
-      </c>
-      <c r="C117" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3000040</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Per evento NBC s'intende l'emissione illecita di sostanze nucleari (atomiche e radiologiche, N), biologiche (B) o chimiche (C). L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico). Si distinguono i seguenti settori:
 - settore N: emissione di radiazioni ionizzanti e radioattività;
@@ -1905,6 +1835,71 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3000041</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3000042</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3000043</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3000044</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3000045</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+        </is>
+      </c>
+    </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
@@ -1914,7 +1909,8 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
+          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
+ organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1923,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
+          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1936,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
+          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1949,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
+          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1962,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
+          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -1979,8 +1975,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
- organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
+          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1988,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
+          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2001,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
+          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2014,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
+          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
         </is>
       </c>
     </row>
@@ -2031,71 +2026,6 @@
         <v>3000055</v>
       </c>
       <c r="C127" t="inlineStr">
-        <is>
-          <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>3000056</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3000057</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>3000058</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>3000059</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>3000060</v>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>milite impiegato soprattutto per assistere le organizzazioni
 partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
@@ -2104,6 +2034,71 @@
         </is>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3000056</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3000057</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3000058</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3000059</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3000060</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+        </is>
+      </c>
+    </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
@@ -2113,7 +2108,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
+          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2121,9 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
+          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
+Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
+Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2136,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
+          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
         </is>
       </c>
     </row>
@@ -2150,22 +2147,18 @@
       <c r="B136" t="n">
         <v>3000064</v>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3000065</v>
+        <v>3000066</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
+          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
         </is>
       </c>
     </row>
@@ -2174,13 +2167,12 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3000066</v>
+        <v>3000067</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
-Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
-Per il tramite di esercitazioni teoriche e pratiche, approfondisce con le istanze militari, la collaborazione civile-militare.</t>
+          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
+I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2185,8 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
+          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
+transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2199,8 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
+          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
+Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2211,12 @@
       <c r="B141" t="n">
         <v>3000070</v>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
+Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2228,7 +2227,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
+          <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
         </is>
       </c>
     </row>
@@ -2241,8 +2240,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
-I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
+          <t>Struttura operativa della protezione civile.</t>
         </is>
       </c>
     </row>
@@ -2255,8 +2253,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
-transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
+          <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
         </is>
       </c>
     </row>
@@ -2269,8 +2266,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
-Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
+          <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
         </is>
       </c>
     </row>
@@ -2283,8 +2279,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
-Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
+          <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
+Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
+Il Servizio degli affari militari e comando di circondario si occupa delle pratiche amministrative legate ai servizi d’istruzione dei militi domiciliati in Ticino come pure degli obblighi fuori servizio (tiro obbligatorio, obbligo di notifica), tiene il controllo dei dati di servizio e di quelli personali dei militi con la collaborazione degli uffici di controllo abitanti dei comuni. 
+Il Servizio della protezione civile, unitamente al Centro istruzione della protezione civile di Rivera, assicura l'applicazione delle norme federali e cantonali di protezione civile nelle regioni e nei comuni, cura le diverse pianificazioni (allarmi, approvvigionamenti,...) e l'istruzione dei militi astretti.
+Il Servizio costruzioni si occupa della pianificazione e gestione dei posti protetti, come pure della realizzazione delle costruzioni protette (rifugi, impianti regionali).
+Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4000046</v>
+        <v>4000041</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4000047</v>
+        <v>4000042</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5000050</v>
+        <v>5000045</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5000072</v>
+        <v>5000067</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6000041</v>
+        <v>6000036</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6000044</v>
+        <v>6000039</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6000045</v>
+        <v>6000040</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6000046</v>
+        <v>6000041</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6000047</v>
+        <v>6000042</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6000048</v>
+        <v>6000043</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6000049</v>
+        <v>6000044</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6000051</v>
+        <v>6000046</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -2762,11 +2762,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6000052</v>
+        <v>6000047</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Art 7, Comma 1</t>
+          <t>Art. 20</t>
         </is>
       </c>
     </row>
@@ -2775,11 +2775,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6000053</v>
+        <v>6000048</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Art. 20</t>
+          <t>Art 7, Comma 1</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6000054</v>
+        <v>6000049</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6000055</v>
+        <v>6000050</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6000056</v>
+        <v>6000051</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6000057</v>
+        <v>6000052</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6000058</v>
+        <v>6000053</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6000059</v>
+        <v>6000054</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6000064</v>
+        <v>6000059</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6000065</v>
+        <v>6000060</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6000066</v>
+        <v>6000062</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6000069</v>
+        <v>6000065</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6000071</v>
+        <v>6000066</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6000073</v>
+        <v>6000068</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6000075</v>
+        <v>6000070</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7000048</v>
+        <v>7000043</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7000049</v>
+        <v>7000044</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3300,11 +3300,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8000034</v>
+        <v>8000035</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SOREU dei Laghi</t>
+          <t>Elemento d'intervento e di supporto dello Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -3313,11 +3313,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>8000037</v>
+        <v>8000036</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Le SOREU</t>
+          <t>Legge sulla protezione civile del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Chi siamo</t>
+          <t>Il comando della protezione civile</t>
         </is>
       </c>
     </row>
@@ -3339,11 +3339,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>8000040</v>
+        <v>8000039</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Elemento d'intervento e di supporto dello Stato maggiore federale Protezione della popolazione</t>
+          <t>Costruzioni di protezione</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Legge sulla protezione civile del 26 febbraio 2007</t>
+          <t>Modelli e carte di suscettibilità da frana</t>
         </is>
       </c>
     </row>
@@ -3365,11 +3365,11 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>8000043</v>
+        <v>8000042</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Il comando della protezione civile</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile del 4 ottobre 2002</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>8000044</v>
+        <v>8000047</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Costruzioni di protezione</t>
+          <t>Legge sulla protezione della popolazione (del 26 febbraio 2007)</t>
         </is>
       </c>
     </row>
@@ -3391,11 +3391,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8000046</v>
+        <v>8000052</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Modelli e carte di suscettibilità da frana</t>
+          <t>Il comando della protezione civile - Personale</t>
         </is>
       </c>
     </row>
@@ -3404,11 +3404,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>8000047</v>
+        <v>8000054</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile del 4 ottobre 2002</t>
+          <t>Regolamento sulla protezione della popolazione (RProtPop) (del 18 ottobre 2017)</t>
         </is>
       </c>
     </row>
@@ -3417,11 +3417,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>8000053</v>
+        <v>8000058</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Legge sulla protezione della popolazione (del 26 febbraio 2007)</t>
+          <t>Segnali di allarme in Svizzera</t>
         </is>
       </c>
     </row>
@@ -3430,11 +3430,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>8000057</v>
+        <v>8000062</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Il comando della protezione civile - Personale</t>
+          <t>Servizio della protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -3443,11 +3443,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>8000059</v>
+        <v>8000063</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Regolamento sulla protezione della popolazione (RProtPop) (del 18 ottobre 2017)</t>
+          <t>Dipartimento</t>
         </is>
       </c>
     </row>
@@ -3456,11 +3456,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>8000063</v>
+        <v>8000065</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Segnali di allarme in Svizzera</t>
+          <t>-- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
         </is>
       </c>
     </row>
@@ -3469,11 +3469,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>8000066</v>
+        <v>8000070</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Servizio della protezione della popolazione</t>
+          <t>-- -- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
         </is>
       </c>
     </row>
@@ -3482,11 +3482,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>8000068</v>
+        <v>8000073</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Dipartimento</t>
+          <t>Le SOREU</t>
         </is>
       </c>
     </row>
@@ -3495,11 +3495,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>8000069</v>
+        <v>8000074</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
+          <t>SOREU dei Laghi</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-- -- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
+          <t>Chi siamo</t>
         </is>
       </c>
     </row>
@@ -3621,11 +3621,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9000035</v>
+        <v>9000041</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alberto Bruno, Funzionario della protezione civile di regione lombardia</t>
+          <t>IRPI</t>
         </is>
       </c>
     </row>
@@ -3634,11 +3634,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>9000046</v>
+        <v>9000045</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>IRPI</t>
+          <t>Confederazion elvetica</t>
         </is>
       </c>
     </row>
@@ -3647,11 +3647,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>9000050</v>
+        <v>9000052</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Confederazion elvetica</t>
+          <t>Ufficio Federale della Protezione della Popolazione</t>
         </is>
       </c>
     </row>
@@ -3660,11 +3660,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9000057</v>
+        <v>9000062</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Ufficio Federale della Protezione della Popolazione</t>
+          <t>Repubblica e Cantone Ticino</t>
         </is>
       </c>
     </row>
@@ -3673,11 +3673,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9000066</v>
+        <v>9000065</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Repubblica e Cantone Ticino</t>
+          <t>Tommaso Sansone</t>
         </is>
       </c>
     </row>
@@ -3686,11 +3686,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>9000069</v>
+        <v>9000067</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Tommaso Sansone</t>
+          <t>Tommaso sansone</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Tommaso sansone</t>
+          <t>Alberto Bruno, Funzionario della protezione civile di regione lombardia</t>
         </is>
       </c>
     </row>
@@ -3877,11 +3877,11 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>10000034</v>
+        <v>10000036</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Areu Lombardia</t>
+          <t>Repubblica e Cantone Ticino</t>
         </is>
       </c>
     </row>
@@ -3890,11 +3890,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>10000038</v>
+        <v>10000041</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Repubblica e Canton Ticino</t>
+          <t>IRPI CNR</t>
         </is>
       </c>
     </row>
@@ -3903,11 +3903,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>10000041</v>
+        <v>10000045</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Repubblica e Cantone Ticino</t>
+          <t>Confederazione elvetica</t>
         </is>
       </c>
     </row>
@@ -3916,11 +3916,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10000046</v>
+        <v>10000073</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>IRPI CNR</t>
+          <t>Areu Lombardia</t>
         </is>
       </c>
     </row>
@@ -3929,11 +3929,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10000050</v>
+        <v>10000075</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Confederazione elvetica</t>
+          <t>Repubblica e Canton Ticino</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.areu.lombardia.it/web/home/soreu-dei-laghi</t>
+          <t>https://www.naz.ch/index_it.html</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/servizio-nazionale/strutture-operative/volontariato</t>
+          <t>https://www.naz.ch/it/naz/eo.html</t>
         </is>
       </c>
     </row>
@@ -4133,11 +4133,11 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>11000037</v>
+        <v>11000036</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.areu.lombardia.it/web/home/soreu</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/44</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www4.ti.ch/di/smpp/chi-siamo/presentazione/</t>
+          <t>https://www.babs.admin.ch/it/zs/org/kdo.html</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.naz.ch/index_it.html</t>
+          <t>https://www.babs.admin.ch/it/aufgabenbabs/schutzbauten.html</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.naz.ch/it/naz/eo.html</t>
+          <t>http://www.protezionecivile.gov.it/dipartimento</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/44</t>
+          <t>http://www.irpi.cnr.it/focus/suscettibilita-da-frana/</t>
         </is>
       </c>
     </row>
@@ -4198,11 +4198,11 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>11000043</v>
+        <v>11000042</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/zs/org/kdo.html</t>
+          <t>https://www.admin.ch/opc/it/classified-compilation/20011872/201701010000/520.1.pdf</t>
         </is>
       </c>
     </row>
@@ -4211,11 +4211,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>11000044</v>
+        <v>11000043</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/aufgabenbabs/schutzbauten.html</t>
+          <t>https://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
         </is>
       </c>
     </row>
@@ -4224,11 +4224,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>11000045</v>
+        <v>11000047</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/dipartimento</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/48</t>
         </is>
       </c>
     </row>
@@ -4237,11 +4237,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>11000046</v>
+        <v>11000052</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>http://www.irpi.cnr.it/focus/suscettibilita-da-frana/</t>
+          <t>https://www.babs.admin.ch/content/babs-internet/it/publikservice/downloads/unterlagen-ausbildung/_jcr_content/contentPar/accordion_1920886228/accordionItems/kommando_zivilschutz/accordionPar/downloadlist_copy/downloadItems/829_1459931125997.download/personal170191103it.pdf</t>
         </is>
       </c>
     </row>
@@ -4250,11 +4250,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>11000047</v>
+        <v>11000054</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.admin.ch/opc/it/classified-compilation/20011872/201701010000/520.1.pdf</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/index/nuovafinestra/atto/49/volume/5%20SICUREZZA/numLegge/500.110</t>
         </is>
       </c>
     </row>
@@ -4263,11 +4263,11 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>11000048</v>
+        <v>11000057</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+          <t>http://www.protezionecivile.gov.it/servizio-nazionale/strutture-operative/volontariato</t>
         </is>
       </c>
     </row>
@@ -4276,11 +4276,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>11000053</v>
+        <v>11000058</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/48</t>
+          <t>https://www.ch.ch/it/allarme-sirene/</t>
         </is>
       </c>
     </row>
@@ -4289,11 +4289,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>11000057</v>
+        <v>11000062</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/content/babs-internet/it/publikservice/downloads/unterlagen-ausbildung/_jcr_content/contentPar/accordion_1920886228/accordionItems/kommando_zivilschutz/accordionPar/downloadlist_copy/downloadItems/829_1459931125997.download/personal170191103it.pdf</t>
+          <t>https://www4.ti.ch/di/smpp/chi-siamo/servizio-della-protezione-della-popolazione/</t>
         </is>
       </c>
     </row>
@@ -4302,11 +4302,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>11000059</v>
+        <v>11000068</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/index/nuovafinestra/atto/49/volume/5%20SICUREZZA/numLegge/500.110</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/pdfatto/atto/48</t>
         </is>
       </c>
     </row>
@@ -4315,11 +4315,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>11000063</v>
+        <v>11000073</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.ch.ch/it/allarme-sirene/</t>
+          <t>https://www.areu.lombardia.it/web/home/soreu</t>
         </is>
       </c>
     </row>
@@ -4328,11 +4328,11 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>11000066</v>
+        <v>11000074</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www4.ti.ch/di/smpp/chi-siamo/servizio-della-protezione-della-popolazione/</t>
+          <t>https://www.areu.lombardia.it/web/home/soreu-dei-laghi</t>
         </is>
       </c>
     </row>
@@ -4341,11 +4341,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>11000073</v>
+        <v>11000075</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/pdfatto/atto/48</t>
+          <t>https://www4.ti.ch/di/smpp/chi-siamo/presentazione/</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>12000041</v>
+        <v>12000036</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>12000047</v>
+        <v>12000042</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>12000049</v>
+        <v>12000044</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>12000052</v>
+        <v>12000047</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>12000066</v>
+        <v>12000061</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>12000069</v>
+        <v>12000064</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>12000075</v>
+        <v>12000070</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>13000034</v>
       </c>
       <c r="C323" s="2" t="n">
-        <v>43844</v>
+        <v>43656</v>
       </c>
     </row>
     <row r="324">
@@ -4545,10 +4545,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>13000035</v>
+        <v>13000039</v>
       </c>
       <c r="C324" s="2" t="n">
-        <v>43804</v>
+        <v>43657</v>
       </c>
     </row>
     <row r="325">
@@ -4556,10 +4556,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>13000036</v>
+        <v>13000040</v>
       </c>
       <c r="C325" s="2" t="n">
-        <v>43774</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="326">
@@ -4567,10 +4567,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>13000038</v>
+        <v>13000041</v>
       </c>
       <c r="C326" s="2" t="n">
-        <v>43845</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="327">
@@ -4578,10 +4578,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>13000039</v>
+        <v>13000042</v>
       </c>
       <c r="C327" s="2" t="n">
-        <v>43656</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="328">
@@ -4589,10 +4589,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>13000040</v>
+        <v>13000061</v>
       </c>
       <c r="C328" s="2" t="n">
-        <v>43767</v>
+        <v>43815</v>
       </c>
     </row>
     <row r="329">
@@ -4600,10 +4600,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>13000044</v>
+        <v>13000063</v>
       </c>
       <c r="C329" s="2" t="n">
-        <v>43657</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="330">
@@ -4611,10 +4611,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>13000046</v>
+        <v>13000064</v>
       </c>
       <c r="C330" s="2" t="n">
-        <v>43731</v>
+        <v>43780</v>
       </c>
     </row>
     <row r="331">
@@ -4622,10 +4622,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>13000047</v>
+        <v>13000071</v>
       </c>
       <c r="C331" s="2" t="n">
-        <v>43766</v>
+        <v>43774</v>
       </c>
     </row>
     <row r="332">
@@ -4633,10 +4633,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>13000066</v>
+        <v>13000072</v>
       </c>
       <c r="C332" s="2" t="n">
-        <v>43815</v>
+        <v>43804</v>
       </c>
     </row>
     <row r="333">
@@ -4644,10 +4644,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>13000068</v>
+        <v>13000073</v>
       </c>
       <c r="C333" s="2" t="n">
-        <v>43817</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="334">
@@ -4655,10 +4655,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13000069</v>
+        <v>13000075</v>
       </c>
       <c r="C334" s="2" t="n">
-        <v>43780</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="335">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00001</t>
         </is>
       </c>
     </row>
@@ -5095,11 +5095,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>14000039</v>
+        <v>14000035</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>ITCH00001</t>
+          <t>ITCH00002</t>
         </is>
       </c>
     </row>
@@ -5108,11 +5108,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>14000040</v>
+        <v>14000036</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>ITCH00002</t>
+          <t>ITCH00003</t>
         </is>
       </c>
     </row>
@@ -5121,11 +5121,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>14000041</v>
+        <v>14000038</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ITCH00003</t>
+          <t>ITCH00004</t>
         </is>
       </c>
     </row>
@@ -5134,11 +5134,11 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>14000043</v>
+        <v>14000039</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>ITCH00004</t>
+          <t>ITCH00005</t>
         </is>
       </c>
     </row>
@@ -5147,11 +5147,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>14000044</v>
+        <v>14000040</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>ITCH00006</t>
         </is>
       </c>
     </row>
@@ -5160,11 +5160,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>14000045</v>
+        <v>14000041</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>ITCH00007</t>
         </is>
       </c>
     </row>
@@ -5173,11 +5173,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>14000046</v>
+        <v>14000042</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>ITCH00009</t>
         </is>
       </c>
     </row>
@@ -5186,11 +5186,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>14000047</v>
+        <v>14000044</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>ITCH00010</t>
         </is>
       </c>
     </row>
@@ -5199,11 +5199,11 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>14000049</v>
+        <v>14000046</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>ITCH00011</t>
         </is>
       </c>
     </row>
@@ -5212,11 +5212,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>14000051</v>
+        <v>14000047</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>ITCH00012</t>
         </is>
       </c>
     </row>
@@ -5225,11 +5225,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>14000052</v>
+        <v>14000049</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>ITCH00012</t>
+          <t>ITCH00013</t>
         </is>
       </c>
     </row>
@@ -5238,11 +5238,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>14000054</v>
+        <v>14000050</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>ITCH00014</t>
         </is>
       </c>
     </row>
@@ -5251,11 +5251,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>14000055</v>
+        <v>14000051</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>ITCH00015</t>
         </is>
       </c>
     </row>
@@ -5264,11 +5264,11 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>14000056</v>
+        <v>14000052</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>ITCH00016</t>
         </is>
       </c>
     </row>
@@ -5277,11 +5277,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>14000057</v>
+        <v>14000053</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>ITCH00017</t>
         </is>
       </c>
     </row>
@@ -5290,11 +5290,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>14000058</v>
+        <v>14000054</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>ITCH00018</t>
         </is>
       </c>
     </row>
@@ -5303,11 +5303,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>14000059</v>
+        <v>14000055</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>ITCH00019</t>
         </is>
       </c>
     </row>
@@ -5316,11 +5316,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>14000060</v>
+        <v>14000056</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>ITCH00020</t>
         </is>
       </c>
     </row>
@@ -5329,11 +5329,11 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>14000061</v>
+        <v>14000057</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>ITCH00021</t>
         </is>
       </c>
     </row>
@@ -5342,11 +5342,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>14000062</v>
+        <v>14000058</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>ITCH00022</t>
         </is>
       </c>
     </row>
@@ -5355,11 +5355,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>14000063</v>
+        <v>14000059</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>ITCH00023</t>
         </is>
       </c>
     </row>
@@ -5368,11 +5368,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>14000064</v>
+        <v>14000060</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>ITCH00024</t>
         </is>
       </c>
     </row>
@@ -5381,11 +5381,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>14000065</v>
+        <v>14000061</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>ITCH00025</t>
         </is>
       </c>
     </row>
@@ -5394,11 +5394,11 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>14000066</v>
+        <v>14000063</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>ITCH00025</t>
+          <t>ITCH00026</t>
         </is>
       </c>
     </row>
@@ -5407,11 +5407,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>14000068</v>
+        <v>14000064</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>ITCH00026</t>
+          <t>ITCH00027</t>
         </is>
       </c>
     </row>
@@ -5420,11 +5420,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>14000069</v>
+        <v>14000066</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>ITCH00027</t>
+          <t>ITCH00028</t>
         </is>
       </c>
     </row>
@@ -5433,11 +5433,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>14000071</v>
+        <v>14000068</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>ITCH00029</t>
         </is>
       </c>
     </row>
@@ -5446,11 +5446,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>14000073</v>
+        <v>14000069</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>ITCH00029</t>
+          <t>ITCH00030</t>
         </is>
       </c>
     </row>
@@ -5459,11 +5459,11 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>14000074</v>
+        <v>14000070</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>ITCH00030</t>
+          <t>ITCH00031</t>
         </is>
       </c>
     </row>
@@ -5472,11 +5472,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>14000075</v>
+        <v>14000071</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>ITCH00031</t>
+          <t>ITCH00032</t>
         </is>
       </c>
     </row>
@@ -5485,11 +5485,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>14000076</v>
+        <v>14000072</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>ITCH00040</t>
+          <t>ITCH00033</t>
         </is>
       </c>
     </row>
@@ -5498,9 +5498,61 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
+        <v>14000073</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>ITCH00034</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>14000074</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>ITCH00035</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>14000075</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>ITCH00036</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>14000076</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>ITCH00040</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
         <v>15000001</v>
       </c>
-      <c r="C399" t="inlineStr">
+      <c r="C403" t="inlineStr">
         <is>
           <t>show</t>
         </is>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/Things.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/Things.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,18 +1299,22 @@
       <c r="B72" t="n">
         <v>2000001</v>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>COC</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3000001</v>
+        <v>2000002</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>rappresenta la struttura di coordinamento di cui il sindaco, in qualità di autorità di protezione civile, si può avvalere per garantire una pronta e coordinata risposta,in caso di eventi critici, per il soccorso e l’assistenza alla popolazione, la difesa dell’ambiente e dei beni. Il c.o.c., in relazione alle esigenze riscontrate dall’ amministrazione, è organizzato in uffici, funzioni di supporto, ai quali il sindaco affida compiti specifici. Per ogni funzione di supporto attivata è individuato, nel piano comunale di protezione civile, un referente specifico, che ne coordinerà le attività avvalendosi del personale dell’amministrazione, del volontario o di altri enti/strutture. Il centro operativo comunale va quindi inteso come una struttura altamente flessibile che coadiuva il sindaco, quale autorità di protezione civile, in tutte le attività necessarie alla gestione di eventi critici o emergenziali.</t>
+          <t>CAPI</t>
         </is>
       </c>
     </row>
@@ -1319,11 +1323,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3000002</v>
+        <v>2000003</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Polo logistico dove vengono stoccati e mantenuti in efficienza risorse da distribuire in caso di emergenza per il soccorso e l’assistenza alla popolazione (tende, impiantistica, effetti letterecci, generatori, etc.) e per l’operatività dei soccorritori (veicoli, idrovore, potabilizzatori,etc.). Consiste in un deposito di materiale vario da utilizzarsi in caso di calamità. Ve ne sono 14 in tutta italia e fanno capo alle seguenti prefetture: alessandria, ancona, bologna, cagliari, caserta, catania, catanzaro, firenze, palermo, potenza, reggio calabria, roma, temi e trieste.</t>
+          <t>COA</t>
         </is>
       </c>
     </row>
@@ -1332,11 +1336,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3000003</v>
+        <v>2000004</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Centro operativo che viene attivato in alcune situazioni particolari. È competente per specifici settori di intervento in un’area territoriale ristretta.</t>
+          <t>COI</t>
         </is>
       </c>
     </row>
@@ -1345,24 +1349,20 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3000004</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Centro operativo che coordina gli interventi di emergenza in un ambito territoriale che generalmente comprende più comuni limitrofi o si riferisce al territorio di competenza della comunità montana. In molte realtà territoriali il coi non si attiva solo in situazione di emergenza ma è operativo anche in ordinario e funge da punto di riferimento e di raccordo sul territorio per le attività di protezione civile.</t>
-        </is>
-      </c>
+        <v>2000005</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3000005</v>
+        <v>2000006</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>La probabilità che un fenomeno di una determinata intensità si verifichi in un certo periodo di tempo, in una data area.</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -1371,11 +1371,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3000006</v>
+        <v>2000007</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ai fini di protezione civile, il rischio è rappresentato dalla possibilità che un fenomeno naturale o indotto dalle attività dell’uomo possa causare effetti dannosi sulla popolazione, gli insediamenti abitativi e produttivi e le infrastrutture, all’interno di una particolare area, in un determinato periodo di tempo. Il rischio è traducibile nella formula r = probabilità x vulnerabilità x esposizione.</t>
+          <t>CIM</t>
         </is>
       </c>
     </row>
@@ -1384,11 +1384,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3000007</v>
+        <v>2000008</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>centro attivo 24 ore su 24 che rappresenta la componente operativa del meccanismo comunitario di protezione civile ed è collocato all’interno dell’unità di protezione civile nella direzione generale per gli aiuti umanitari e la protezione civile. Fornisce ai paesi l’accesso ad una piattaforma comunitaria di protezione civile, in cui vengono raccolte le richieste dei paesi dell’unione europea o extra europei colpiti da calamità e le offerte d’aiuto da parte dei paesi membri.</t>
+          <t>COAU</t>
         </is>
       </c>
     </row>
@@ -1397,11 +1397,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3000008</v>
+        <v>2000009</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Struttura con cui il dipartimento della protezione civile coordina l'attività di spegnimento degli incendi boschivi con la flotta aerea dello stato sul territorio nazionale. Nel coau confluiscono le richieste di intervento inoltrate dalle sale operative regionali. Il coau è un servizio operativo dell'ufficio iv - gestione delle emergenze</t>
+          <t>CO</t>
         </is>
       </c>
     </row>
@@ -1410,11 +1410,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3000009</v>
+        <v>2000010</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Centro di protezione civile attivato sul territorio colpito dall’emergenza per garantire la gestione coordinata degli interventi. Il centro deve essere collocato in area sicura rispetto alle diverse tipologie di rischio, in una struttura idonea dal punto di vista strutturale, funzionale e logistico. È strutturato in funzioni di supporto, secondo il metodo augustus, dove sono rappresentate tutte le amministrazioni, gli enti e i soggetti che concorrono alla gestione dell’emergenza. La catena classica di coordinamento, in un modello puramente teorico, prevede, dal livello locale a quallo nazionale l’attivazione dei seguenti centri gerarchicamente sovraordinati: coc - centro operativo comunale, com - centro operativo misto, ccs, - centro coordinamento soccorsi, dicomac - direzione comando e controllo.</t>
+          <t>CME</t>
         </is>
       </c>
     </row>
@@ -1423,11 +1423,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3000010</v>
+        <v>2000011</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dispositivo strutturale di trattamento sanitario delle vittime che viene attivato in caso di catastrofi in un territorio particolarmente esteso. È localizzato lungo il percorso della noria di evacuazione per permettere di stabilizzare il trattamento dei feriti ed ottimizzare, su più ampia scala, l'utilizzazione delle risorse di trasporto sanitario e quelle di cura definitiva. Ad uno stesso cme possono afferire più pma. È sinonimo di ospedale da campo.</t>
+          <t>COP</t>
         </is>
       </c>
     </row>
@@ -1436,11 +1436,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3000011</v>
+        <v>2000012</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>E’ costituito a livello centrale presso il ministro per il coordinamento della p.c., per la direzione ed il coordinamento in emergenza degli interventi di p.c.</t>
+          <t>CESI</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3000012</v>
+        <v>2000013</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>E’ una struttura di supporto ad ogni attività di p.c.; trovasi in castelnuovo di porto (roma) e dipende dal servizio emergenze del dipartimento di p.c. Fa parte del servizio emergenze del dipartimento centro situazioni della p.c. E funziona ininterrottamente per qualsiasi evenienza o segnale d’emergenza; provvede agli interventi più importanti ed immediati.</t>
+          <t>COM</t>
         </is>
       </c>
     </row>
@@ -1462,11 +1462,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3000013</v>
+        <v>2000015</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Struttura operativa che coordina i servizi di emergenza a livello provinciale. Le strutture adibite a sede COM devono avere una suddivisione interna che preveda almeno: una sala per le riunioni, una sala per le funzioni di supporto, una sala per il volontariato, una sala per le telecomunicazioni. Il c.o.m. È una struttura operativa decentrata il cui responsabile dipende dal c.c.s. (centro coordinamento soccorsi); vi partecipano i rappresentanti dei comuni e delle strutture operative. Può essere istituito presso i comuni a cura del prefetto competente per territorio. I compiti del c.o.m. sono quelli di favorire il coordinamento dei servizi di emergenza organizzati a livello provinciale con gli interventi dei sindaci appartenenti al c.o.m. Stesso. L’ubicazione del c.o.m. Deve essere baricentrica rispetto ai comuni coordinati e localizzata in locali non vulnerabili.</t>
+          <t>CCS</t>
         </is>
       </c>
     </row>
@@ -1475,11 +1475,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3000014</v>
+        <v>2000017</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Centro nazionale che raccoglie e valuta informazioni e notizie relative a qualsiasi evento che possa determinare l'attivazione di strutture operative di protezione civile. In situazioni di emergenza si attiva come sala operativa a livello nazionale.</t>
+          <t>COL</t>
         </is>
       </c>
     </row>
@@ -1488,11 +1488,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3000015</v>
+        <v>2000024</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Rappresenta il massimo organo di coordinamento delle attività di protezione civile a livello provinciale. È composto dai responsabili di tutte le strutture operative presenti sul territorio provinciale. I compiti del ccs consistono nell'individuazione delle strategie e delle operatività di intervento necessarie al superamento dell'emergenza attraverso il coordinamento dei com.</t>
+          <t>a)</t>
         </is>
       </c>
     </row>
@@ -1501,11 +1501,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3000016</v>
+        <v>2000025</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E’ costituito presso lo stato maggiore dell’esercito per la pianificazione ed il coordinamento specifico degli interventi delle forze armate in concorso.</t>
+          <t>NBC - B</t>
         </is>
       </c>
     </row>
@@ -1514,11 +1514,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3000017</v>
+        <v>2000026</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E’ una struttura costituita localmente (stazione del corpo forestale dello stato) nell’ambito del sistema integrato di lotta agli incendi boschivi; controlla un’area più o meno estesa del territorio comunale od intercomunale. Ad esso sono collegate diverse stazioni fisse di rilevamento ed é predisposto a ricevere comunicazioni (aib) da aerei, finalizzate all’avvistamento. Valuta sulla base delle informazioni, l’esigenza di intervento aereo e la segnala al centro operativo provinciale (c.o.p.)</t>
+          <t>b)</t>
         </is>
       </c>
     </row>
@@ -1527,11 +1527,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3000018</v>
+        <v>2000027</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>E’ una struttura costituita a livello provinciale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento dell’attività di tutti i col di competenza, al controllo ed alla gestione dell’intervento e delle risorse a livello provinciale, al collegamento operativo con il cor.</t>
+          <t>c)</t>
         </is>
       </c>
     </row>
@@ -1540,11 +1540,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3000019</v>
+        <v>2000034</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sono attivita' di prevenzione non strutturale di protezione civile quelle concernenti: a) l'allertamento del Servizio nazionale, articolato in attivita' di preannuncio in termini probabilistici, ove possibile e sulla base delle conoscenze disponibili, di monitoraggio e di sorveglianza in tempo reale degli eventi e della conseguente evoluzione degli scenari di rischio; b) la pianificazione di protezione civile, come disciplinata dall'articolo 18; c) la formazione e l'acquisizione di ulteriori competenze professionali degli operatori del Servizio nazionale; d) l'applicazione e l'aggiornamento della normativa tecnica di interesse; e) la diffusione della conoscenza e della cultura della protezione civile, anche con il coinvolgimento delle istituzioni scolastiche, allo scopo di promuovere la resilienza delle comunita' e l'adozione di comportamenti consapevoli e misure di autoprotezione da parte dei cittadini; f) l'informazione alla popolazione sugli scenari di rischio e le relative norme di comportamento nonche' sulla pianificazione di protezione civile; g) la promozione e l'organizzazione di esercitazioni ed altre attivita' addestrative e formative, anche con il coinvolgimento delle comunita', sul territorio nazionale al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; h) le attivita' di cui al presente comma svolte all'estero, in via bilaterale, o nel quadro della partecipazione dell'Italia all'Unione europea e ad organizzazioni internazionali, al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; i) le attivita' volte ad assicurare il raccordo tra la pianificazione di protezione civile e la pianificazione territoriale e le procedure amministrative di gestione del territorio per gli aspetti di competenza delle diverse componenti.</t>
+          <t>CENAL</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1553,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3000020</v>
+        <v>2000035</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sono attivita' di prevenzione strutturale di protezione civile quelle concernenti: a) la partecipazione all'elaborazione delle linee di indirizzo nazionali e regionali per la definizione delle politiche di prevenzione strutturale dei rischi naturali o derivanti dalle attivita' dell'uomo e per la loro attuazione; b) la partecipazione alla programmazione degli interventi finalizzati alla mitigazione dei rischi naturali o derivanti dall'attivita' dell'uomo e alla relativa attuazione; c) l'esecuzione di interventi strutturali di mitigazione del rischio in occasione di eventi calamitosi, in coerenza con gli strumenti di programmazione e pianificazione esistenti; d) le azioni integrate di prevenzione strutturale e non strutturale per finalita' di protezione civile di cui all'articolo 22.</t>
+          <t>SMFP</t>
         </is>
       </c>
     </row>
@@ -1566,11 +1566,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3000021</v>
+        <v>2000037</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sono attivita' di protezione civile quelle volte alla previsione, prevenzione e mitigazione dei rischi, alla gestione delle emergenze e al loro superamento.</t>
+          <t>PC</t>
         </is>
       </c>
     </row>
@@ -1579,11 +1579,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3000022</v>
+        <v>2000040</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>In coerenza con le tipologie dei rischi di cui all'articolo 16, la Commissione nazionale per la previsione e la prevenzione dei grandi rischi e' organo di consulenza tecnico-scientifica del Dipartimento della protezione civile.</t>
+          <t>NBC</t>
         </is>
       </c>
     </row>
@@ -1592,11 +1592,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3000023</v>
+        <v>2000043</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>L'Elenco nazionale del volontariato di protezione civile costituisce lo strumento operativo mediante il quale viene assicurata la partecipazione del volontariato organizzato alle attivita' di cui all'articolo 2, garantendone l'indirizzo unitario, nel rispetto delle peculiarita' dei territori, grazie a specifiche modalita' di registrazione. L'Elenco nazionale del volontariato di protezione civile e' costituito dall'insieme: a) degli elenchi territoriali del volontariato di protezione civile, istituiti presso le Regioni e le Province autonome di Trento e di Bolzano; b) dell'elenco centrale del volontariato di protezione civile, istituito presso il Dipartimento della protezione civile.</t>
+          <t>VVFF</t>
         </is>
       </c>
     </row>
@@ -1605,11 +1605,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3000024</v>
+        <v>2000054</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che possono essere fronteggiati mediante interventi attuabili, dai singoli enti e amministrazioni competenti in via ordinaria;</t>
+          <t>OSMC</t>
         </is>
       </c>
     </row>
@@ -1618,11 +1618,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3000025</v>
+        <v>2000056</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
+          <t>SMCC</t>
         </is>
       </c>
     </row>
@@ -1631,11 +1631,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3000026</v>
+        <v>2000059</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
+          <t>SMRC</t>
         </is>
       </c>
     </row>
@@ -1644,11 +1644,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3000027</v>
+        <v>2000060</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
+          <t>SMEPI</t>
         </is>
       </c>
     </row>
@@ -1657,11 +1657,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3000028</v>
+        <v>2000064</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>La pianificazione di protezione civile ai diversi livelli territoriali e' l'attivita' di prevenzione non strutturale, basata sulle attivita' di previsione e, in particolare, di identificazione degli scenari di cui all'articolo 2, comma 2, finalizzata: a) alla definizione delle strategie operative e del modello di intervento contenente l'organizzazione delle strutture per lo svolgimento, in forma coordinata, delle attivita' di protezione civile e della risposta operativa per la gestione degli eventi calamitosi previsti o in atto, garantendo l'effettivita' delle funzioni da svolgere con particolare riguardo alle persone in condizioni di fragilita' sociale e con disabilita', in relazione agli ambiti ottimali di cui all'articolo 11, comma 3, definiti su base provinciale e comunale, quest'ultimo anche in forma aggregata; b) ad assicurare il necessario raccordo informativo con le strutture preposte all'allertamento del Servizio nazionale; c) alla definizione dei flussi di comunicazione tra le componenti e strutture operative del Servizio nazionale interessate; d) alla definizione dei meccanismi e delle procedure per la revisione e l'aggiornamento della pianificazione, per l'organizzazione di esercitazioni e per la relativa informazione alla popolazione, da assicurare anche in corso di evento;</t>
+          <t>LPPC</t>
         </is>
       </c>
     </row>
@@ -1670,11 +1670,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3000029</v>
+        <v>2000070</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
+          <t>LProtPop</t>
         </is>
       </c>
     </row>
@@ -1683,11 +1683,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3000030</v>
+        <v>2000071</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
+          <t>NUVRE</t>
         </is>
       </c>
     </row>
@@ -1696,11 +1696,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3000031</v>
+        <v>2000072</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
+          <t>VVF</t>
         </is>
       </c>
     </row>
@@ -1709,11 +1709,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3000032</v>
+        <v>2000073</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Termine che indica il denaro del fondo emergenza nazionale.</t>
+          <t>SOREU</t>
         </is>
       </c>
     </row>
@@ -1722,11 +1722,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3000033</v>
+        <v>2000075</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
+          <t>SMPP</t>
         </is>
       </c>
     </row>
@@ -1735,11 +1735,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3000034</v>
+        <v>2000076</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
+          <t>COR</t>
         </is>
       </c>
     </row>
@@ -1748,9 +1748,451 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>3000001</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>rappresenta la struttura di coordinamento di cui il sindaco, in qualità di autorità di protezione civile, si può avvalere per garantire una pronta e coordinata risposta,in caso di eventi critici, per il soccorso e l’assistenza alla popolazione, la difesa dell’ambiente e dei beni. Il c.o.c., in relazione alle esigenze riscontrate dall’ amministrazione, è organizzato in uffici, funzioni di supporto, ai quali il sindaco affida compiti specifici. Per ogni funzione di supporto attivata è individuato, nel piano comunale di protezione civile, un referente specifico, che ne coordinerà le attività avvalendosi del personale dell’amministrazione, del volontario o di altri enti/strutture. Il centro operativo comunale va quindi inteso come una struttura altamente flessibile che coadiuva il sindaco, quale autorità di protezione civile, in tutte le attività necessarie alla gestione di eventi critici o emergenziali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3000002</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Polo logistico dove vengono stoccati e mantenuti in efficienza risorse da distribuire in caso di emergenza per il soccorso e l’assistenza alla popolazione (tende, impiantistica, effetti letterecci, generatori, etc.) e per l’operatività dei soccorritori (veicoli, idrovore, potabilizzatori,etc.). Consiste in un deposito di materiale vario da utilizzarsi in caso di calamità. Ve ne sono 14 in tutta italia e fanno capo alle seguenti prefetture: alessandria, ancona, bologna, cagliari, caserta, catania, catanzaro, firenze, palermo, potenza, reggio calabria, roma, temi e trieste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3000003</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Centro operativo che viene attivato in alcune situazioni particolari. È competente per specifici settori di intervento in un’area territoriale ristretta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3000004</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Centro operativo che coordina gli interventi di emergenza in un ambito territoriale che generalmente comprende più comuni limitrofi o si riferisce al territorio di competenza della comunità montana. In molte realtà territoriali il coi non si attiva solo in situazione di emergenza ma è operativo anche in ordinario e funge da punto di riferimento e di raccordo sul territorio per le attività di protezione civile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3000005</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>La probabilità che un fenomeno di una determinata intensità si verifichi in un certo periodo di tempo, in una data area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3000006</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ai fini di protezione civile, il rischio è rappresentato dalla possibilità che un fenomeno naturale o indotto dalle attività dell’uomo possa causare effetti dannosi sulla popolazione, gli insediamenti abitativi e produttivi e le infrastrutture, all’interno di una particolare area, in un determinato periodo di tempo. Il rischio è traducibile nella formula r = probabilità x vulnerabilità x esposizione.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3000007</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>centro attivo 24 ore su 24 che rappresenta la componente operativa del meccanismo comunitario di protezione civile ed è collocato all’interno dell’unità di protezione civile nella direzione generale per gli aiuti umanitari e la protezione civile. Fornisce ai paesi l’accesso ad una piattaforma comunitaria di protezione civile, in cui vengono raccolte le richieste dei paesi dell’unione europea o extra europei colpiti da calamità e le offerte d’aiuto da parte dei paesi membri.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3000008</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Struttura con cui il dipartimento della protezione civile coordina l'attività di spegnimento degli incendi boschivi con la flotta aerea dello stato sul territorio nazionale. Nel coau confluiscono le richieste di intervento inoltrate dalle sale operative regionali. Il coau è un servizio operativo dell'ufficio iv - gestione delle emergenze</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3000009</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Centro di protezione civile attivato sul territorio colpito dall’emergenza per garantire la gestione coordinata degli interventi. Il centro deve essere collocato in area sicura rispetto alle diverse tipologie di rischio, in una struttura idonea dal punto di vista strutturale, funzionale e logistico. È strutturato in funzioni di supporto, secondo il metodo augustus, dove sono rappresentate tutte le amministrazioni, gli enti e i soggetti che concorrono alla gestione dell’emergenza. La catena classica di coordinamento, in un modello puramente teorico, prevede, dal livello locale a quallo nazionale l’attivazione dei seguenti centri gerarchicamente sovraordinati: coc - centro operativo comunale, com - centro operativo misto, ccs, - centro coordinamento soccorsi, dicomac - direzione comando e controllo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3000010</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Dispositivo strutturale di trattamento sanitario delle vittime che viene attivato in caso di catastrofi in un territorio particolarmente esteso. È localizzato lungo il percorso della noria di evacuazione per permettere di stabilizzare il trattamento dei feriti ed ottimizzare, su più ampia scala, l'utilizzazione delle risorse di trasporto sanitario e quelle di cura definitiva. Ad uno stesso cme possono afferire più pma. È sinonimo di ospedale da campo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3000011</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E’ costituito a livello centrale presso il ministro per il coordinamento della p.c., per la direzione ed il coordinamento in emergenza degli interventi di p.c.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3000012</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E’ una struttura di supporto ad ogni attività di p.c.; trovasi in castelnuovo di porto (roma) e dipende dal servizio emergenze del dipartimento di p.c. Fa parte del servizio emergenze del dipartimento centro situazioni della p.c. E funziona ininterrottamente per qualsiasi evenienza o segnale d’emergenza; provvede agli interventi più importanti ed immediati.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3000013</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Struttura operativa che coordina i servizi di emergenza a livello provinciale. Le strutture adibite a sede COM devono avere una suddivisione interna che preveda almeno: una sala per le riunioni, una sala per le funzioni di supporto, una sala per il volontariato, una sala per le telecomunicazioni. Il c.o.m. È una struttura operativa decentrata il cui responsabile dipende dal c.c.s. (centro coordinamento soccorsi); vi partecipano i rappresentanti dei comuni e delle strutture operative. Può essere istituito presso i comuni a cura del prefetto competente per territorio. I compiti del c.o.m. sono quelli di favorire il coordinamento dei servizi di emergenza organizzati a livello provinciale con gli interventi dei sindaci appartenenti al c.o.m. Stesso. L’ubicazione del c.o.m. Deve essere baricentrica rispetto ai comuni coordinati e localizzata in locali non vulnerabili.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3000014</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Centro nazionale che raccoglie e valuta informazioni e notizie relative a qualsiasi evento che possa determinare l'attivazione di strutture operative di protezione civile. In situazioni di emergenza si attiva come sala operativa a livello nazionale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3000015</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rappresenta il massimo organo di coordinamento delle attività di protezione civile a livello provinciale. È composto dai responsabili di tutte le strutture operative presenti sul territorio provinciale. I compiti del ccs consistono nell'individuazione delle strategie e delle operatività di intervento necessarie al superamento dell'emergenza attraverso il coordinamento dei com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3000016</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E’ costituito presso lo stato maggiore dell’esercito per la pianificazione ed il coordinamento specifico degli interventi delle forze armate in concorso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3000017</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>E’ una struttura costituita localmente (stazione del corpo forestale dello stato) nell’ambito del sistema integrato di lotta agli incendi boschivi; controlla un’area più o meno estesa del territorio comunale od intercomunale. Ad esso sono collegate diverse stazioni fisse di rilevamento ed é predisposto a ricevere comunicazioni (aib) da aerei, finalizzate all’avvistamento. Valuta sulla base delle informazioni, l’esigenza di intervento aereo e la segnala al centro operativo provinciale (c.o.p.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3000018</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>E’ una struttura costituita a livello provinciale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento dell’attività di tutti i col di competenza, al controllo ed alla gestione dell’intervento e delle risorse a livello provinciale, al collegamento operativo con il cor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3000019</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sono attivita' di prevenzione non strutturale di protezione civile quelle concernenti: a) l'allertamento del Servizio nazionale, articolato in attivita' di preannuncio in termini probabilistici, ove possibile e sulla base delle conoscenze disponibili, di monitoraggio e di sorveglianza in tempo reale degli eventi e della conseguente evoluzione degli scenari di rischio; b) la pianificazione di protezione civile, come disciplinata dall'articolo 18; c) la formazione e l'acquisizione di ulteriori competenze professionali degli operatori del Servizio nazionale; d) l'applicazione e l'aggiornamento della normativa tecnica di interesse; e) la diffusione della conoscenza e della cultura della protezione civile, anche con il coinvolgimento delle istituzioni scolastiche, allo scopo di promuovere la resilienza delle comunita' e l'adozione di comportamenti consapevoli e misure di autoprotezione da parte dei cittadini; f) l'informazione alla popolazione sugli scenari di rischio e le relative norme di comportamento nonche' sulla pianificazione di protezione civile; g) la promozione e l'organizzazione di esercitazioni ed altre attivita' addestrative e formative, anche con il coinvolgimento delle comunita', sul territorio nazionale al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; h) le attivita' di cui al presente comma svolte all'estero, in via bilaterale, o nel quadro della partecipazione dell'Italia all'Unione europea e ad organizzazioni internazionali, al fine di promuovere l'esercizio integrato e partecipato della funzione di protezione civile; i) le attivita' volte ad assicurare il raccordo tra la pianificazione di protezione civile e la pianificazione territoriale e le procedure amministrative di gestione del territorio per gli aspetti di competenza delle diverse componenti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3000020</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sono attivita' di prevenzione strutturale di protezione civile quelle concernenti: a) la partecipazione all'elaborazione delle linee di indirizzo nazionali e regionali per la definizione delle politiche di prevenzione strutturale dei rischi naturali o derivanti dalle attivita' dell'uomo e per la loro attuazione; b) la partecipazione alla programmazione degli interventi finalizzati alla mitigazione dei rischi naturali o derivanti dall'attivita' dell'uomo e alla relativa attuazione; c) l'esecuzione di interventi strutturali di mitigazione del rischio in occasione di eventi calamitosi, in coerenza con gli strumenti di programmazione e pianificazione esistenti; d) le azioni integrate di prevenzione strutturale e non strutturale per finalita' di protezione civile di cui all'articolo 22.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3000021</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sono attivita' di protezione civile quelle volte alla previsione, prevenzione e mitigazione dei rischi, alla gestione delle emergenze e al loro superamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3000022</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>In coerenza con le tipologie dei rischi di cui all'articolo 16, la Commissione nazionale per la previsione e la prevenzione dei grandi rischi e' organo di consulenza tecnico-scientifica del Dipartimento della protezione civile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3000023</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>L'Elenco nazionale del volontariato di protezione civile costituisce lo strumento operativo mediante il quale viene assicurata la partecipazione del volontariato organizzato alle attivita' di cui all'articolo 2, garantendone l'indirizzo unitario, nel rispetto delle peculiarita' dei territori, grazie a specifiche modalita' di registrazione. L'Elenco nazionale del volontariato di protezione civile e' costituito dall'insieme: a) degli elenchi territoriali del volontariato di protezione civile, istituiti presso le Regioni e le Province autonome di Trento e di Bolzano; b) dell'elenco centrale del volontariato di protezione civile, istituito presso il Dipartimento della protezione civile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3000024</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che possono essere fronteggiati mediante interventi attuabili, dai singoli enti e amministrazioni competenti in via ordinaria;</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3000025</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Emergenza determinata dall'emissione illecita di sostanze biologiche, organismi patogeni (che causano malattie) o dei loro prodotti metabolici. L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico).</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3000026</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Emergenze connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che per loro natura o estensione comportano l'intervento coordinato di piu' enti o amministrazioni, e debbono essere fronteggiati con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo, disciplinati dalle Regioni e dalle Province autonome di Trento e di Bolzano nell'esercizio della rispettiva potesta' legislativa;</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3000027</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Emergenze di rilievo nazionale connesse con eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo che in ragione della loro intensita' o estensione debbono, con immediatezza d'intervento, essere fronteggiate con mezzi e poteri straordinari da impiegare durante limitati e predefiniti periodi di tempo ai sensi dell'articolo 24.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3000028</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>La pianificazione di protezione civile ai diversi livelli territoriali e' l'attivita' di prevenzione non strutturale, basata sulle attivita' di previsione e, in particolare, di identificazione degli scenari di cui all'articolo 2, comma 2, finalizzata: a) alla definizione delle strategie operative e del modello di intervento contenente l'organizzazione delle strutture per lo svolgimento, in forma coordinata, delle attivita' di protezione civile e della risposta operativa per la gestione degli eventi calamitosi previsti o in atto, garantendo l'effettivita' delle funzioni da svolgere con particolare riguardo alle persone in condizioni di fragilita' sociale e con disabilita', in relazione agli ambiti ottimali di cui all'articolo 11, comma 3, definiti su base provinciale e comunale, quest'ultimo anche in forma aggregata; b) ad assicurare il necessario raccordo informativo con le strutture preposte all'allertamento del Servizio nazionale; c) alla definizione dei flussi di comunicazione tra le componenti e strutture operative del Servizio nazionale interessate; d) alla definizione dei meccanismi e delle procedure per la revisione e l'aggiornamento della pianificazione, per l'organizzazione di esercitazioni e per la relativa informazione alla popolazione, da assicurare anche in corso di evento;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3000029</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>La prevenzione consiste nell'insieme delle attivita' di natura strutturale e non strutturale, svolte anche in forma integrata, dirette a evitare o a ridurre la possibilita' che si verifichino danni conseguenti a eventi calamitosi anche sulla base delle conoscenze acquisite per effetto delle attivita'</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3000030</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>La previsione consiste nell'insieme delle attivita', svolte anche con il concorso di soggetti dotati di competenza scientifica, tecnica e amministrativa, dirette all'identificazione e allo studio, anche dinamico, degli scenari di rischio possibili, per le</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3000031</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sindaci, sindaci metropolitani e presidenti delle regioni.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3000032</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Termine che indica il denaro del fondo emergenza nazionale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3000033</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Può intendersi la stima – quantitativa o qualitativa – della tipologia, del volume (o dell’area) nonché della distribuzione delle frane esistenti o che potrebbero verificarsi all’interno di una ben determinata area. La suscettibilità potrebbe anche includere una descrizione della velocità e della intensità delle frane esistenti o potenziali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3000034</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>La CENAL, una divisione dell'Ufficio federale della protezione della popolazione (UFPP), è l'organo federale competente per gli eventi straordinari. Il compito principale della CENAL è quello di tracciare il quadro della situazione prioritaria per la protezione della popolazione. A tal fine, sia nella quotidianità che in caso d'evento scambia informazioni con le autorità competenti dei Cantoni, diversi uffici federali, i gestori delle reti di telecomunicazione, dell'energia e dei trasporti, organizzazioni internazionali e con i centri d'analisi della situazione dei Paesi limitrofi. In caso d'evento, funge da primo punto di contatto per i Cantoni in relazione a tutte le questioni inerenti alla protezione della popolazione. In caso di eventi maggiori, la CENAL informa lo stato maggiore federale Protezione della popolazione e l'assiste nel suo lavoro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>3000035</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Nel caso in cui si delinea o si è verificato un evento di portata nazionale rilevante per la protezione della popolazione, lo SMFP assume i compiti seguenti (art. 4, cpv. 2 OSMFP):
 - assicura lo scambio di informazioni e il coordinamento con altri stati maggiori e organi della Confederazione e dei Cantoni, con i gestori di infrastrutture critiche e con i competenti organi all'estero;
@@ -1762,40 +2204,40 @@
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>3000036</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>La protezione civile protegge la popolazione, assiste le persone in cerca di protezione, protegge i beni culturali, sostiene gli organi di condotta e le altre organizzazioni partner nonché svolge lavori di ripristino e di pubblica utilità. Essa è un’organizzazione civile che opera singolarmente o in maniera coordinata, come organizzazione partner, all'interno della struttura svizzera di di protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>3000037</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Il Servizio nazionale della protezione civile, di seguito Servizio nazionale, definito di pubblica utilita', e' il sistema che esercita la funzione di protezione civile costituita dall'insieme delle competenze e delle attivita' volte a tutelare la vita, l'integrita' fisica, i beni, gli insediamenti, gli animali e l'ambiente dai danni o dal pericolo di danni derivanti da eventi calamitosi di origine naturale o derivanti dall'attivita' dell'uomo.</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>3000038</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Il comando della protezione civile è l’organo che dirige la protezione civile, ed è generalmente costituito dal comandante della protezione civile e dai suoi sostituti. I suoi compiti fondamentali sono i seguenti:
 - condurre gli interventi
@@ -1806,27 +2248,27 @@
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>3000039</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Si definiscono impianti di protezione i posti di comando, gli impianti d'apprestamento, i centri sanitari protetti e gli ospedali protetti. Essi vengono utilizzati soprattutto per garantire la condotta e l’operatività dei mezzi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
         <v>3000040</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Per evento NBC s'intende l'emissione illecita di sostanze nucleari (atomiche e radiologiche, N), biologiche (B) o chimiche (C). L'emissione può essere accidentale (incidente) o intenzionale (atto criminale o terroristico). Si distinguono i seguenti settori:
 - settore N: emissione di radiazioni ionizzanti e radioattività;
@@ -1835,197 +2277,197 @@
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
         <v>3000041</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>La suscettibilità da frana è la probabilità che una frana avvenga in un territorio, sulla base delle condizioni locali. E’ una misura del grado in cui un territorio potrà essere interessato da frane, ossia una stima di “dove” le frane potranno accadere. La suscettibilità non considera la ricorrenza temporale, né la dimensione delle frane. In termini matematici, la suscettibilità da frana è comunemente espressa come la probabilità d’occorrenza spaziale di un dissesto, dato un insieme di condizioni territoriali e ambientali.</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>3000042</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>I pompieri sono responsabili di salvataggio e lotta contro i sinistri in generale, compresa la lotta antincendio e contro i sinistri ordinari. Intervengono anche in caso d’emissioni tossiche, fuoriuscite di carburanti e contaminazioni radioattive. Sono un mezzo di primo intervento.</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
         <v>3000043</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>In occasione degli eventi calamitosi, il Corpo nazionale dei vigili del fuoco opera gli interventi di soccorso tecnico indifferibili e urgenti: di ricerca e salvataggio delle persone e – ai fini della salvaguardia della pubblica incolumità – anche di messa in sicurezza dei luoghi, delle strutture e degli impianti.</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>3000044</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Oltre al Corpo nazionale dei vigili del fuoco, che opera quale componente fondamentale del Servizio nazionale della protezione civile, sono strutture operative nazionali: a) le Forze armate; b) le Forze di polizia; c) gli enti e istituti di ricerca di rilievo nazionale con finalità di protezione civile, anche organizzati come centri di competenza, l'Istituto nazionale di geofisica e vulcanologia e il Consiglio nazionale delle ricerche; d) le strutture del Servizio sanitario nazionale; e) il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile, l'Associazione della Croce rossa italiana e il Corpo nazionale del soccorso alpino e speleologico; f) il Sistema nazionale per la protezione dell'ambiente; g) le strutture preposte alla gestione dei servizi meteorologici a livello nazionale.</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>3000045</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Sono organizzazioni partner quelle che collaborano alla protezione della popolazione: Polizia, pompieri, servizi della sanità pubblica, servizi tecnici, protezione civile.</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>3000046</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Gli organi di condotta vengono istituiti dalle autorità competenti per lo svolgimento dei seguenti compiti: a - informare la popolazione in merito ai pericoli che la minacciano come pure alle possibilità e alle misure di protezione esistenti; b - avvertire, dare l’allarme e impartire alla popolazione istruzioni sul comportamento; c - assicurare le attività di condotta; d - coordinare i preparativi e gli interventi delle 
  organizzazioni partner; e - garantire, tempestivamente e in funzione della situazione, la disponibilità operativa e il rinforzo con personale e materiale della protezione della popolazione in vista di un conflitto armato.</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>3000047</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Si ha stato di necessità quando, a seguito di catastrofi, conflitti armati o altre situazioni d’emergenza che comportano un pericolo imminente per lo Stato, le persone o le cose, non sia più possibile garantire con i mezzi ordinari l’attività amministrativa o i servizi d’interesse pubblico e la protezione e l’assistenza delle persone e delle cose a livello cantonale, regionale o locale.</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>3000048</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Indica l'insieme delle emergenze di tipo A, B e C così come definiti dall' Art. 7, comma 1 del DL 02/01/2018, n°1.</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>3000049</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Sono impianti di protezione: a - i posti di comando; b. gli impianti d’apprestamento; c - i centri sanitari protetti; d - gli ospedali protetti.</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>3000050</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Le Costruzioni di protezione si distinguono in rifugi e impianti di protezione. Sono edifici che vengono costruiti o utilizzati ai fini di protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>3000051</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>posto protetto di cui ogni abitante deve disporre e che sia raggiungibile in tempo utile dalla propria abitazione.</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
         <v>3000052</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>milite impiegato, in funzione dell'evento o della situazione d'emergenza, per assistere persone in cerca di protezione (senzatetto, evacuati, ecc.) o aiutare i servizi della sanità pubblica (per es. in case per anziani). L'addetto all'assistenza deve disporre di buone competenze sociali e capacità organizzative.</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
         <v>3000053</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>milite impiegato per prestare aiuto alla condotta in seno all'organo di condotta o a favore dei partner ed istruito in materia di analisi della situazione e telematica. L'assistente di stato maggiore deve essere polivalente.</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>3000054</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>L’Organizzazione degli Stati maggiori di condotta (OSMC) è composta dai rappresentanti della Polizia cantonale, della Federazione cantonale ticinese corpi pompieri, della Federazione cantonale ticinese servizi autoambulanze, del Servizio della protezione civile cantonale, dei servizi tecnici e del Dipartimento delle istituzioni; ogni organizzazione designa il proprio rappresentante. A seconda delle necessità possono essere designati ulteriori responsabili per i servizi tecnici. L’OSMC è diretta dal rappresentante del Dipartimento.</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>3000055</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>milite impiegato soprattutto per assistere le organizzazioni
 partner nell'esecuzione dei lavori necessari per limitare o ripristinare i
@@ -2034,92 +2476,92 @@
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>3000056</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Lo SMCC è l’organo cantonale di condotta del Consiglio di Stato, che ne definisce la composizione, l’organizzazione e il funzionamento. Esso elabora le basi decisionali per il Consiglio di Stato, lo coadiuva nelle funzioni di direzione e coordinamento ed esegue le sue decisioni. Esso è competente quando le circostanze lo esigono, per predisporre e coordinare, in collaborazione con le autorità locali, le necessarie misure d’urgenza e di assistenza e condurne l’attuazione. La sua attivazione è decisa dal Comandante della Polizia cantonale; in caso di impedimento di questo e in successione, dal suo sostituto o dall’ufficiale di picchetto della Polizia cantonale.</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>3000057</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>Sistema di allertamento per eventi di tipo idrometeorologico.</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>3000058</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Il segnale d'allarme acqua viene emesso esclusivamente nelle regioni minacciate a valle di impianti d'accumulazione. Le sirene emettono dodici suoni continui e gravi in sequenze di 20 secondi e a intervalli di 10 secondi. L’allarme acqua esorta la popolazione ad abbandonare immediatamente la regione minacciata.</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>3000059</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>Lo SMRC è un organo di condotta che permette la coordinazione di più SMEPI attivi nella medesima regione. La costituzione di uno SMRC può essere ordinata o autorizzata dal Comandante dello SMCC. Esso è di norma condotto da un ufficiale della Polizia cantonale.</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>3000060</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>Lo SMEPI coordina l’intervento dei primi enti mobilitati, di regola polizia, pompieri e servizi d’autoambulanza. Esso è condotto, di principio, dalla Polizia cantonale.</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>3000061</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>La legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002 può essere considerata come la più importante legge dello stato svizzero in materia di protezione della protezione della popolazione, che costituisce quadro normativo di riferimento per altre leggi federali e cantonali in materia di protezione della popolazione. Essa disciplina principalmente due ambiti: - la collaborazione tra Confederazione e Cantoni nella protezione della popolazione. - il ruolo e i doveri degli organi e dei corpi della protezione della popolazione.</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>3000062</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Il servizio della protezione della popolazione si occupa prevalentemente dei preparativi per i casi di emergenza e di catastrofe.
 Assicura la collaborazione con i servizi delle Amministrazioni: federale, cantonale e comunali direttamente collegate con i temi trattati dal servizio e si occupa della coordinazione fra i partner del concetto “protezione della popolazione” (polizia cantonale, Federazione cantonale ticinese dei Corpi Pompieri, Federazione cantonale ticinese dei Servizi autoambulanze, organizzazioni regionali di protezione civile, servizi tecnici cantonali, servizi dello Stato Maggiore cantonale di catastrofe, ecc…).
@@ -2127,157 +2569,157 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>3000063</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Il Dipartimento della protezione civile è una struttura della Presidenza del Consiglio dei Ministri. Il Dipartimento, operando in stretto raccordo con le Regioni e le Province autonome, si occupa di tutte le attività volte alla previsione e alla prevenzione dei rischi, al soccorso e all’assistenza delle popolazioni colpite da calamità, al contrasto e al superamento dell’emergenza.</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>3000064</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="C170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>3000066</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Il decreto legislativo n. 1 del 2018, Codice della Protezioone Civile, include il volontariato organizzato di protezione civile iscritto nell'elenco nazionale del volontariato di protezione civile tra le strutture operative del Servizio nazionale. Il volontariato si integra con gli altri livelli territoriali di intervento previsti nell'organizzazione del sistema nazionale della protezione civile, in base al principio della sussidiarietà verticale. È inoltre attore del sistema e del proprio territorio: protegge la comunità in collaborazione con le istituzioni, in base al principio della sussidiarietà orizzontale.</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>3000067</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>La legge LPPC 2002 stabilisce che possono prestare volontariamente servizio di protezione civile: a. gli uomini prosciolti dall’obbligo di prestare servizio nella protezione civile; b. gli uomini soggetti all’obbligo militare prosciolti dall’obbligo di prestare servizio militare o civile; c. gli uomini prosciolti dall’obbligo di prestare servizio militare o civile; d. le cittadine svizzere, a partire dall’anno in cui compiono i 20 anni; e. gli stranieri domiciliati in Svizzera, a partire dall’anno in cui compiono i 20 anni. Bisogna porre attenzione al fatto che secondo la stessa legge, l’unica differenza tra un milite e un volontario (entrambi di protezione civile) è il fatto che i volontari sono prosciolti dall’obbligo di prestare servizio su domanda. Infatti, per il resto, militi e volontari hanno gli stessi diritti e doveri. 
 I diritti dei militi sono essenzialmente quattro: soldo e vitto, alloggio, trasporto gratuiti, cui si aggiungono alcune agevolazioni fiscali e indennità.</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
         <v>3000068</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Il Consiglio di Stato è l’autorità competente per: a) assicurare la condotta, l’intervento e il coordinamento delle organizzazioni partner; b) assicurare l’istruzione e la formazione, anche degli organi di condotta locali; c) promuovere l’aiuto intercomunale, così come la cooperazione intercantonale e
 transfrontaliera; d) esercitare le altre funzioni attribuitegli dalla presente legge.</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>3000069</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>I militi svizzeri sono reclutati dall’esercito e dalla protezione civile e di norma vengono assegnati al loro cantone di domicilio, oppure ad altri cantoni, se deciso dal cantone di domicilio, cui comunque spetta la scelta. I militi, oltre ad essere arruolati in maniera ordinaria, possono essere incorporati nel personale di riserva. Se un milite entra a far parte del personale di riserva non deve essere necessariamente formato e non ha diritto a prestare servizio di protezione civile.
 Una volta reclutati e addestrasti, i militi possono essere chiamati a prestare servizio dal consiglio federale o dal cantone cui sono assegnati. Il Consiglio federale e il cantone di assegnamento possono chiamare in servizio i militi di protezione civile in caso di catastrofi e situazioni d’emergenza che colpiscono uno o più Cantoni, oppure le zone limitrofe di Paesi confinanti, oppure in caso di conflitto armato. I militi possono inoltre essere mobilitati anche in assenza di emergenza per svolgere dei lavori di ripristino di pubblica utilità. In quest’ultimo caso però, esistono dei limiti al potere di convocazione esercitato dalle autorità sui militi .</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
         <v>3000070</v>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>La legge cantonale del 26 febbraio 2007 è legge di maggior riferimento del Canton Ticino in materia di protezione della popolazione.
 Essa riprende alcuni argomenti già sanciti dalla legge federale LPPC del 2002, approfondisce la struttura e i compiti di alcuni organi di protezione della popolazione cantonali, quali gli organi di condotta, e descrive il concetto di stato di necessità a livello cantonale.</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>3000071</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>team transfrontaliero di coordinamento costituito congiuntamente da personale qualificato, formato e attrezzato, della protezione civile lombarda e ticinese. Esso ha il compito, durante le emergenze nei territori di confine, di operare insieme sia per la valutazione dell’evento in corso e per i reciproci possibili riflessi sui rispettivi territori, sia quali “ufficiali di collegamento” per collegare le rispettive sale operative di ambo i lati del confine, consentendo una efficiente ed efficace relazione operativa. Il NUVRE viene introdotto dal progetto Gestisco 2018-2021.</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>3000072</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>Struttura operativa della protezione civile.</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
         <v>3000073</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Le SOREU hanno valenza interprovinciale: gestiscono le chiamate di soccorso sanitario con l'invio dei mezzi più appropriati fino al completamento del soccorso e/o all'eventuale affidamento del paziente alle strutture ospedaliere più idonee. Le SOREU operano tramite le dotazioni tecnologiche assegnate da AREU che permettono loro una costante interconnessione con i Call Center NUE 112 di riferimento, con i mezzi di soccorso delle AAT della propria area di competenza e con i Call Center sanitari specialistici, in modo da ottimizzare i tempi di risposta e intervento.</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
         <v>3000074</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>La SOREU dei Laghi è il riferimento per i territori di Como, Varese, Lecco e l'area del Legnanese.</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
         <v>3000075</v>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>La Sezione è articolata in cinque servizi con distinte aree di competenza: il Servizio amministrativo, il Servizio degli affari militari e del comando di circondario, il Servizio della protezione civile, il Servizio costruzioni di protezione civile e il Servizio della protezione della popolazione. 
 Il servizio amministrativo centralizzato della sezione si occupa di fornire le prime informazioni all’utenza e di smistarle ai vari servizi di competenza. Altri compiti specifici sono la contabilità, la corrispondenza e il supporto logistico per tutta la sezione. 
@@ -2288,446 +2730,16 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3000076</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>4000001</v>
-      </c>
-      <c r="C148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>4000002</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Competenza della Protezione Civile</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>4000019</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Competenza di protezione civile</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>4000025</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Rischio CBRNNe</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>4000033</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Geologia e sismologia</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>4000041</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Normativa</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>4000042</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Competenza di soccorso tecnico urgente; Competenza della Protezione Civile</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>5000001</v>
-      </c>
-      <c r="C155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>5000002</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Robin Fell , Jordi Corominas , Christophe Bonnard , Leonardo Cascini , Eric Leroi , William Z. Savage, Per Conto Del Jtc-1 Joint Technical Committee On Landslides And Engineered Slopes</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>5000032</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Tommaso Sansone</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>5000045</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>confederazione elvetica</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>5000067</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Tommaso sansone</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6000001</v>
-      </c>
-      <c r="C160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6000002</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Art 1, comma 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>6000006</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Lettera R</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>6000009</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>lettera C</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>6000019</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Art 2, comma 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>6000020</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Art 2, comma 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>6000021</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Art 2, comma 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>6000022</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Art 20, Comma 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>6000023</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Art 34, comma 1 e 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>6000024</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Art 7, Comma 1, lettera a</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>6000026</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Art 7, Comma 1, lettera b</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6000027</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Art 7, Comma 1, lettera c</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>6000028</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Art 18, comma 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>6000029</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Art 2, comma 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>6000030</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Art 2, comma 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>6000031</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Art 6, comma 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>6000036</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Art. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>6000039</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Impianti di protezione per la protezione della popolazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>6000040</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Definizione di „evento NBC“: emissione di sostanze pericolose</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>6000041</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>primo paragrafo</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>6000042</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Art. 3</t>
-        </is>
-      </c>
-    </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6000043</v>
+        <v>3000076</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Art. 10</t>
+          <t>E’ una struttura costituita a livello regionale nell’ambito del sistema integrato di lotta agli incendi boschivi; provvede al coordinamento di tutte le attività in materia.</t>
         </is>
       </c>
     </row>
@@ -2736,24 +2748,20 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6000044</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Art. 13</t>
-        </is>
-      </c>
+        <v>4000001</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6000046</v>
+        <v>4000002</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Art. 4</t>
+          <t>Competenza della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -2762,11 +2770,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6000047</v>
+        <v>4000019</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Art. 20</t>
+          <t>Competenza di protezione civile</t>
         </is>
       </c>
     </row>
@@ -2775,11 +2783,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6000048</v>
+        <v>4000025</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Art 7, Comma 1</t>
+          <t>Rischio CBRNNe</t>
         </is>
       </c>
     </row>
@@ -2788,11 +2796,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6000049</v>
+        <v>4000033</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Art. 50</t>
+          <t>Geologia e sismologia</t>
         </is>
       </c>
     </row>
@@ -2801,11 +2809,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6000050</v>
+        <v>4000041</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Art. 45 e Art. 50</t>
+          <t>Normativa</t>
         </is>
       </c>
     </row>
@@ -2814,11 +2822,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6000051</v>
+        <v>4000042</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Art. 45</t>
+          <t>Competenza di soccorso tecnico urgente; Competenza della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -2827,24 +2835,20 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6000052</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>pag 10</t>
-        </is>
-      </c>
+        <v>5000001</v>
+      </c>
+      <c r="C189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6000053</v>
+        <v>5000002</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>pag 9</t>
+          <t>Robin Fell , Jordi Corominas , Christophe Bonnard , Leonardo Cascini , Eric Leroi , William Z. Savage, Per Conto Del Jtc-1 Joint Technical Committee On Landslides And Engineered Slopes</t>
         </is>
       </c>
     </row>
@@ -2853,11 +2857,11 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6000054</v>
+        <v>5000032</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Art. 6</t>
+          <t>Tommaso Sansone</t>
         </is>
       </c>
     </row>
@@ -2866,11 +2870,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6000059</v>
+        <v>5000045</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Art. 11</t>
+          <t>confederazione elvetica</t>
         </is>
       </c>
     </row>
@@ -2879,11 +2883,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6000060</v>
+        <v>5000067</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Art. 12</t>
+          <t>Tommaso sansone</t>
         </is>
       </c>
     </row>
@@ -2892,24 +2896,20 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6000062</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Presentazione</t>
-        </is>
-      </c>
+        <v>6000001</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6000065</v>
+        <v>6000002</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normativa nazionale: Legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002</t>
+          <t>Art 1, comma 1</t>
         </is>
       </c>
     </row>
@@ -2918,11 +2918,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6000066</v>
+        <v>6000006</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Home &gt; Servizio Nazionale &gt; Strutture operative &gt; Volontariato</t>
+          <t>Lettera R</t>
         </is>
       </c>
     </row>
@@ -2931,11 +2931,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6000068</v>
+        <v>6000009</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Art. 7</t>
+          <t>lettera C</t>
         </is>
       </c>
     </row>
@@ -2944,11 +2944,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6000070</v>
+        <v>6000019</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normativa cantonale: Legge sulla protezione della popolazione (LProtPop) del 26 febbraio 2007</t>
+          <t>Art 2, comma 4</t>
         </is>
       </c>
     </row>
@@ -2957,20 +2957,24 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7000001</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
+        <v>6000020</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Art 2, comma 5</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7000002</v>
+        <v>6000021</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/glossario?p_p_id=DpcGlossario_WAR_DpcGlossario100SNAPSHOT&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_letter=C&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_action=listByLetter</t>
+          <t>Art 2, comma 1</t>
         </is>
       </c>
     </row>
@@ -2979,11 +2983,11 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7000009</v>
+        <v>6000022</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=1&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 20, Comma 1</t>
         </is>
       </c>
     </row>
@@ -2992,11 +2996,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>7000019</v>
+        <v>6000023</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=2&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 34, comma 1 e 3</t>
         </is>
       </c>
     </row>
@@ -3005,11 +3009,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>7000022</v>
+        <v>6000024</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=20&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 7, Comma 1, lettera a</t>
         </is>
       </c>
     </row>
@@ -3018,11 +3022,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>7000023</v>
+        <v>6000026</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=34&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=8&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 7, Comma 1, lettera b</t>
         </is>
       </c>
     </row>
@@ -3031,11 +3035,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7000024</v>
+        <v>6000027</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=7&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=2&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 7, Comma 1, lettera c</t>
         </is>
       </c>
     </row>
@@ -3044,11 +3048,11 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7000028</v>
+        <v>6000028</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=18&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 18, comma 1</t>
         </is>
       </c>
     </row>
@@ -3057,11 +3061,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7000031</v>
+        <v>6000029</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=6&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
+          <t>Art 2, comma 3</t>
         </is>
       </c>
     </row>
@@ -3070,11 +3074,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7000043</v>
+        <v>6000030</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=10&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
+          <t>Art 2, comma 2</t>
         </is>
       </c>
     </row>
@@ -3083,11 +3087,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7000044</v>
+        <v>6000031</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=13&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
+          <t>Art 6, comma 1</t>
         </is>
       </c>
     </row>
@@ -3096,11 +3100,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>8000001</v>
+        <v>6000036</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Glossario Dei Termini Inerenti Il Mondo Della Protezione Civile</t>
+          <t>Art. 1</t>
         </is>
       </c>
     </row>
@@ -3109,11 +3113,11 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>8000002</v>
+        <v>6000039</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Protezione Civile - Comune di Fondi</t>
+          <t>Impianti di protezione per la protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -3122,11 +3126,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>8000003</v>
+        <v>6000040</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Glossario – Dipartimento Della Protezione Civile</t>
+          <t>Definizione di „evento NBC“: emissione di sostanze pericolose</t>
         </is>
       </c>
     </row>
@@ -3135,11 +3139,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>8000005</v>
+        <v>6000041</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Glossario – Conoscere Il Territorio – Città Di Gubbio</t>
+          <t>primo paragrafo</t>
         </is>
       </c>
     </row>
@@ -3148,11 +3152,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>8000006</v>
+        <v>6000042</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Acronimi Utili In Protezione E Difesa Civile</t>
+          <t>Art. 3</t>
         </is>
       </c>
     </row>
@@ -3161,11 +3165,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>8000011</v>
+        <v>6000043</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Protezione Civile</t>
+          <t>Art. 10</t>
         </is>
       </c>
     </row>
@@ -3174,11 +3178,11 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>8000012</v>
+        <v>6000044</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Glossario Di Protezione Civile</t>
+          <t>Art. 13</t>
         </is>
       </c>
     </row>
@@ -3187,11 +3191,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>8000013</v>
+        <v>6000046</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Piano Protezione Civile Comunale – Comune Di Ravenna</t>
+          <t>Art. 4</t>
         </is>
       </c>
     </row>
@@ -3200,11 +3204,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>8000014</v>
+        <v>6000047</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Glossario Di Protezione Civile – Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
+          <t>Art. 20</t>
         </is>
       </c>
     </row>
@@ -3213,11 +3217,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>8000015</v>
+        <v>6000048</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Benvenuti sul sito web della Centrale nazionale d'allarme CENAL</t>
+          <t>Art 7, Comma 1</t>
         </is>
       </c>
     </row>
@@ -3226,11 +3230,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>8000016</v>
+        <v>6000049</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Emergenza - Glossario</t>
+          <t>Art. 50</t>
         </is>
       </c>
     </row>
@@ -3239,11 +3243,11 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>8000017</v>
+        <v>6000050</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Piano Comunale Di Protezione Civile – Comune di Fondi</t>
+          <t>Art. 45 e Art. 50</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3256,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>8000019</v>
+        <v>6000051</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Decreto Legislativo 2 Gennaio 2018, N. 1, Codice Della Protezione Civile. (18G00011)</t>
+          <t>Art. 45</t>
         </is>
       </c>
     </row>
@@ -3265,11 +3269,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>8000025</v>
+        <v>6000052</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>La Protezione NBC</t>
+          <t>pag 10</t>
         </is>
       </c>
     </row>
@@ -3278,20 +3282,24 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>8000032</v>
-      </c>
-      <c r="C224" t="inlineStr"/>
+        <v>6000053</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>pag 9</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>8000033</v>
+        <v>6000054</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Linee Guida Per La Zonazione Della Suscettibilità, Della Pericolosità E Del Rischio Da Frana Ai Fini Della Pianificazione Territoriale</t>
+          <t>Art. 6</t>
         </is>
       </c>
     </row>
@@ -3300,11 +3308,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8000035</v>
+        <v>6000059</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Elemento d'intervento e di supporto dello Stato maggiore federale Protezione della popolazione</t>
+          <t>Art. 11</t>
         </is>
       </c>
     </row>
@@ -3313,11 +3321,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>8000036</v>
+        <v>6000060</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Legge sulla protezione civile del 26 febbraio 2007</t>
+          <t>Art. 12</t>
         </is>
       </c>
     </row>
@@ -3326,11 +3334,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>8000038</v>
+        <v>6000062</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Il comando della protezione civile</t>
+          <t>Presentazione</t>
         </is>
       </c>
     </row>
@@ -3339,11 +3347,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>8000039</v>
+        <v>6000065</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Costruzioni di protezione</t>
+          <t>Normativa nazionale: Legge federale sulla protezione della popolazione e sulla protezione civile (LPPC) del 4 ottobre 2002</t>
         </is>
       </c>
     </row>
@@ -3352,11 +3360,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>8000041</v>
+        <v>6000066</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Modelli e carte di suscettibilità da frana</t>
+          <t>Home &gt; Servizio Nazionale &gt; Strutture operative &gt; Volontariato</t>
         </is>
       </c>
     </row>
@@ -3365,11 +3373,11 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>8000042</v>
+        <v>6000068</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Legge federale sulla protezione della popolazione e sulla protezione civile del 4 ottobre 2002</t>
+          <t>Art. 7</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3386,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>8000047</v>
+        <v>6000070</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Legge sulla protezione della popolazione (del 26 febbraio 2007)</t>
+          <t>Normativa cantonale: Legge sulla protezione della popolazione (LProtPop) del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -3391,24 +3399,20 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8000052</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Il comando della protezione civile - Personale</t>
-        </is>
-      </c>
+        <v>7000001</v>
+      </c>
+      <c r="C233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>8000054</v>
+        <v>7000002</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Regolamento sulla protezione della popolazione (RProtPop) (del 18 ottobre 2017)</t>
+          <t>http://www.protezionecivile.gov.it/glossario?p_p_id=DpcGlossario_WAR_DpcGlossario100SNAPSHOT&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_letter=C&amp;_DpcGlossario_WAR_DpcGlossario100SNAPSHOT_action=listByLetter</t>
         </is>
       </c>
     </row>
@@ -3417,11 +3421,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>8000058</v>
+        <v>7000009</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Segnali di allarme in Svizzera</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=1&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3430,11 +3434,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>8000062</v>
+        <v>7000019</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Servizio della protezione della popolazione</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=2&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3443,11 +3447,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>8000063</v>
+        <v>7000022</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Dipartimento</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=20&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3456,11 +3460,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>8000065</v>
+        <v>7000023</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=34&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=8&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3469,11 +3473,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>8000070</v>
+        <v>7000024</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-- -- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=7&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=2&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3482,11 +3486,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>8000073</v>
+        <v>7000028</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Le SOREU</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=18&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=5&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3495,11 +3499,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>8000074</v>
+        <v>7000031</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>SOREU dei Laghi</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=6&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=1&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0</t>
         </is>
       </c>
     </row>
@@ -3508,11 +3512,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>8000075</v>
+        <v>7000043</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Chi siamo</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=10&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
         </is>
       </c>
     </row>
@@ -3521,11 +3525,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>9000001</v>
+        <v>7000044</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Associazione Dei Comuni Dell'Umbria Per La Protezione Civile</t>
+          <t>https://www.gazzettaufficiale.it/atto/serie_generale/caricaArticolo?art.progressivo=0&amp;art.idArticolo=13&amp;art.versione=1&amp;art.codiceRedazionale=18G00011&amp;art.dataPubblicazioneGazzetta=2018-01-22&amp;art.idGruppo=3&amp;art.idSottoArticolo1=10&amp;art.idSottoArticolo=1&amp;art.flagTipoArticolo=0#art</t>
         </is>
       </c>
     </row>
@@ -3534,11 +3538,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>9000002</v>
+        <v>8000001</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Gruppo Radio Emergenza Santena</t>
+          <t>Glossario Dei Termini Inerenti Il Mondo Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3547,20 +3551,24 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>9000003</v>
-      </c>
-      <c r="C245" t="inlineStr"/>
+        <v>8000002</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Piano Comunale Di Protezione Civile - Comune di Fondi</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>9000004</v>
+        <v>8000003</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Associazione Falchi Del Sud - Napoli</t>
+          <t>Glossario – Dipartimento Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3569,11 +3577,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>9000005</v>
+        <v>8000005</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Protezione Civile Città Di Gubbio</t>
+          <t>Glossario – Conoscere Il Territorio – Città Di Gubbio</t>
         </is>
       </c>
     </row>
@@ -3582,11 +3590,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>9000013</v>
+        <v>8000006</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>GEB srl</t>
+          <t>Acronimi Utili In Protezione E Difesa Civile</t>
         </is>
       </c>
     </row>
@@ -3595,11 +3603,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>9000015</v>
+        <v>8000011</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
+          <t>Piano Comunale Di Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3608,11 +3616,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>9000019</v>
+        <v>8000012</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Presidenza Del Consiglio Dei Ministri</t>
+          <t>Glossario Di Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3621,11 +3629,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9000041</v>
+        <v>8000013</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>IRPI</t>
+          <t>Piano Protezione Civile Comunale – Comune Di Ravenna</t>
         </is>
       </c>
     </row>
@@ -3634,11 +3642,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>9000045</v>
+        <v>8000014</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Confederazion elvetica</t>
+          <t>Glossario Di Protezione Civile – Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3647,11 +3655,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>9000052</v>
+        <v>8000015</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Ufficio Federale della Protezione della Popolazione</t>
+          <t>Benvenuti sul sito web della Centrale nazionale d'allarme CENAL</t>
         </is>
       </c>
     </row>
@@ -3660,11 +3668,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9000062</v>
+        <v>8000016</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Repubblica e Cantone Ticino</t>
+          <t>Piano Comunale Di Emergenza - Glossario</t>
         </is>
       </c>
     </row>
@@ -3673,11 +3681,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9000065</v>
+        <v>8000017</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Tommaso Sansone</t>
+          <t>Piano Comunale Di Protezione Civile – Comune di Fondi</t>
         </is>
       </c>
     </row>
@@ -3686,11 +3694,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>9000067</v>
+        <v>8000019</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Tommaso sansone</t>
+          <t>Decreto Legislativo 2 Gennaio 2018, N. 1, Codice Della Protezione Civile. (18G00011)</t>
         </is>
       </c>
     </row>
@@ -3699,11 +3707,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9000072</v>
+        <v>8000025</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Alberto Bruno, Funzionario della protezione civile di regione lombardia</t>
+          <t>La Protezione NBC</t>
         </is>
       </c>
     </row>
@@ -3712,24 +3720,20 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>10000001</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Sispro Umbria</t>
-        </is>
-      </c>
+        <v>8000032</v>
+      </c>
+      <c r="C258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>10000002</v>
+        <v>8000033</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Comune Di Fondi</t>
+          <t>Linee Guida Per La Zonazione Della Suscettibilità, Della Pericolosità E Del Rischio Da Frana Ai Fini Della Pianificazione Territoriale</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3742,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>10000003</v>
+        <v>8000035</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Dipartimento della protezione civile</t>
+          <t>Elemento d'intervento e di supporto dello Stato maggiore federale Protezione della popolazione</t>
         </is>
       </c>
     </row>
@@ -3751,11 +3755,11 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>10000004</v>
+        <v>8000036</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Associazione Falchi Del Sud - Napoli</t>
+          <t>Legge sulla protezione civile del 26 febbraio 2007</t>
         </is>
       </c>
     </row>
@@ -3764,11 +3768,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>10000005</v>
+        <v>8000038</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Protezione Civile Città Di Gubbio</t>
+          <t>Il comando della protezione civile</t>
         </is>
       </c>
     </row>
@@ -3777,11 +3781,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>10000006</v>
+        <v>8000039</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Protezione Civile Città di Gubbio</t>
+          <t>Costruzioni di protezione</t>
         </is>
       </c>
     </row>
@@ -3790,11 +3794,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>10000009</v>
+        <v>8000041</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Dipartimento Della Protezione Civile</t>
+          <t>Modelli e carte di suscettibilità da frana</t>
         </is>
       </c>
     </row>
@@ -3803,11 +3807,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>10000013</v>
+        <v>8000042</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Comune di Ravenna</t>
+          <t>Legge federale sulla protezione della popolazione e sulla protezione civile del 4 ottobre 2002</t>
         </is>
       </c>
     </row>
@@ -3816,11 +3820,11 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>10000014</v>
+        <v>8000047</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Regione Sicilia</t>
+          <t>Legge sulla protezione della popolazione (del 26 febbraio 2007)</t>
         </is>
       </c>
     </row>
@@ -3829,11 +3833,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>10000016</v>
+        <v>8000052</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Comune di Modena</t>
+          <t>Il comando della protezione civile - Personale</t>
         </is>
       </c>
     </row>
@@ -3842,11 +3846,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>10000019</v>
+        <v>8000054</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Gazzetta Ufficiale</t>
+          <t>Regolamento sulla protezione della popolazione (RProtPop) (del 18 ottobre 2017)</t>
         </is>
       </c>
     </row>
@@ -3855,11 +3859,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>10000025</v>
+        <v>8000058</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Confederazione Elvetica</t>
+          <t>Segnali di allarme in Svizzera</t>
         </is>
       </c>
     </row>
@@ -3868,20 +3872,24 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>10000032</v>
-      </c>
-      <c r="C270" t="inlineStr"/>
+        <v>8000062</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Servizio della protezione della popolazione</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>10000036</v>
+        <v>8000063</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Repubblica e Cantone Ticino</t>
+          <t>Dipartimento</t>
         </is>
       </c>
     </row>
@@ -3890,11 +3898,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>10000041</v>
+        <v>8000065</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>IRPI CNR</t>
+          <t>-- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
         </is>
       </c>
     </row>
@@ -3903,11 +3911,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>10000045</v>
+        <v>8000070</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Confederazione elvetica</t>
+          <t>-- -- documento confronto normativa -- wp 3.2 gestisco -- da completare</t>
         </is>
       </c>
     </row>
@@ -3916,11 +3924,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10000073</v>
+        <v>8000073</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Areu Lombardia</t>
+          <t>Le SOREU</t>
         </is>
       </c>
     </row>
@@ -3929,11 +3937,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10000075</v>
+        <v>8000074</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Repubblica e Canton Ticino</t>
+          <t>SOREU dei Laghi</t>
         </is>
       </c>
     </row>
@@ -3942,11 +3950,11 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>11000001</v>
+        <v>8000075</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>http://sispro.umbria.it/glossario/</t>
+          <t>Chi siamo</t>
         </is>
       </c>
     </row>
@@ -3955,11 +3963,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>11000002</v>
+        <v>9000001</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>http://comunedifondi.it/protezionecivile/3%20-%20All.%201%20Glossario%20Protezione%20Civile.pdf</t>
+          <t>Associazione Dei Comuni Dell'Umbria Per La Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -3968,11 +3976,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>11000003</v>
+        <v>9000002</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/jcms/it/glossario.wp</t>
+          <t>Gruppo Radio Emergenza Santena</t>
         </is>
       </c>
     </row>
@@ -3981,24 +3989,20 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>11000004</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>http://protezionecivilecittadigubbio.com/Public/glossario.html</t>
-        </is>
-      </c>
+        <v>9000003</v>
+      </c>
+      <c r="C279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>11000006</v>
+        <v>9000004</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://protezionecivilecittadigubbio.com/?page_id=175</t>
+          <t>Associazione Falchi Del Sud - Napoli</t>
         </is>
       </c>
     </row>
@@ -4007,11 +4011,11 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>11000011</v>
+        <v>9000005</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>http://www.falchidelsud.org/glossario-di-protezione-civile/contenuti/glossario-di-protezione-civile</t>
+          <t>Protezione Civile Città Di Gubbio</t>
         </is>
       </c>
     </row>
@@ -4020,11 +4024,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11000013</v>
+        <v>9000013</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>http://www.comune.ra.it/content/download/73714/958121/file/D_Glossario.pdf</t>
+          <t>GEB srl</t>
         </is>
       </c>
     </row>
@@ -4033,11 +4037,11 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11000014</v>
+        <v>9000015</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>http://www.regione.sicilia.it/presidenza/protezionecivile/comitatoregionale/glossario/pdf/Acronimi.pdf</t>
+          <t>Regione Sicilia, Comitato Regionale Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -4046,11 +4050,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11000016</v>
+        <v>9000019</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/ambiente/protezione-civile/piano-comunale-di-protezione-civile/scheda-19-glossario</t>
+          <t>Presidenza Del Consiglio Dei Ministri</t>
         </is>
       </c>
     </row>
@@ -4059,11 +4063,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11000019</v>
+        <v>9000041</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>http://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+          <t>IRPI</t>
         </is>
       </c>
     </row>
@@ -4072,11 +4076,11 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11000025</v>
+        <v>9000045</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/aufgabenbabs/abcschutz.html</t>
+          <t>Confederazion elvetica</t>
         </is>
       </c>
     </row>
@@ -4085,20 +4089,24 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>11000032</v>
-      </c>
-      <c r="C287" t="inlineStr"/>
+        <v>9000052</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Ufficio Federale della Protezione della Popolazione</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11000033</v>
+        <v>9000062</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>http://www.associazionegeotecnica.it/sites/default/files/linee_guida_jtc-1_italiano_agi.pdf</t>
+          <t>Repubblica e Cantone Ticino</t>
         </is>
       </c>
     </row>
@@ -4107,11 +4115,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>11000034</v>
+        <v>9000065</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.naz.ch/index_it.html</t>
+          <t>Tommaso Sansone</t>
         </is>
       </c>
     </row>
@@ -4120,11 +4128,11 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>11000035</v>
+        <v>9000067</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.naz.ch/it/naz/eo.html</t>
+          <t>Tommaso sansone</t>
         </is>
       </c>
     </row>
@@ -4133,11 +4141,11 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>11000036</v>
+        <v>9000072</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/44</t>
+          <t>Alberto Bruno, Funzionario della protezione civile di regione lombardia</t>
         </is>
       </c>
     </row>
@@ -4146,11 +4154,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>11000038</v>
+        <v>10000001</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/zs/org/kdo.html</t>
+          <t>Sispro Umbria</t>
         </is>
       </c>
     </row>
@@ -4159,11 +4167,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>11000039</v>
+        <v>10000002</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/it/aufgabenbabs/schutzbauten.html</t>
+          <t>Comune Di Fondi</t>
         </is>
       </c>
     </row>
@@ -4172,11 +4180,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>11000040</v>
+        <v>10000003</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/dipartimento</t>
+          <t>Dipartimento della protezione civile</t>
         </is>
       </c>
     </row>
@@ -4185,11 +4193,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>11000041</v>
+        <v>10000004</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>http://www.irpi.cnr.it/focus/suscettibilita-da-frana/</t>
+          <t>Associazione Falchi Del Sud - Napoli</t>
         </is>
       </c>
     </row>
@@ -4198,11 +4206,11 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>11000042</v>
+        <v>10000005</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.admin.ch/opc/it/classified-compilation/20011872/201701010000/520.1.pdf</t>
+          <t>Protezione Civile Città Di Gubbio</t>
         </is>
       </c>
     </row>
@@ -4211,11 +4219,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>11000043</v>
+        <v>10000006</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+          <t>Protezione Civile Città di Gubbio</t>
         </is>
       </c>
     </row>
@@ -4224,11 +4232,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>11000047</v>
+        <v>10000009</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/48</t>
+          <t>Dipartimento Della Protezione Civile</t>
         </is>
       </c>
     </row>
@@ -4237,11 +4245,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>11000052</v>
+        <v>10000013</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.babs.admin.ch/content/babs-internet/it/publikservice/downloads/unterlagen-ausbildung/_jcr_content/contentPar/accordion_1920886228/accordionItems/kommando_zivilschutz/accordionPar/downloadlist_copy/downloadItems/829_1459931125997.download/personal170191103it.pdf</t>
+          <t>Comune di Ravenna</t>
         </is>
       </c>
     </row>
@@ -4250,11 +4258,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>11000054</v>
+        <v>10000014</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/index/nuovafinestra/atto/49/volume/5%20SICUREZZA/numLegge/500.110</t>
+          <t>Regione Sicilia</t>
         </is>
       </c>
     </row>
@@ -4263,11 +4271,11 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>11000057</v>
+        <v>10000016</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>http://www.protezionecivile.gov.it/servizio-nazionale/strutture-operative/volontariato</t>
+          <t>Comune di Modena</t>
         </is>
       </c>
     </row>
@@ -4276,11 +4284,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>11000058</v>
+        <v>10000019</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.ch.ch/it/allarme-sirene/</t>
+          <t>Gazzetta Ufficiale</t>
         </is>
       </c>
     </row>
@@ -4289,11 +4297,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>11000062</v>
+        <v>10000025</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www4.ti.ch/di/smpp/chi-siamo/servizio-della-protezione-della-popolazione/</t>
+          <t>Confederazione Elvetica</t>
         </is>
       </c>
     </row>
@@ -4302,24 +4310,20 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>11000068</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/pdfatto/atto/48</t>
-        </is>
-      </c>
+        <v>10000032</v>
+      </c>
+      <c r="C304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>11000073</v>
+        <v>10000036</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.areu.lombardia.it/web/home/soreu</t>
+          <t>Repubblica e Cantone Ticino</t>
         </is>
       </c>
     </row>
@@ -4328,11 +4332,11 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>11000074</v>
+        <v>10000041</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.areu.lombardia.it/web/home/soreu-dei-laghi</t>
+          <t>IRPI CNR</t>
         </is>
       </c>
     </row>
@@ -4341,11 +4345,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>11000075</v>
+        <v>10000045</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www4.ti.ch/di/smpp/chi-siamo/presentazione/</t>
+          <t>Confederazione elvetica</t>
         </is>
       </c>
     </row>
@@ -4354,20 +4358,24 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>12000001</v>
-      </c>
-      <c r="C308" t="inlineStr"/>
+        <v>10000073</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Areu Lombardia</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>12000002</v>
+        <v>10000075</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Definizione italiana, oggetto svizzero</t>
+          <t>Repubblica e Canton Ticino</t>
         </is>
       </c>
     </row>
@@ -4376,11 +4384,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>12000036</v>
+        <v>11000001</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
+          <t>http://sispro.umbria.it/glossario/</t>
         </is>
       </c>
     </row>
@@ -4389,11 +4397,11 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>12000042</v>
+        <v>11000002</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Per il lato italiano, definizione tratta dall'art 10 del codice di protezione civile del 2-1-2018, rielaborata da Tommaso Sansone.</t>
+          <t>http://comunedifondi.it/protezionecivile/3%20-%20All.%201%20Glossario%20Protezione%20Civile.pdf</t>
         </is>
       </c>
     </row>
@@ -4402,11 +4410,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>12000044</v>
+        <v>11000003</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>strutture operative in italia e organizzazioni partner in svizzera hanno la stessa connotazione all'interno di un sistema di protezione della popolazione.</t>
+          <t>http://www.protezionecivile.gov.it/jcms/it/glossario.wp</t>
         </is>
       </c>
     </row>
@@ -4415,11 +4423,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>12000047</v>
+        <v>11000004</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Per il lato italiano, definizione rielaborata da Tommaso Sansone a partire dall'art 7 del decreto di protezione civile 2-1-2018</t>
+          <t>http://protezionecivilecittadigubbio.com/Public/glossario.html</t>
         </is>
       </c>
     </row>
@@ -4428,12 +4436,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>12000061</v>
+        <v>11000006</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Il significato italiano di protezione civile coincide a livello di strutture con io significato svizzero di protezione della popolazione.
-Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
+          <t>https://protezionecivilecittadigubbio.com/?page_id=175</t>
         </is>
       </c>
     </row>
@@ -4442,11 +4449,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>12000064</v>
+        <v>11000011</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>definizione lato italiano, oggetto lato svizzero</t>
+          <t>http://www.falchidelsud.org/glossario-di-protezione-civile/contenuti/glossario-di-protezione-civile</t>
         </is>
       </c>
     </row>
@@ -4455,11 +4462,11 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>12000070</v>
+        <v>11000013</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>definizione italiana, oggetto svizzero</t>
+          <t>http://www.comune.ra.it/content/download/73714/958121/file/D_Glossario.pdf</t>
         </is>
       </c>
     </row>
@@ -4468,10 +4475,12 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>13000001</v>
-      </c>
-      <c r="C317" s="2" t="n">
-        <v>43838</v>
+        <v>11000014</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>http://www.regione.sicilia.it/presidenza/protezionecivile/comitatoregionale/glossario/pdf/Acronimi.pdf</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -4479,10 +4488,12 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>13000002</v>
-      </c>
-      <c r="C318" s="2" t="n">
-        <v>42793</v>
+        <v>11000016</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/ambiente/protezione-civile/piano-comunale-di-protezione-civile/scheda-19-glossario</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -4490,10 +4501,12 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>13000009</v>
-      </c>
-      <c r="C319" s="2" t="n">
-        <v>42795</v>
+        <v>11000019</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>http://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -4501,10 +4514,12 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>13000019</v>
-      </c>
-      <c r="C320" s="2" t="n">
-        <v>43297</v>
+        <v>11000025</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://www.babs.admin.ch/it/aufgabenbabs/abcschutz.html</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -4512,21 +4527,21 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>13000032</v>
-      </c>
-      <c r="C321" s="2" t="n">
-        <v>43412</v>
-      </c>
+        <v>11000032</v>
+      </c>
+      <c r="C321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>13000033</v>
-      </c>
-      <c r="C322" s="2" t="n">
-        <v>43119</v>
+        <v>11000033</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>http://www.associazionegeotecnica.it/sites/default/files/linee_guida_jtc-1_italiano_agi.pdf</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -4534,10 +4549,12 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>13000034</v>
-      </c>
-      <c r="C323" s="2" t="n">
-        <v>43656</v>
+        <v>11000034</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://www.naz.ch/index_it.html</t>
+        </is>
       </c>
     </row>
     <row r="324">
@@ -4545,10 +4562,12 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>13000039</v>
-      </c>
-      <c r="C324" s="2" t="n">
-        <v>43657</v>
+        <v>11000035</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://www.naz.ch/it/naz/eo.html</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -4556,10 +4575,12 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>13000040</v>
-      </c>
-      <c r="C325" s="2" t="n">
-        <v>43767</v>
+        <v>11000036</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/44</t>
+        </is>
       </c>
     </row>
     <row r="326">
@@ -4567,10 +4588,12 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>13000041</v>
-      </c>
-      <c r="C326" s="2" t="n">
-        <v>43731</v>
+        <v>11000038</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://www.babs.admin.ch/it/zs/org/kdo.html</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -4578,10 +4601,12 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>13000042</v>
-      </c>
-      <c r="C327" s="2" t="n">
-        <v>43766</v>
+        <v>11000039</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://www.babs.admin.ch/it/aufgabenbabs/schutzbauten.html</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -4589,10 +4614,12 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>13000061</v>
-      </c>
-      <c r="C328" s="2" t="n">
-        <v>43815</v>
+        <v>11000040</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>http://www.protezionecivile.gov.it/dipartimento</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -4600,10 +4627,12 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>13000063</v>
-      </c>
-      <c r="C329" s="2" t="n">
-        <v>43817</v>
+        <v>11000041</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>http://www.irpi.cnr.it/focus/suscettibilita-da-frana/</t>
+        </is>
       </c>
     </row>
     <row r="330">
@@ -4611,10 +4640,12 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>13000064</v>
-      </c>
-      <c r="C330" s="2" t="n">
-        <v>43780</v>
+        <v>11000042</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://www.admin.ch/opc/it/classified-compilation/20011872/201701010000/520.1.pdf</t>
+        </is>
       </c>
     </row>
     <row r="331">
@@ -4622,10 +4653,12 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>13000071</v>
-      </c>
-      <c r="C331" s="2" t="n">
-        <v>43774</v>
+        <v>11000043</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://www.gazzettaufficiale.it/eli/id/2018/1/22/18G00011/sg</t>
+        </is>
       </c>
     </row>
     <row r="332">
@@ -4633,10 +4666,12 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>13000072</v>
-      </c>
-      <c r="C332" s="2" t="n">
-        <v>43804</v>
+        <v>11000047</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/legge/num/48</t>
+        </is>
       </c>
     </row>
     <row r="333">
@@ -4644,10 +4679,12 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>13000073</v>
-      </c>
-      <c r="C333" s="2" t="n">
-        <v>43844</v>
+        <v>11000052</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://www.babs.admin.ch/content/babs-internet/it/publikservice/downloads/unterlagen-ausbildung/_jcr_content/contentPar/accordion_1920886228/accordionItems/kommando_zivilschutz/accordionPar/downloadlist_copy/downloadItems/829_1459931125997.download/personal170191103it.pdf</t>
+        </is>
       </c>
     </row>
     <row r="334">
@@ -4655,10 +4692,12 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13000075</v>
-      </c>
-      <c r="C334" s="2" t="n">
-        <v>43845</v>
+        <v>11000054</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/index/nuovafinestra/atto/49/volume/5%20SICUREZZA/numLegge/500.110</t>
+        </is>
       </c>
     </row>
     <row r="335">
@@ -4666,11 +4705,11 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>14000001</v>
+        <v>11000057</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>IDF1000658</t>
+          <t>http://www.protezionecivile.gov.it/servizio-nazionale/strutture-operative/volontariato</t>
         </is>
       </c>
     </row>
@@ -4679,11 +4718,11 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>14000002</v>
+        <v>11000058</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>IDF1002231</t>
+          <t>https://www.ch.ch/it/allarme-sirene/</t>
         </is>
       </c>
     </row>
@@ -4692,11 +4731,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>14000003</v>
+        <v>11000062</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>IDF1002236</t>
+          <t>https://www4.ti.ch/di/smpp/chi-siamo/servizio-della-protezione-della-popolazione/</t>
         </is>
       </c>
     </row>
@@ -4705,11 +4744,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>14000004</v>
+        <v>11000068</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>IDF1002238</t>
+          <t>https://m3.ti.ch/CAN/RLeggi/public/index.php/raccolta-leggi/pdfatto/atto/48</t>
         </is>
       </c>
     </row>
@@ -4718,11 +4757,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>14000005</v>
+        <v>11000073</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>IDF1002273</t>
+          <t>https://www.areu.lombardia.it/web/home/soreu</t>
         </is>
       </c>
     </row>
@@ -4731,11 +4770,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>14000006</v>
+        <v>11000074</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>IDF1002283</t>
+          <t>https://www.areu.lombardia.it/web/home/soreu-dei-laghi</t>
         </is>
       </c>
     </row>
@@ -4744,11 +4783,11 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>14000007</v>
+        <v>11000075</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>IDF1002712</t>
+          <t>https://www4.ti.ch/di/smpp/chi-siamo/presentazione/</t>
         </is>
       </c>
     </row>
@@ -4757,24 +4796,20 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>14000008</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>IDF1002720</t>
-        </is>
-      </c>
+        <v>12000001</v>
+      </c>
+      <c r="C342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>14000009</v>
+        <v>12000002</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>IDF1002766</t>
+          <t>Definizione italiana, oggetto svizzero</t>
         </is>
       </c>
     </row>
@@ -4783,11 +4818,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14000010</v>
+        <v>12000036</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>IDF1003030</t>
+          <t>Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
         </is>
       </c>
     </row>
@@ -4796,11 +4831,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14000011</v>
+        <v>12000042</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>IDF1004659</t>
+          <t>Per il lato italiano, definizione tratta dall'art 10 del codice di protezione civile del 2-1-2018, rielaborata da Tommaso Sansone.</t>
         </is>
       </c>
     </row>
@@ -4809,11 +4844,11 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14000012</v>
+        <v>12000044</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>IDF1004667</t>
+          <t>strutture operative in italia e organizzazioni partner in svizzera hanno la stessa connotazione all'interno di un sistema di protezione della popolazione.</t>
         </is>
       </c>
     </row>
@@ -4822,11 +4857,11 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>14000013</v>
+        <v>12000047</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>IDF1005534</t>
+          <t>Per il lato italiano, definizione rielaborata da Tommaso Sansone a partire dall'art 7 del decreto di protezione civile 2-1-2018</t>
         </is>
       </c>
     </row>
@@ -4835,11 +4870,12 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>14000014</v>
+        <v>12000061</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>IDF1005727</t>
+          <t>Il significato italiano di protezione civile coincide a livello di strutture con io significato svizzero di protezione della popolazione.
+Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
         </is>
       </c>
     </row>
@@ -4848,11 +4884,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>14000015</v>
+        <v>12000064</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>IDF1006146</t>
+          <t>definizione lato italiano, oggetto lato svizzero</t>
         </is>
       </c>
     </row>
@@ -4861,11 +4897,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>14000016</v>
+        <v>12000070</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>IDF1006757</t>
+          <t>definizione italiana, oggetto svizzero</t>
         </is>
       </c>
     </row>
@@ -4874,12 +4910,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>14000017</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>IDF1006758</t>
-        </is>
+        <v>13000001</v>
+      </c>
+      <c r="C351" s="2" t="n">
+        <v>43838</v>
       </c>
     </row>
     <row r="352">
@@ -4887,12 +4921,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>14000018</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>IDF1006760</t>
-        </is>
+        <v>13000002</v>
+      </c>
+      <c r="C352" s="2" t="n">
+        <v>42793</v>
       </c>
     </row>
     <row r="353">
@@ -4900,12 +4932,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>14000019</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>IDF1008618</t>
-        </is>
+        <v>13000009</v>
+      </c>
+      <c r="C353" s="2" t="n">
+        <v>42795</v>
       </c>
     </row>
     <row r="354">
@@ -4913,12 +4943,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>14000020</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>IDF1008619</t>
-        </is>
+        <v>13000019</v>
+      </c>
+      <c r="C354" s="2" t="n">
+        <v>43297</v>
       </c>
     </row>
     <row r="355">
@@ -4926,12 +4954,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>14000021</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>IDF1008620</t>
-        </is>
+        <v>13000032</v>
+      </c>
+      <c r="C355" s="2" t="n">
+        <v>43412</v>
       </c>
     </row>
     <row r="356">
@@ -4939,12 +4965,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>14000022</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>IDF1008621</t>
-        </is>
+        <v>13000033</v>
+      </c>
+      <c r="C356" s="2" t="n">
+        <v>43119</v>
       </c>
     </row>
     <row r="357">
@@ -4952,12 +4976,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>14000023</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>IDF1008622</t>
-        </is>
+        <v>13000034</v>
+      </c>
+      <c r="C357" s="2" t="n">
+        <v>43656</v>
       </c>
     </row>
     <row r="358">
@@ -4965,12 +4987,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>14000024</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>IDF1008623</t>
-        </is>
+        <v>13000039</v>
+      </c>
+      <c r="C358" s="2" t="n">
+        <v>43657</v>
       </c>
     </row>
     <row r="359">
@@ -4978,12 +4998,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>14000025</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>IDF1008624</t>
-        </is>
+        <v>13000040</v>
+      </c>
+      <c r="C359" s="2" t="n">
+        <v>43767</v>
       </c>
     </row>
     <row r="360">
@@ -4991,12 +5009,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>14000027</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>IDF1008625</t>
-        </is>
+        <v>13000041</v>
+      </c>
+      <c r="C360" s="2" t="n">
+        <v>43731</v>
       </c>
     </row>
     <row r="361">
@@ -5004,12 +5020,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>14000028</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>IDF1008627</t>
-        </is>
+        <v>13000042</v>
+      </c>
+      <c r="C361" s="2" t="n">
+        <v>43766</v>
       </c>
     </row>
     <row r="362">
@@ -5017,12 +5031,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>14000029</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>IDF1008628</t>
-        </is>
+        <v>13000061</v>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>43815</v>
       </c>
     </row>
     <row r="363">
@@ -5030,12 +5042,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>14000030</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>IDF1008629</t>
-        </is>
+        <v>13000063</v>
+      </c>
+      <c r="C363" s="2" t="n">
+        <v>43817</v>
       </c>
     </row>
     <row r="364">
@@ -5043,12 +5053,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>14000031</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>IDF1008647</t>
-        </is>
+        <v>13000064</v>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>43780</v>
       </c>
     </row>
     <row r="365">
@@ -5056,12 +5064,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>14000032</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>IDF1008657</t>
-        </is>
+        <v>13000071</v>
+      </c>
+      <c r="C365" s="2" t="n">
+        <v>43774</v>
       </c>
     </row>
     <row r="366">
@@ -5069,12 +5075,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>14000033</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>IDF1008675</t>
-        </is>
+        <v>13000072</v>
+      </c>
+      <c r="C366" s="2" t="n">
+        <v>43804</v>
       </c>
     </row>
     <row r="367">
@@ -5082,12 +5086,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>14000034</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>ITCH00001</t>
-        </is>
+        <v>13000073</v>
+      </c>
+      <c r="C367" s="2" t="n">
+        <v>43844</v>
       </c>
     </row>
     <row r="368">
@@ -5095,12 +5097,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>14000035</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>ITCH00002</t>
-        </is>
+        <v>13000075</v>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>43845</v>
       </c>
     </row>
     <row r="369">
@@ -5108,11 +5108,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>14000036</v>
+        <v>14000001</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>ITCH00003</t>
+          <t>IDF1000658</t>
         </is>
       </c>
     </row>
@@ -5121,11 +5121,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>14000038</v>
+        <v>14000002</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ITCH00004</t>
+          <t>IDF1002231</t>
         </is>
       </c>
     </row>
@@ -5134,11 +5134,11 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>14000039</v>
+        <v>14000003</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>IDF1002236</t>
         </is>
       </c>
     </row>
@@ -5147,11 +5147,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>14000040</v>
+        <v>14000004</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>IDF1002238</t>
         </is>
       </c>
     </row>
@@ -5160,11 +5160,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>14000041</v>
+        <v>14000005</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>IDF1002273</t>
         </is>
       </c>
     </row>
@@ -5173,11 +5173,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>14000042</v>
+        <v>14000006</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>IDF1002283</t>
         </is>
       </c>
     </row>
@@ -5186,11 +5186,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>14000044</v>
+        <v>14000007</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>IDF1002712</t>
         </is>
       </c>
     </row>
@@ -5199,11 +5199,11 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>14000046</v>
+        <v>14000008</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>IDF1002720</t>
         </is>
       </c>
     </row>
@@ -5212,11 +5212,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>14000047</v>
+        <v>14000009</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ITCH00012</t>
+          <t>IDF1002766</t>
         </is>
       </c>
     </row>
@@ -5225,11 +5225,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>14000049</v>
+        <v>14000010</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>IDF1003030</t>
         </is>
       </c>
     </row>
@@ -5238,11 +5238,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>14000050</v>
+        <v>14000011</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>IDF1004659</t>
         </is>
       </c>
     </row>
@@ -5251,11 +5251,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>14000051</v>
+        <v>14000012</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>IDF1004667</t>
         </is>
       </c>
     </row>
@@ -5264,11 +5264,11 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>14000052</v>
+        <v>14000013</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>IDF1005534</t>
         </is>
       </c>
     </row>
@@ -5277,11 +5277,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>14000053</v>
+        <v>14000014</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>IDF1005727</t>
         </is>
       </c>
     </row>
@@ -5290,11 +5290,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>14000054</v>
+        <v>14000015</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>IDF1006146</t>
         </is>
       </c>
     </row>
@@ -5303,11 +5303,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>14000055</v>
+        <v>14000016</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>IDF1006757</t>
         </is>
       </c>
     </row>
@@ -5316,11 +5316,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>14000056</v>
+        <v>14000017</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>IDF1006758</t>
         </is>
       </c>
     </row>
@@ -5329,11 +5329,11 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>14000057</v>
+        <v>14000018</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>IDF1006760</t>
         </is>
       </c>
     </row>
@@ -5342,11 +5342,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>14000058</v>
+        <v>14000019</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>IDF1008618</t>
         </is>
       </c>
     </row>
@@ -5355,11 +5355,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>14000059</v>
+        <v>14000020</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>IDF1008619</t>
         </is>
       </c>
     </row>
@@ -5368,11 +5368,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>14000060</v>
+        <v>14000021</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>IDF1008620</t>
         </is>
       </c>
     </row>
@@ -5381,11 +5381,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>14000061</v>
+        <v>14000022</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>ITCH00025</t>
+          <t>IDF1008621</t>
         </is>
       </c>
     </row>
@@ -5394,11 +5394,11 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>14000063</v>
+        <v>14000023</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>ITCH00026</t>
+          <t>IDF1008622</t>
         </is>
       </c>
     </row>
@@ -5407,11 +5407,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>14000064</v>
+        <v>14000024</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>ITCH00027</t>
+          <t>IDF1008623</t>
         </is>
       </c>
     </row>
@@ -5420,11 +5420,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>14000066</v>
+        <v>14000025</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>IDF1008624</t>
         </is>
       </c>
     </row>
@@ -5433,11 +5433,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>14000068</v>
+        <v>14000027</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>ITCH00029</t>
+          <t>IDF1008625</t>
         </is>
       </c>
     </row>
@@ -5446,11 +5446,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>14000069</v>
+        <v>14000028</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>ITCH00030</t>
+          <t>IDF1008627</t>
         </is>
       </c>
     </row>
@@ -5459,11 +5459,11 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>14000070</v>
+        <v>14000029</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>ITCH00031</t>
+          <t>IDF1008628</t>
         </is>
       </c>
     </row>
@@ -5472,11 +5472,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>14000071</v>
+        <v>14000030</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>ITCH00032</t>
+          <t>IDF1008629</t>
         </is>
       </c>
     </row>
@@ -5485,11 +5485,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>14000072</v>
+        <v>14000031</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>ITCH00033</t>
+          <t>IDF1008647</t>
         </is>
       </c>
     </row>
@@ -5498,11 +5498,11 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>14000073</v>
+        <v>14000032</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>ITCH00034</t>
+          <t>IDF1008657</t>
         </is>
       </c>
     </row>
@@ -5511,11 +5511,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>14000074</v>
+        <v>14000033</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>ITCH00035</t>
+          <t>IDF1008675</t>
         </is>
       </c>
     </row>
@@ -5524,11 +5524,11 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>14000075</v>
+        <v>14000034</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>ITCH00036</t>
+          <t>ITCH00001</t>
         </is>
       </c>
     </row>
@@ -5537,11 +5537,11 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>14000076</v>
+        <v>14000035</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>ITCH00040</t>
+          <t>ITCH00002</t>
         </is>
       </c>
     </row>
@@ -5550,9 +5550,451 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
+        <v>14000036</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ITCH00003</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>14000038</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>ITCH00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>14000039</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>ITCH00005</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>14000040</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>ITCH00006</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>14000041</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>ITCH00007</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>14000042</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>ITCH00009</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>14000044</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>ITCH00010</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>14000046</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>ITCH00011</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>14000047</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>ITCH00012</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>14000049</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>ITCH00013</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>14000050</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>ITCH00014</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>14000051</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>ITCH00015</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>14000052</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>ITCH00016</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>14000053</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>ITCH00017</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>14000054</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>ITCH00018</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>14000055</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>ITCH00019</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>14000056</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>ITCH00020</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>14000057</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>ITCH00021</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>14000058</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>ITCH00022</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>14000059</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>ITCH00023</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>14000060</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>ITCH00024</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>14000061</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>ITCH00025</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>14000063</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>ITCH00026</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>14000064</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>ITCH00027</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>14000066</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>ITCH00028</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>14000068</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>ITCH00029</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>14000069</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>ITCH00030</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>14000070</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>ITCH00031</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>14000071</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>ITCH00032</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>14000072</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>ITCH00033</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>14000073</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>ITCH00034</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>14000074</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>ITCH00035</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>14000075</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>ITCH00036</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>14000076</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>ITCH00040</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
         <v>15000001</v>
       </c>
-      <c r="C403" t="inlineStr">
+      <c r="C437" t="inlineStr">
         <is>
           <t>show</t>
         </is>
